--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -451,17 +451,13 @@
         <v>1.895750000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.909</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,14 +492,8 @@
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -537,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -642,17 +626,13 @@
         <v>1.895100000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.89</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
@@ -681,22 +661,14 @@
         <v>1.895250000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -724,22 +696,14 @@
         <v>1.895450000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -767,17 +731,13 @@
         <v>1.895400000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -812,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -847,22 +801,14 @@
         <v>1.894366666666669</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -890,22 +836,14 @@
         <v>1.894183333333335</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -933,22 +871,14 @@
         <v>1.893516666666668</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.891</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -976,22 +906,14 @@
         <v>1.893100000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1019,22 +941,14 @@
         <v>1.892916666666668</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1062,22 +976,14 @@
         <v>1.892983333333334</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1111,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1152,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1193,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1234,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1275,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1316,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1357,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1398,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1439,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1480,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1521,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1562,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1603,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1644,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1685,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1726,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1767,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1808,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1849,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1890,16 +1682,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>1.003421052631579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -5005,17 +4791,13 @@
         <v>1.91145</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
@@ -5044,22 +4826,14 @@
         <v>1.9107</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5087,108 +4861,90 @@
         <v>1.909733333333333</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F129" t="n">
+        <v>32036.3506</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.909516666666667</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.897</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.878</v>
+      </c>
+      <c r="F130" t="n">
+        <v>764683</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.908666666666667</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F129" t="n">
-        <v>32036.3506</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1.909516666666667</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K129" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="F130" t="n">
-        <v>764683</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1.908666666666667</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5222,11 +4978,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1.889</v>
-      </c>
+        <v>1.878</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5259,17 +5013,13 @@
         <v>1.908066666666667</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K132" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,17 +5052,13 @@
         <v>1.907233333333334</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5345,17 +5091,13 @@
         <v>1.907033333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K134" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5388,17 +5130,13 @@
         <v>1.90655</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5431,17 +5169,13 @@
         <v>1.905933333333333</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,17 +5208,13 @@
         <v>1.905616666666667</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5517,17 +5247,13 @@
         <v>1.905266666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K138" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,17 +5286,13 @@
         <v>1.904933333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,17 +5325,13 @@
         <v>1.9043</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5646,17 +5364,13 @@
         <v>1.904033333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5689,17 +5403,13 @@
         <v>1.903683333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="K142" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5732,17 +5442,13 @@
         <v>1.904066666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="K143" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,17 +5481,13 @@
         <v>1.904333333333334</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="K144" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,9 +5526,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5865,9 +5565,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,9 +5604,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,9 +5643,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,9 +5682,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6023,17 +5715,13 @@
         <v>1.902</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="K150" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6066,17 +5754,13 @@
         <v>1.901733333333333</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="K151" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6109,17 +5793,13 @@
         <v>1.901083333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="K152" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,17 +5832,13 @@
         <v>1.901316666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K153" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6195,17 +5871,13 @@
         <v>1.901266666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="K154" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,9 +5916,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6279,17 +5949,13 @@
         <v>1.900933333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="K156" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,17 +5988,13 @@
         <v>1.90065</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="K157" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6371,9 +6033,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,9 +6072,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,9 +6111,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6494,9 +6150,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,9 +6189,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6576,9 +6228,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6617,9 +6267,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,9 +6306,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6693,17 +6339,13 @@
         <v>1.898916666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="K166" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6736,17 +6378,13 @@
         <v>1.899066666666667</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K167" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6785,9 +6423,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,9 +6462,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6867,9 +6501,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,9 +6540,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6949,9 +6579,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.889</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:M173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="C2" t="n">
         <v>1.909</v>
@@ -442,16 +442,16 @@
         <v>1.909</v>
       </c>
       <c r="E2" t="n">
-        <v>1.909</v>
+        <v>1.855</v>
       </c>
       <c r="F2" t="n">
-        <v>482884.098</v>
+        <v>4327112.927</v>
       </c>
       <c r="G2" t="n">
-        <v>1.895750000000002</v>
+        <v>1.895933333333336</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C3" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D3" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E3" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="F3" t="n">
-        <v>25573.5762</v>
+        <v>482884.098</v>
       </c>
       <c r="G3" t="n">
-        <v>1.895566666666669</v>
+        <v>1.895750000000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="C4" t="n">
         <v>1.91</v>
       </c>
       <c r="D4" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="E4" t="n">
         <v>1.91</v>
       </c>
       <c r="F4" t="n">
-        <v>111010.3019</v>
+        <v>25573.5762</v>
       </c>
       <c r="G4" t="n">
-        <v>1.895600000000002</v>
+        <v>1.895566666666669</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.89</v>
+        <v>1.914</v>
       </c>
       <c r="C5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="D5" t="n">
-        <v>1.89</v>
+        <v>1.914</v>
       </c>
       <c r="E5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="F5" t="n">
-        <v>165219.2562</v>
+        <v>111010.3019</v>
       </c>
       <c r="G5" t="n">
-        <v>1.895383333333335</v>
+        <v>1.895600000000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="C6" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="D6" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="E6" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="F6" t="n">
-        <v>9263.8824</v>
+        <v>165219.2562</v>
       </c>
       <c r="G6" t="n">
-        <v>1.895316666666669</v>
+        <v>1.895383333333335</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="C7" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="D7" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="E7" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="F7" t="n">
-        <v>1882.1335</v>
+        <v>9263.8824</v>
       </c>
       <c r="G7" t="n">
-        <v>1.895100000000002</v>
+        <v>1.895316666666669</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C8" t="n">
-        <v>1.912</v>
+        <v>1.89</v>
       </c>
       <c r="D8" t="n">
-        <v>1.912</v>
+        <v>1.89</v>
       </c>
       <c r="E8" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F8" t="n">
-        <v>15710.8789</v>
+        <v>1882.1335</v>
       </c>
       <c r="G8" t="n">
-        <v>1.895250000000002</v>
+        <v>1.895100000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.912</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.915</v>
-      </c>
       <c r="D9" t="n">
-        <v>1.915</v>
+        <v>1.912</v>
       </c>
       <c r="E9" t="n">
-        <v>1.912</v>
+        <v>1.9</v>
       </c>
       <c r="F9" t="n">
-        <v>505748.371</v>
+        <v>15710.8789</v>
       </c>
       <c r="G9" t="n">
-        <v>1.895450000000002</v>
+        <v>1.895250000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.9</v>
+        <v>1.912</v>
       </c>
       <c r="C10" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="D10" t="n">
-        <v>1.9</v>
+        <v>1.915</v>
       </c>
       <c r="E10" t="n">
-        <v>1.9</v>
+        <v>1.912</v>
       </c>
       <c r="F10" t="n">
-        <v>36550.2599</v>
+        <v>505748.371</v>
       </c>
       <c r="G10" t="n">
-        <v>1.895400000000002</v>
+        <v>1.895450000000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="D11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E11" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="F11" t="n">
-        <v>496106.6153</v>
+        <v>36550.2599</v>
       </c>
       <c r="G11" t="n">
-        <v>1.894883333333335</v>
+        <v>1.895400000000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="C12" t="n">
         <v>1.89</v>
       </c>
       <c r="D12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="E12" t="n">
         <v>1.89</v>
       </c>
       <c r="F12" t="n">
-        <v>31520.4041</v>
+        <v>496106.6153</v>
       </c>
       <c r="G12" t="n">
-        <v>1.894366666666669</v>
+        <v>1.894883333333335</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="C13" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D13" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="E13" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>31520.4041</v>
       </c>
       <c r="G13" t="n">
-        <v>1.894183333333335</v>
+        <v>1.894366666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.891</v>
+        <v>1.91</v>
       </c>
       <c r="C14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="D14" t="n">
-        <v>1.891</v>
+        <v>1.91</v>
       </c>
       <c r="E14" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="F14" t="n">
-        <v>370000</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="n">
-        <v>1.893516666666668</v>
+        <v>1.894183333333335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="C15" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D15" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="E15" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F15" t="n">
-        <v>35288.2599</v>
+        <v>370000</v>
       </c>
       <c r="G15" t="n">
-        <v>1.893100000000001</v>
+        <v>1.893516666666668</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>1.91</v>
       </c>
       <c r="F16" t="n">
-        <v>261.7802</v>
+        <v>35288.2599</v>
       </c>
       <c r="G16" t="n">
-        <v>1.892916666666668</v>
+        <v>1.893100000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>1.91</v>
       </c>
       <c r="F17" t="n">
-        <v>1000</v>
+        <v>261.7802</v>
       </c>
       <c r="G17" t="n">
-        <v>1.892983333333334</v>
+        <v>1.892916666666668</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>1.91</v>
       </c>
       <c r="F18" t="n">
-        <v>197.3581</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="n">
-        <v>1.893050000000001</v>
+        <v>1.892983333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>1.91</v>
       </c>
       <c r="F19" t="n">
-        <v>64.4221</v>
+        <v>197.3581</v>
       </c>
       <c r="G19" t="n">
-        <v>1.893166666666667</v>
+        <v>1.893050000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>1.91</v>
       </c>
       <c r="F20" t="n">
-        <v>535.5779</v>
+        <v>64.4221</v>
       </c>
       <c r="G20" t="n">
-        <v>1.893283333333334</v>
+        <v>1.893166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="C21" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="D21" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="E21" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="F21" t="n">
-        <v>262</v>
+        <v>535.5779</v>
       </c>
       <c r="G21" t="n">
-        <v>1.893183333333334</v>
+        <v>1.893283333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1.914</v>
       </c>
       <c r="F22" t="n">
-        <v>1167.7285</v>
+        <v>262</v>
       </c>
       <c r="G22" t="n">
-        <v>1.893433333333334</v>
+        <v>1.893183333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>1.914</v>
       </c>
       <c r="C23" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="D23" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="E23" t="n">
         <v>1.914</v>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>1167.7285</v>
       </c>
       <c r="G23" t="n">
-        <v>1.893716666666667</v>
+        <v>1.893433333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="C24" t="n">
         <v>1.915</v>
@@ -1212,13 +1212,13 @@
         <v>1.915</v>
       </c>
       <c r="E24" t="n">
-        <v>1.915</v>
+        <v>1.914</v>
       </c>
       <c r="F24" t="n">
-        <v>2483.8394</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="n">
-        <v>1.894050000000001</v>
+        <v>1.893716666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>1.915</v>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>2483.8394</v>
       </c>
       <c r="G25" t="n">
-        <v>1.894466666666668</v>
+        <v>1.894050000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>1.915</v>
       </c>
       <c r="C26" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="D26" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="E26" t="n">
         <v>1.915</v>
       </c>
       <c r="F26" t="n">
-        <v>20875.2498</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="n">
-        <v>1.894933333333334</v>
+        <v>1.894466666666668</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="C27" t="n">
         <v>1.916</v>
@@ -1317,13 +1317,13 @@
         <v>1.916</v>
       </c>
       <c r="E27" t="n">
-        <v>1.916</v>
+        <v>1.915</v>
       </c>
       <c r="F27" t="n">
-        <v>20000</v>
+        <v>20875.2498</v>
       </c>
       <c r="G27" t="n">
-        <v>1.895616666666668</v>
+        <v>1.894933333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>1.916</v>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="n">
-        <v>1.896516666666668</v>
+        <v>1.895616666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.9</v>
+        <v>1.916</v>
       </c>
       <c r="C29" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="D29" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="E29" t="n">
-        <v>1.9</v>
+        <v>1.916</v>
       </c>
       <c r="F29" t="n">
-        <v>2747.394</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="n">
-        <v>1.897333333333334</v>
+        <v>1.896516666666668</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C30" t="n">
         <v>1.91</v>
@@ -1422,13 +1422,13 @@
         <v>1.91</v>
       </c>
       <c r="E30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="F30" t="n">
-        <v>2225.394</v>
+        <v>2747.394</v>
       </c>
       <c r="G30" t="n">
-        <v>1.897850000000001</v>
+        <v>1.897333333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="C31" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="D31" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="E31" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="F31" t="n">
-        <v>1000</v>
+        <v>2225.394</v>
       </c>
       <c r="G31" t="n">
-        <v>1.898783333333334</v>
+        <v>1.897850000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>1.916</v>
       </c>
       <c r="F32" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8997</v>
+        <v>1.898783333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>1.916</v>
       </c>
       <c r="C33" t="n">
-        <v>1.94</v>
+        <v>1.916</v>
       </c>
       <c r="D33" t="n">
-        <v>1.94</v>
+        <v>1.916</v>
       </c>
       <c r="E33" t="n">
         <v>1.916</v>
       </c>
       <c r="F33" t="n">
-        <v>1847000</v>
+        <v>3000</v>
       </c>
       <c r="G33" t="n">
-        <v>1.901033333333334</v>
+        <v>1.8997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,32 +1553,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="C34" t="n">
         <v>1.94</v>
       </c>
-      <c r="C34" t="n">
-        <v>1.947</v>
-      </c>
       <c r="D34" t="n">
-        <v>1.947</v>
+        <v>1.94</v>
       </c>
       <c r="E34" t="n">
-        <v>1.94</v>
+        <v>1.916</v>
       </c>
       <c r="F34" t="n">
-        <v>227421.264</v>
+        <v>1847000</v>
       </c>
       <c r="G34" t="n">
-        <v>1.902000000000001</v>
+        <v>1.901033333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1.916</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.947</v>
+        <v>1.94</v>
       </c>
       <c r="C35" t="n">
         <v>1.947</v>
@@ -1597,13 +1603,13 @@
         <v>1.947</v>
       </c>
       <c r="E35" t="n">
-        <v>1.947</v>
+        <v>1.94</v>
       </c>
       <c r="F35" t="n">
-        <v>4088.06</v>
+        <v>227421.264</v>
       </c>
       <c r="G35" t="n">
-        <v>1.902966666666667</v>
+        <v>1.902000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1619,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1633,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.946</v>
+        <v>1.947</v>
       </c>
       <c r="C36" t="n">
-        <v>1.946</v>
+        <v>1.947</v>
       </c>
       <c r="D36" t="n">
-        <v>1.946</v>
+        <v>1.947</v>
       </c>
       <c r="E36" t="n">
-        <v>1.946</v>
+        <v>1.947</v>
       </c>
       <c r="F36" t="n">
-        <v>1000</v>
+        <v>4088.06</v>
       </c>
       <c r="G36" t="n">
-        <v>1.903900000000001</v>
+        <v>1.902966666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1658,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,32 +1672,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="C37" t="n">
-        <v>1.916</v>
+        <v>1.946</v>
       </c>
       <c r="D37" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="E37" t="n">
-        <v>1.916</v>
+        <v>1.946</v>
       </c>
       <c r="F37" t="n">
-        <v>523013.1707</v>
+        <v>1000</v>
       </c>
       <c r="G37" t="n">
-        <v>1.904583333333334</v>
+        <v>1.903900000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C38" t="n">
-        <v>1.94</v>
+        <v>1.916</v>
       </c>
       <c r="D38" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="E38" t="n">
-        <v>1.94</v>
+        <v>1.916</v>
       </c>
       <c r="F38" t="n">
-        <v>5995.8625</v>
+        <v>523013.1707</v>
       </c>
       <c r="G38" t="n">
-        <v>1.905916666666667</v>
+        <v>1.904583333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1736,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1753,19 @@
         <v>1.94</v>
       </c>
       <c r="C39" t="n">
-        <v>1.946</v>
+        <v>1.94</v>
       </c>
       <c r="D39" t="n">
-        <v>1.946</v>
+        <v>1.94</v>
       </c>
       <c r="E39" t="n">
         <v>1.94</v>
       </c>
       <c r="F39" t="n">
-        <v>14379.3901</v>
+        <v>5995.8625</v>
       </c>
       <c r="G39" t="n">
-        <v>1.907350000000001</v>
+        <v>1.905916666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1775,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1789,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C40" t="n">
         <v>1.946</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.916</v>
       </c>
       <c r="D40" t="n">
         <v>1.946</v>
       </c>
       <c r="E40" t="n">
-        <v>1.916</v>
+        <v>1.94</v>
       </c>
       <c r="F40" t="n">
-        <v>1705.6006</v>
+        <v>14379.3901</v>
       </c>
       <c r="G40" t="n">
-        <v>1.908366666666667</v>
+        <v>1.907350000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1814,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1831,19 @@
         <v>1.946</v>
       </c>
       <c r="C41" t="n">
-        <v>1.946</v>
+        <v>1.916</v>
       </c>
       <c r="D41" t="n">
         <v>1.946</v>
       </c>
       <c r="E41" t="n">
-        <v>1.946</v>
+        <v>1.916</v>
       </c>
       <c r="F41" t="n">
-        <v>44640.0824</v>
+        <v>1705.6006</v>
       </c>
       <c r="G41" t="n">
-        <v>1.9099</v>
+        <v>1.908366666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1853,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1867,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.945</v>
+        <v>1.946</v>
       </c>
       <c r="C42" t="n">
-        <v>1.945</v>
+        <v>1.946</v>
       </c>
       <c r="D42" t="n">
-        <v>1.945</v>
+        <v>1.946</v>
       </c>
       <c r="E42" t="n">
-        <v>1.945</v>
+        <v>1.946</v>
       </c>
       <c r="F42" t="n">
-        <v>600042.8235000001</v>
+        <v>44640.0824</v>
       </c>
       <c r="G42" t="n">
-        <v>1.90965</v>
+        <v>1.9099</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1892,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +1918,10 @@
         <v>1.945</v>
       </c>
       <c r="F43" t="n">
-        <v>15261.8117</v>
+        <v>600042.8235000001</v>
       </c>
       <c r="G43" t="n">
-        <v>1.909416666666667</v>
+        <v>1.90965</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1931,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1945,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.946</v>
+        <v>1.945</v>
       </c>
       <c r="C44" t="n">
-        <v>1.946</v>
+        <v>1.945</v>
       </c>
       <c r="D44" t="n">
-        <v>1.946</v>
+        <v>1.945</v>
       </c>
       <c r="E44" t="n">
-        <v>1.946</v>
+        <v>1.945</v>
       </c>
       <c r="F44" t="n">
-        <v>21722.3379</v>
+        <v>15261.8117</v>
       </c>
       <c r="G44" t="n">
-        <v>1.910016666666667</v>
+        <v>1.909416666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1970,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1984,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="C45" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="D45" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="E45" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="F45" t="n">
-        <v>394.5768</v>
+        <v>21722.3379</v>
       </c>
       <c r="G45" t="n">
-        <v>1.910683333333334</v>
+        <v>1.910016666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2009,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,57 +2023,59 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C46" t="n">
-        <v>1.946</v>
+        <v>1.93</v>
       </c>
       <c r="D46" t="n">
-        <v>1.946</v>
+        <v>1.93</v>
       </c>
       <c r="E46" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="F46" t="n">
-        <v>64517.9941</v>
+        <v>394.5768</v>
       </c>
       <c r="G46" t="n">
-        <v>1.911616666666667</v>
+        <v>1.910683333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="C47" t="n">
-        <v>1.917</v>
+        <v>1.946</v>
       </c>
       <c r="D47" t="n">
-        <v>1.93</v>
+        <v>1.946</v>
       </c>
       <c r="E47" t="n">
-        <v>1.917</v>
+        <v>1.94</v>
       </c>
       <c r="F47" t="n">
-        <v>36393</v>
+        <v>64517.9941</v>
       </c>
       <c r="G47" t="n">
-        <v>1.912066666666667</v>
+        <v>1.911616666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2095,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C48" t="n">
-        <v>1.94</v>
+        <v>1.917</v>
       </c>
       <c r="D48" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="E48" t="n">
-        <v>1.94</v>
+        <v>1.917</v>
       </c>
       <c r="F48" t="n">
-        <v>36392.2439</v>
+        <v>36393</v>
       </c>
       <c r="G48" t="n">
-        <v>1.913033333333334</v>
+        <v>1.912066666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.918</v>
+        <v>1.94</v>
       </c>
       <c r="C49" t="n">
-        <v>1.916</v>
+        <v>1.94</v>
       </c>
       <c r="D49" t="n">
-        <v>1.918</v>
+        <v>1.94</v>
       </c>
       <c r="E49" t="n">
-        <v>1.916</v>
+        <v>1.94</v>
       </c>
       <c r="F49" t="n">
-        <v>1126310.995</v>
+        <v>36392.2439</v>
       </c>
       <c r="G49" t="n">
-        <v>1.913316666666667</v>
+        <v>1.913033333333334</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2165,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.944</v>
+        <v>1.918</v>
       </c>
       <c r="C50" t="n">
-        <v>1.944</v>
+        <v>1.916</v>
       </c>
       <c r="D50" t="n">
-        <v>1.944</v>
+        <v>1.918</v>
       </c>
       <c r="E50" t="n">
-        <v>1.944</v>
+        <v>1.916</v>
       </c>
       <c r="F50" t="n">
-        <v>832.116</v>
+        <v>1126310.995</v>
       </c>
       <c r="G50" t="n">
-        <v>1.914383333333334</v>
+        <v>1.913316666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2200,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.91</v>
+        <v>1.944</v>
       </c>
       <c r="C51" t="n">
-        <v>1.91</v>
+        <v>1.944</v>
       </c>
       <c r="D51" t="n">
-        <v>1.91</v>
+        <v>1.944</v>
       </c>
       <c r="E51" t="n">
-        <v>1.91</v>
+        <v>1.944</v>
       </c>
       <c r="F51" t="n">
-        <v>520.8333</v>
+        <v>832.116</v>
       </c>
       <c r="G51" t="n">
-        <v>1.9148</v>
+        <v>1.914383333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2235,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="C52" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="D52" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="E52" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="F52" t="n">
         <v>520.8333</v>
       </c>
       <c r="G52" t="n">
-        <v>1.9155</v>
+        <v>1.9148</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2270,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.911</v>
+        <v>1.93</v>
       </c>
       <c r="C53" t="n">
-        <v>1.911</v>
+        <v>1.93</v>
       </c>
       <c r="D53" t="n">
-        <v>1.911</v>
+        <v>1.93</v>
       </c>
       <c r="E53" t="n">
-        <v>1.911</v>
+        <v>1.93</v>
       </c>
       <c r="F53" t="n">
-        <v>557834</v>
+        <v>520.8333</v>
       </c>
       <c r="G53" t="n">
-        <v>1.915683333333333</v>
+        <v>1.9155</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2305,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.942</v>
+        <v>1.911</v>
       </c>
       <c r="C54" t="n">
-        <v>1.942</v>
+        <v>1.911</v>
       </c>
       <c r="D54" t="n">
-        <v>1.942</v>
+        <v>1.911</v>
       </c>
       <c r="E54" t="n">
-        <v>1.942</v>
+        <v>1.911</v>
       </c>
       <c r="F54" t="n">
-        <v>258</v>
+        <v>557834</v>
       </c>
       <c r="G54" t="n">
-        <v>1.9164</v>
+        <v>1.915683333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2340,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.911</v>
+        <v>1.942</v>
       </c>
       <c r="C55" t="n">
-        <v>1.911</v>
+        <v>1.942</v>
       </c>
       <c r="D55" t="n">
-        <v>1.911</v>
+        <v>1.942</v>
       </c>
       <c r="E55" t="n">
-        <v>1.911</v>
+        <v>1.942</v>
       </c>
       <c r="F55" t="n">
-        <v>558514</v>
+        <v>258</v>
       </c>
       <c r="G55" t="n">
-        <v>1.916916666666667</v>
+        <v>1.9164</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2375,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.942</v>
+        <v>1.911</v>
       </c>
       <c r="C56" t="n">
-        <v>1.942</v>
+        <v>1.911</v>
       </c>
       <c r="D56" t="n">
-        <v>1.942</v>
+        <v>1.911</v>
       </c>
       <c r="E56" t="n">
-        <v>1.942</v>
+        <v>1.911</v>
       </c>
       <c r="F56" t="n">
-        <v>1742</v>
+        <v>558514</v>
       </c>
       <c r="G56" t="n">
-        <v>1.917766666666666</v>
+        <v>1.916916666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2410,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.911</v>
+        <v>1.942</v>
       </c>
       <c r="C57" t="n">
-        <v>1.911</v>
+        <v>1.942</v>
       </c>
       <c r="D57" t="n">
-        <v>1.941</v>
+        <v>1.942</v>
       </c>
       <c r="E57" t="n">
-        <v>1.911</v>
+        <v>1.942</v>
       </c>
       <c r="F57" t="n">
-        <v>2170168.88</v>
+        <v>1742</v>
       </c>
       <c r="G57" t="n">
-        <v>1.918116666666666</v>
+        <v>1.917766666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2445,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.939</v>
+        <v>1.911</v>
       </c>
       <c r="C58" t="n">
-        <v>1.939</v>
+        <v>1.911</v>
       </c>
       <c r="D58" t="n">
-        <v>1.939</v>
+        <v>1.941</v>
       </c>
       <c r="E58" t="n">
-        <v>1.939</v>
+        <v>1.911</v>
       </c>
       <c r="F58" t="n">
-        <v>441.7611</v>
+        <v>2170168.88</v>
       </c>
       <c r="G58" t="n">
-        <v>1.918766666666666</v>
+        <v>1.918116666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2492,10 @@
         <v>1.939</v>
       </c>
       <c r="F59" t="n">
-        <v>558.2388999999999</v>
+        <v>441.7611</v>
       </c>
       <c r="G59" t="n">
-        <v>1.919416666666666</v>
+        <v>1.918766666666666</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2527,10 @@
         <v>1.939</v>
       </c>
       <c r="F60" t="n">
-        <v>12534.538</v>
+        <v>558.2388999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>1.920066666666666</v>
+        <v>1.919416666666666</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2562,10 @@
         <v>1.939</v>
       </c>
       <c r="F61" t="n">
-        <v>2465.462</v>
+        <v>12534.538</v>
       </c>
       <c r="G61" t="n">
-        <v>1.920566666666666</v>
+        <v>1.920066666666666</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2597,10 @@
         <v>1.939</v>
       </c>
       <c r="F62" t="n">
-        <v>2000</v>
+        <v>2465.462</v>
       </c>
       <c r="G62" t="n">
-        <v>1.921066666666666</v>
+        <v>1.920566666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2632,10 @@
         <v>1.939</v>
       </c>
       <c r="F63" t="n">
-        <v>1019.9616</v>
+        <v>2000</v>
       </c>
       <c r="G63" t="n">
-        <v>1.921549999999999</v>
+        <v>1.921066666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2655,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.937</v>
+        <v>1.939</v>
       </c>
       <c r="C64" t="n">
-        <v>1.911</v>
+        <v>1.939</v>
       </c>
       <c r="D64" t="n">
-        <v>1.937</v>
+        <v>1.939</v>
       </c>
       <c r="E64" t="n">
-        <v>1.911</v>
+        <v>1.939</v>
       </c>
       <c r="F64" t="n">
-        <v>2168383</v>
+        <v>1019.9616</v>
       </c>
       <c r="G64" t="n">
-        <v>1.921566666666666</v>
+        <v>1.921549999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,7 +2693,7 @@
         <v>1.937</v>
       </c>
       <c r="C65" t="n">
-        <v>1.937</v>
+        <v>1.911</v>
       </c>
       <c r="D65" t="n">
         <v>1.937</v>
@@ -2650,10 +2702,10 @@
         <v>1.911</v>
       </c>
       <c r="F65" t="n">
-        <v>3032193.76</v>
+        <v>2168383</v>
       </c>
       <c r="G65" t="n">
-        <v>1.922349999999999</v>
+        <v>1.921566666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2725,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.936</v>
+        <v>1.937</v>
       </c>
       <c r="C66" t="n">
-        <v>1.912</v>
+        <v>1.937</v>
       </c>
       <c r="D66" t="n">
-        <v>1.936</v>
+        <v>1.937</v>
       </c>
       <c r="E66" t="n">
-        <v>1.912</v>
+        <v>1.911</v>
       </c>
       <c r="F66" t="n">
-        <v>2797823.88</v>
+        <v>3032193.76</v>
       </c>
       <c r="G66" t="n">
-        <v>1.922566666666666</v>
+        <v>1.922349999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2760,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.933</v>
+        <v>1.936</v>
       </c>
       <c r="C67" t="n">
-        <v>1.934</v>
+        <v>1.912</v>
       </c>
       <c r="D67" t="n">
-        <v>1.937</v>
+        <v>1.936</v>
       </c>
       <c r="E67" t="n">
-        <v>1.933</v>
+        <v>1.912</v>
       </c>
       <c r="F67" t="n">
-        <v>3128788.4965</v>
+        <v>2797823.88</v>
       </c>
       <c r="G67" t="n">
-        <v>1.923299999999999</v>
+        <v>1.922566666666666</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2795,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.938</v>
+        <v>1.933</v>
       </c>
       <c r="C68" t="n">
-        <v>1.939</v>
+        <v>1.934</v>
       </c>
       <c r="D68" t="n">
-        <v>1.939</v>
+        <v>1.937</v>
       </c>
       <c r="E68" t="n">
-        <v>1.911</v>
+        <v>1.933</v>
       </c>
       <c r="F68" t="n">
-        <v>1306800.8536</v>
+        <v>3128788.4965</v>
       </c>
       <c r="G68" t="n">
-        <v>1.923749999999999</v>
+        <v>1.923299999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2830,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.912</v>
+        <v>1.938</v>
       </c>
       <c r="C69" t="n">
-        <v>1.903</v>
+        <v>1.939</v>
       </c>
       <c r="D69" t="n">
-        <v>1.912</v>
+        <v>1.939</v>
       </c>
       <c r="E69" t="n">
-        <v>1.903</v>
+        <v>1.911</v>
       </c>
       <c r="F69" t="n">
-        <v>2181623.6165</v>
+        <v>1306800.8536</v>
       </c>
       <c r="G69" t="n">
-        <v>1.923549999999999</v>
+        <v>1.923749999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2865,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.929</v>
+        <v>1.912</v>
       </c>
       <c r="C70" t="n">
-        <v>1.929</v>
+        <v>1.903</v>
       </c>
       <c r="D70" t="n">
-        <v>1.929</v>
+        <v>1.912</v>
       </c>
       <c r="E70" t="n">
-        <v>1.929</v>
+        <v>1.903</v>
       </c>
       <c r="F70" t="n">
-        <v>260</v>
+        <v>2181623.6165</v>
       </c>
       <c r="G70" t="n">
-        <v>1.924033333333333</v>
+        <v>1.923549999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2900,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.91</v>
+        <v>1.929</v>
       </c>
       <c r="C71" t="n">
-        <v>1.928</v>
+        <v>1.929</v>
       </c>
       <c r="D71" t="n">
-        <v>1.928</v>
+        <v>1.929</v>
       </c>
       <c r="E71" t="n">
-        <v>1.91</v>
+        <v>1.929</v>
       </c>
       <c r="F71" t="n">
-        <v>220262.26</v>
+        <v>260</v>
       </c>
       <c r="G71" t="n">
-        <v>1.924666666666666</v>
+        <v>1.924033333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2935,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="C72" t="n">
-        <v>1.904</v>
+        <v>1.928</v>
       </c>
       <c r="D72" t="n">
-        <v>1.904</v>
+        <v>1.928</v>
       </c>
       <c r="E72" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="F72" t="n">
-        <v>422958</v>
+        <v>220262.26</v>
       </c>
       <c r="G72" t="n">
-        <v>1.924899999999999</v>
+        <v>1.924666666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2970,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.929</v>
+        <v>1.904</v>
       </c>
       <c r="C73" t="n">
-        <v>1.929</v>
+        <v>1.904</v>
       </c>
       <c r="D73" t="n">
-        <v>1.929</v>
+        <v>1.904</v>
       </c>
       <c r="E73" t="n">
-        <v>1.929</v>
+        <v>1.904</v>
       </c>
       <c r="F73" t="n">
-        <v>261</v>
+        <v>422958</v>
       </c>
       <c r="G73" t="n">
-        <v>1.925216666666666</v>
+        <v>1.924899999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3005,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.91</v>
+        <v>1.929</v>
       </c>
       <c r="C74" t="n">
-        <v>1.91</v>
+        <v>1.929</v>
       </c>
       <c r="D74" t="n">
-        <v>1.91</v>
+        <v>1.929</v>
       </c>
       <c r="E74" t="n">
-        <v>1.91</v>
+        <v>1.929</v>
       </c>
       <c r="F74" t="n">
-        <v>16102.3385</v>
+        <v>261</v>
       </c>
       <c r="G74" t="n">
-        <v>1.925549999999999</v>
+        <v>1.925216666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3040,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="C75" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="D75" t="n">
-        <v>1.909</v>
+        <v>1.91</v>
       </c>
       <c r="E75" t="n">
-        <v>1.903</v>
+        <v>1.91</v>
       </c>
       <c r="F75" t="n">
-        <v>434314.9206</v>
+        <v>16102.3385</v>
       </c>
       <c r="G75" t="n">
-        <v>1.925533333333333</v>
+        <v>1.925549999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3075,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.918</v>
+        <v>1.903</v>
       </c>
       <c r="C76" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="D76" t="n">
-        <v>1.918</v>
+        <v>1.909</v>
       </c>
       <c r="E76" t="n">
-        <v>1.918</v>
+        <v>1.903</v>
       </c>
       <c r="F76" t="n">
-        <v>261</v>
+        <v>434314.9206</v>
       </c>
       <c r="G76" t="n">
-        <v>1.925666666666666</v>
+        <v>1.925533333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3113,19 @@
         <v>1.918</v>
       </c>
       <c r="C77" t="n">
-        <v>1.919</v>
+        <v>1.918</v>
       </c>
       <c r="D77" t="n">
-        <v>1.919</v>
+        <v>1.918</v>
       </c>
       <c r="E77" t="n">
         <v>1.918</v>
       </c>
       <c r="F77" t="n">
-        <v>158906.465</v>
+        <v>261</v>
       </c>
       <c r="G77" t="n">
-        <v>1.925816666666666</v>
+        <v>1.925666666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3145,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="C78" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="D78" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="E78" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="F78" t="n">
-        <v>261</v>
+        <v>158906.465</v>
       </c>
       <c r="G78" t="n">
-        <v>1.925983333333333</v>
+        <v>1.925816666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3192,10 @@
         <v>1.92</v>
       </c>
       <c r="F79" t="n">
-        <v>1443.147</v>
+        <v>261</v>
       </c>
       <c r="G79" t="n">
-        <v>1.92615</v>
+        <v>1.925983333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3227,10 @@
         <v>1.92</v>
       </c>
       <c r="F80" t="n">
-        <v>17288.5452</v>
+        <v>1443.147</v>
       </c>
       <c r="G80" t="n">
-        <v>1.926316666666666</v>
+        <v>1.92615</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3250,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="C81" t="n">
         <v>1.92</v>
@@ -3207,13 +3259,13 @@
         <v>1.92</v>
       </c>
       <c r="E81" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="F81" t="n">
-        <v>1247774.759</v>
+        <v>17288.5452</v>
       </c>
       <c r="G81" t="n">
-        <v>1.926416666666666</v>
+        <v>1.926316666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3285,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C82" t="n">
         <v>1.92</v>
       </c>
-      <c r="C82" t="n">
-        <v>1.925</v>
-      </c>
       <c r="D82" t="n">
-        <v>1.925</v>
+        <v>1.92</v>
       </c>
       <c r="E82" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="F82" t="n">
-        <v>9421.326999999999</v>
+        <v>1247774.759</v>
       </c>
       <c r="G82" t="n">
-        <v>1.9266</v>
+        <v>1.926416666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3320,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="C83" t="n">
-        <v>1.904</v>
+        <v>1.925</v>
       </c>
       <c r="D83" t="n">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="E83" t="n">
-        <v>1.904</v>
+        <v>1.92</v>
       </c>
       <c r="F83" t="n">
-        <v>2367605.9262</v>
+        <v>9421.326999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>1.926416666666666</v>
+        <v>1.9266</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3355,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="C84" t="n">
         <v>1.904</v>
       </c>
       <c r="D84" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="E84" t="n">
         <v>1.904</v>
       </c>
       <c r="F84" t="n">
-        <v>219725.631</v>
+        <v>2367605.9262</v>
       </c>
       <c r="G84" t="n">
-        <v>1.926233333333333</v>
+        <v>1.926416666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3393,19 @@
         <v>1.904</v>
       </c>
       <c r="C85" t="n">
-        <v>1.911</v>
+        <v>1.904</v>
       </c>
       <c r="D85" t="n">
-        <v>1.937</v>
+        <v>1.904</v>
       </c>
       <c r="E85" t="n">
         <v>1.904</v>
       </c>
       <c r="F85" t="n">
-        <v>1592837.3037</v>
+        <v>219725.631</v>
       </c>
       <c r="G85" t="n">
-        <v>1.926166666666666</v>
+        <v>1.926233333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3425,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.938</v>
+        <v>1.904</v>
       </c>
       <c r="C86" t="n">
-        <v>1.938</v>
+        <v>1.911</v>
       </c>
       <c r="D86" t="n">
-        <v>1.938</v>
+        <v>1.937</v>
       </c>
       <c r="E86" t="n">
-        <v>1.938</v>
+        <v>1.904</v>
       </c>
       <c r="F86" t="n">
-        <v>10000</v>
+        <v>1592837.3037</v>
       </c>
       <c r="G86" t="n">
-        <v>1.926533333333333</v>
+        <v>1.926166666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3472,10 @@
         <v>1.938</v>
       </c>
       <c r="F87" t="n">
-        <v>670684.8976</v>
+        <v>10000</v>
       </c>
       <c r="G87" t="n">
-        <v>1.926899999999999</v>
+        <v>1.926533333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3495,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.918</v>
+        <v>1.938</v>
       </c>
       <c r="C88" t="n">
-        <v>1.911</v>
+        <v>1.938</v>
       </c>
       <c r="D88" t="n">
-        <v>1.936</v>
+        <v>1.938</v>
       </c>
       <c r="E88" t="n">
-        <v>1.911</v>
+        <v>1.938</v>
       </c>
       <c r="F88" t="n">
-        <v>916327.7825</v>
+        <v>670684.8976</v>
       </c>
       <c r="G88" t="n">
-        <v>1.926816666666666</v>
+        <v>1.926899999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3530,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.936</v>
+        <v>1.918</v>
       </c>
       <c r="C89" t="n">
         <v>1.911</v>
       </c>
       <c r="D89" t="n">
-        <v>1.937</v>
+        <v>1.936</v>
       </c>
       <c r="E89" t="n">
         <v>1.911</v>
       </c>
       <c r="F89" t="n">
-        <v>1329255.88</v>
+        <v>916327.7825</v>
       </c>
       <c r="G89" t="n">
-        <v>1.926833333333333</v>
+        <v>1.926816666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,16 +3568,16 @@
         <v>1.936</v>
       </c>
       <c r="C90" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="D90" t="n">
-        <v>1.936</v>
+        <v>1.937</v>
       </c>
       <c r="E90" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="F90" t="n">
-        <v>793869.0592</v>
+        <v>1329255.88</v>
       </c>
       <c r="G90" t="n">
         <v>1.926833333333333</v>
@@ -3551,19 +3603,19 @@
         <v>1.936</v>
       </c>
       <c r="C91" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="D91" t="n">
         <v>1.936</v>
       </c>
       <c r="E91" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="F91" t="n">
-        <v>818129</v>
+        <v>793869.0592</v>
       </c>
       <c r="G91" t="n">
-        <v>1.92665</v>
+        <v>1.926833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3635,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="C92" t="n">
         <v>1.905</v>
       </c>
-      <c r="C92" t="n">
-        <v>1.937</v>
-      </c>
       <c r="D92" t="n">
-        <v>1.937</v>
+        <v>1.936</v>
       </c>
       <c r="E92" t="n">
         <v>1.905</v>
       </c>
       <c r="F92" t="n">
-        <v>71759.745</v>
+        <v>818129</v>
       </c>
       <c r="G92" t="n">
-        <v>1.927</v>
+        <v>1.92665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3670,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.932</v>
+        <v>1.905</v>
       </c>
       <c r="C93" t="n">
-        <v>1.905</v>
+        <v>1.937</v>
       </c>
       <c r="D93" t="n">
-        <v>1.932</v>
+        <v>1.937</v>
       </c>
       <c r="E93" t="n">
         <v>1.905</v>
       </c>
       <c r="F93" t="n">
-        <v>640733</v>
+        <v>71759.745</v>
       </c>
       <c r="G93" t="n">
-        <v>1.926416666666666</v>
+        <v>1.927</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3717,10 @@
         <v>1.905</v>
       </c>
       <c r="F94" t="n">
-        <v>643497</v>
+        <v>640733</v>
       </c>
       <c r="G94" t="n">
-        <v>1.925716666666666</v>
+        <v>1.926416666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,7 +3740,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.919</v>
+        <v>1.932</v>
       </c>
       <c r="C95" t="n">
         <v>1.905</v>
@@ -3700,10 +3752,10 @@
         <v>1.905</v>
       </c>
       <c r="F95" t="n">
-        <v>681857.88</v>
+        <v>643497</v>
       </c>
       <c r="G95" t="n">
-        <v>1.925016666666666</v>
+        <v>1.925716666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3775,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.934</v>
+        <v>1.919</v>
       </c>
       <c r="C96" t="n">
-        <v>1.934</v>
+        <v>1.905</v>
       </c>
       <c r="D96" t="n">
-        <v>1.934</v>
+        <v>1.932</v>
       </c>
       <c r="E96" t="n">
-        <v>1.934</v>
+        <v>1.905</v>
       </c>
       <c r="F96" t="n">
-        <v>259</v>
+        <v>681857.88</v>
       </c>
       <c r="G96" t="n">
-        <v>1.924816666666666</v>
+        <v>1.925016666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3813,19 @@
         <v>1.934</v>
       </c>
       <c r="C97" t="n">
-        <v>1.935</v>
+        <v>1.934</v>
       </c>
       <c r="D97" t="n">
-        <v>1.935</v>
+        <v>1.934</v>
       </c>
       <c r="E97" t="n">
         <v>1.934</v>
       </c>
       <c r="F97" t="n">
-        <v>10241</v>
+        <v>259</v>
       </c>
       <c r="G97" t="n">
-        <v>1.925133333333333</v>
+        <v>1.924816666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3845,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.933</v>
+        <v>1.934</v>
       </c>
       <c r="C98" t="n">
-        <v>1.905</v>
+        <v>1.935</v>
       </c>
       <c r="D98" t="n">
-        <v>1.933</v>
+        <v>1.935</v>
       </c>
       <c r="E98" t="n">
-        <v>1.905</v>
+        <v>1.934</v>
       </c>
       <c r="F98" t="n">
-        <v>803989</v>
+        <v>10241</v>
       </c>
       <c r="G98" t="n">
-        <v>1.92455</v>
+        <v>1.925133333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3880,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.904</v>
+        <v>1.933</v>
       </c>
       <c r="C99" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="D99" t="n">
-        <v>1.904</v>
+        <v>1.933</v>
       </c>
       <c r="E99" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="F99" t="n">
-        <v>12168.6776</v>
+        <v>803989</v>
       </c>
       <c r="G99" t="n">
-        <v>1.92385</v>
+        <v>1.92455</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3915,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.935</v>
+        <v>1.904</v>
       </c>
       <c r="C100" t="n">
-        <v>1.935</v>
+        <v>1.904</v>
       </c>
       <c r="D100" t="n">
-        <v>1.935</v>
+        <v>1.904</v>
       </c>
       <c r="E100" t="n">
-        <v>1.935</v>
+        <v>1.904</v>
       </c>
       <c r="F100" t="n">
-        <v>372.0466</v>
+        <v>12168.6776</v>
       </c>
       <c r="G100" t="n">
-        <v>1.924166666666667</v>
+        <v>1.92385</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3950,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.933</v>
+        <v>1.935</v>
       </c>
       <c r="C101" t="n">
-        <v>1.905</v>
+        <v>1.935</v>
       </c>
       <c r="D101" t="n">
-        <v>1.933</v>
+        <v>1.935</v>
       </c>
       <c r="E101" t="n">
-        <v>1.905</v>
+        <v>1.935</v>
       </c>
       <c r="F101" t="n">
-        <v>755613</v>
+        <v>372.0466</v>
       </c>
       <c r="G101" t="n">
-        <v>1.923483333333333</v>
+        <v>1.924166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3985,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.935</v>
+        <v>1.933</v>
       </c>
       <c r="C102" t="n">
-        <v>1.935</v>
+        <v>1.905</v>
       </c>
       <c r="D102" t="n">
-        <v>1.935</v>
+        <v>1.933</v>
       </c>
       <c r="E102" t="n">
-        <v>1.935</v>
+        <v>1.905</v>
       </c>
       <c r="F102" t="n">
-        <v>170287.6994</v>
+        <v>755613</v>
       </c>
       <c r="G102" t="n">
-        <v>1.923316666666667</v>
+        <v>1.923483333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +4023,19 @@
         <v>1.935</v>
       </c>
       <c r="C103" t="n">
-        <v>1.907</v>
+        <v>1.935</v>
       </c>
       <c r="D103" t="n">
         <v>1.935</v>
       </c>
       <c r="E103" t="n">
-        <v>1.907</v>
+        <v>1.935</v>
       </c>
       <c r="F103" t="n">
-        <v>768410.79</v>
+        <v>170287.6994</v>
       </c>
       <c r="G103" t="n">
-        <v>1.922683333333333</v>
+        <v>1.923316666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4055,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.936</v>
+        <v>1.935</v>
       </c>
       <c r="C104" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="D104" t="n">
-        <v>1.937</v>
+        <v>1.935</v>
       </c>
       <c r="E104" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="F104" t="n">
-        <v>1287767.88</v>
+        <v>768410.79</v>
       </c>
       <c r="G104" t="n">
-        <v>1.92205</v>
+        <v>1.922683333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4093,19 @@
         <v>1.936</v>
       </c>
       <c r="C105" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="D105" t="n">
         <v>1.937</v>
       </c>
       <c r="E105" t="n">
-        <v>1.909</v>
+        <v>1.908</v>
       </c>
       <c r="F105" t="n">
-        <v>1492976.88</v>
+        <v>1287767.88</v>
       </c>
       <c r="G105" t="n">
-        <v>1.9217</v>
+        <v>1.92205</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4125,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.938</v>
+        <v>1.936</v>
       </c>
       <c r="C106" t="n">
-        <v>1.938</v>
+        <v>1.909</v>
       </c>
       <c r="D106" t="n">
-        <v>1.938</v>
+        <v>1.937</v>
       </c>
       <c r="E106" t="n">
-        <v>1.938</v>
+        <v>1.909</v>
       </c>
       <c r="F106" t="n">
-        <v>342.333</v>
+        <v>1492976.88</v>
       </c>
       <c r="G106" t="n">
-        <v>1.921566666666667</v>
+        <v>1.9217</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4160,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.936</v>
+        <v>1.938</v>
       </c>
       <c r="C107" t="n">
-        <v>1.908</v>
+        <v>1.938</v>
       </c>
       <c r="D107" t="n">
-        <v>1.936</v>
+        <v>1.938</v>
       </c>
       <c r="E107" t="n">
-        <v>1.908</v>
+        <v>1.938</v>
       </c>
       <c r="F107" t="n">
-        <v>609818</v>
+        <v>342.333</v>
       </c>
       <c r="G107" t="n">
-        <v>1.921416666666667</v>
+        <v>1.921566666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4195,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.938</v>
+        <v>1.936</v>
       </c>
       <c r="C108" t="n">
-        <v>1.938</v>
+        <v>1.908</v>
       </c>
       <c r="D108" t="n">
-        <v>1.938</v>
+        <v>1.936</v>
       </c>
       <c r="E108" t="n">
-        <v>1.938</v>
+        <v>1.908</v>
       </c>
       <c r="F108" t="n">
-        <v>308.0997</v>
+        <v>609818</v>
       </c>
       <c r="G108" t="n">
-        <v>1.921383333333334</v>
+        <v>1.921416666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4230,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.936</v>
+        <v>1.938</v>
       </c>
       <c r="C109" t="n">
-        <v>1.906</v>
+        <v>1.938</v>
       </c>
       <c r="D109" t="n">
-        <v>1.936</v>
+        <v>1.938</v>
       </c>
       <c r="E109" t="n">
-        <v>1.906</v>
+        <v>1.938</v>
       </c>
       <c r="F109" t="n">
-        <v>789202</v>
+        <v>308.0997</v>
       </c>
       <c r="G109" t="n">
-        <v>1.921216666666667</v>
+        <v>1.921383333333334</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4265,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.906</v>
+        <v>1.936</v>
       </c>
       <c r="C110" t="n">
         <v>1.906</v>
       </c>
       <c r="D110" t="n">
-        <v>1.906</v>
+        <v>1.936</v>
       </c>
       <c r="E110" t="n">
         <v>1.906</v>
       </c>
       <c r="F110" t="n">
-        <v>106088.99</v>
+        <v>789202</v>
       </c>
       <c r="G110" t="n">
-        <v>1.920583333333334</v>
+        <v>1.921216666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4303,19 @@
         <v>1.906</v>
       </c>
       <c r="C111" t="n">
-        <v>1.935</v>
+        <v>1.906</v>
       </c>
       <c r="D111" t="n">
-        <v>1.935</v>
+        <v>1.906</v>
       </c>
       <c r="E111" t="n">
         <v>1.906</v>
       </c>
       <c r="F111" t="n">
-        <v>260</v>
+        <v>106088.99</v>
       </c>
       <c r="G111" t="n">
-        <v>1.921</v>
+        <v>1.920583333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4335,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.933</v>
+        <v>1.906</v>
       </c>
       <c r="C112" t="n">
-        <v>1.906</v>
+        <v>1.935</v>
       </c>
       <c r="D112" t="n">
-        <v>1.936</v>
+        <v>1.935</v>
       </c>
       <c r="E112" t="n">
         <v>1.906</v>
       </c>
       <c r="F112" t="n">
-        <v>1358824.88</v>
+        <v>260</v>
       </c>
       <c r="G112" t="n">
-        <v>1.920600000000001</v>
+        <v>1.921</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4370,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.905</v>
+        <v>1.933</v>
       </c>
       <c r="C113" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="D113" t="n">
-        <v>1.91</v>
+        <v>1.936</v>
       </c>
       <c r="E113" t="n">
-        <v>1.905</v>
+        <v>1.906</v>
       </c>
       <c r="F113" t="n">
-        <v>1572.1733</v>
+        <v>1358824.88</v>
       </c>
       <c r="G113" t="n">
-        <v>1.920583333333334</v>
+        <v>1.920600000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4405,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="C114" t="n">
-        <v>1.905</v>
+        <v>1.91</v>
       </c>
       <c r="D114" t="n">
-        <v>1.937</v>
+        <v>1.91</v>
       </c>
       <c r="E114" t="n">
         <v>1.905</v>
       </c>
       <c r="F114" t="n">
-        <v>815147.8277</v>
+        <v>1572.1733</v>
       </c>
       <c r="G114" t="n">
-        <v>1.919966666666667</v>
+        <v>1.920583333333334</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4440,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="C115" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="D115" t="n">
-        <v>1.927</v>
+        <v>1.937</v>
       </c>
       <c r="E115" t="n">
-        <v>1.907</v>
+        <v>1.905</v>
       </c>
       <c r="F115" t="n">
-        <v>685778</v>
+        <v>815147.8277</v>
       </c>
       <c r="G115" t="n">
-        <v>1.919900000000001</v>
+        <v>1.919966666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4475,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.906</v>
+        <v>1.927</v>
       </c>
       <c r="C116" t="n">
-        <v>1.88</v>
+        <v>1.907</v>
       </c>
       <c r="D116" t="n">
-        <v>1.906</v>
+        <v>1.927</v>
       </c>
       <c r="E116" t="n">
-        <v>1.88</v>
+        <v>1.907</v>
       </c>
       <c r="F116" t="n">
-        <v>2001985.9447</v>
+        <v>685778</v>
       </c>
       <c r="G116" t="n">
-        <v>1.918866666666667</v>
+        <v>1.919900000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4510,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.926</v>
+        <v>1.906</v>
       </c>
       <c r="C117" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D117" t="n">
-        <v>1.926</v>
+        <v>1.906</v>
       </c>
       <c r="E117" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F117" t="n">
-        <v>10092.2402</v>
+        <v>2001985.9447</v>
       </c>
       <c r="G117" t="n">
-        <v>1.918516666666667</v>
+        <v>1.918866666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4545,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.88</v>
+        <v>1.926</v>
       </c>
       <c r="C118" t="n">
-        <v>1.862</v>
+        <v>1.89</v>
       </c>
       <c r="D118" t="n">
-        <v>1.88</v>
+        <v>1.926</v>
       </c>
       <c r="E118" t="n">
-        <v>1.862</v>
+        <v>1.89</v>
       </c>
       <c r="F118" t="n">
-        <v>2752827.1952</v>
+        <v>10092.2402</v>
       </c>
       <c r="G118" t="n">
-        <v>1.917233333333334</v>
+        <v>1.918516666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4580,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="C119" t="n">
         <v>1.862</v>
       </c>
       <c r="D119" t="n">
-        <v>1.863</v>
+        <v>1.88</v>
       </c>
       <c r="E119" t="n">
         <v>1.862</v>
       </c>
       <c r="F119" t="n">
-        <v>252381.4074</v>
+        <v>2752827.1952</v>
       </c>
       <c r="G119" t="n">
-        <v>1.91595</v>
+        <v>1.917233333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4615,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.866</v>
+        <v>1.863</v>
       </c>
       <c r="C120" t="n">
-        <v>1.919</v>
+        <v>1.862</v>
       </c>
       <c r="D120" t="n">
-        <v>1.919</v>
+        <v>1.863</v>
       </c>
       <c r="E120" t="n">
-        <v>1.866</v>
+        <v>1.862</v>
       </c>
       <c r="F120" t="n">
-        <v>2261</v>
+        <v>252381.4074</v>
       </c>
       <c r="G120" t="n">
-        <v>1.915616666666667</v>
+        <v>1.91595</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4650,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.913</v>
+        <v>1.866</v>
       </c>
       <c r="C121" t="n">
-        <v>1.897</v>
+        <v>1.919</v>
       </c>
       <c r="D121" t="n">
-        <v>1.913</v>
+        <v>1.919</v>
       </c>
       <c r="E121" t="n">
-        <v>1.872</v>
+        <v>1.866</v>
       </c>
       <c r="F121" t="n">
-        <v>774227.88</v>
+        <v>2261</v>
       </c>
       <c r="G121" t="n">
-        <v>1.914916666666667</v>
+        <v>1.915616666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4685,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.896</v>
+        <v>1.913</v>
       </c>
       <c r="C122" t="n">
-        <v>1.872</v>
+        <v>1.897</v>
       </c>
       <c r="D122" t="n">
-        <v>1.896</v>
+        <v>1.913</v>
       </c>
       <c r="E122" t="n">
         <v>1.872</v>
       </c>
       <c r="F122" t="n">
-        <v>846979.932</v>
+        <v>774227.88</v>
       </c>
       <c r="G122" t="n">
-        <v>1.9138</v>
+        <v>1.914916666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4720,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.905</v>
+        <v>1.896</v>
       </c>
       <c r="C123" t="n">
-        <v>1.905</v>
+        <v>1.872</v>
       </c>
       <c r="D123" t="n">
-        <v>1.905</v>
+        <v>1.896</v>
       </c>
       <c r="E123" t="n">
-        <v>1.905</v>
+        <v>1.872</v>
       </c>
       <c r="F123" t="n">
-        <v>264</v>
+        <v>846979.932</v>
       </c>
       <c r="G123" t="n">
-        <v>1.913233333333334</v>
+        <v>1.9138</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4755,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="C124" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="D124" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="E124" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="F124" t="n">
-        <v>1000</v>
+        <v>264</v>
       </c>
       <c r="G124" t="n">
-        <v>1.912633333333333</v>
+        <v>1.913233333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4741,19 +4793,19 @@
         <v>1.875</v>
       </c>
       <c r="C125" t="n">
-        <v>1.889</v>
+        <v>1.875</v>
       </c>
       <c r="D125" t="n">
-        <v>1.889</v>
+        <v>1.875</v>
       </c>
       <c r="E125" t="n">
         <v>1.875</v>
       </c>
       <c r="F125" t="n">
-        <v>1425.1196</v>
+        <v>1000</v>
       </c>
       <c r="G125" t="n">
-        <v>1.911833333333333</v>
+        <v>1.912633333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,7 +4825,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.889</v>
+        <v>1.875</v>
       </c>
       <c r="C126" t="n">
         <v>1.889</v>
@@ -4782,13 +4834,13 @@
         <v>1.889</v>
       </c>
       <c r="E126" t="n">
-        <v>1.889</v>
+        <v>1.875</v>
       </c>
       <c r="F126" t="n">
-        <v>444</v>
+        <v>1425.1196</v>
       </c>
       <c r="G126" t="n">
-        <v>1.91145</v>
+        <v>1.911833333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4872,10 @@
         <v>1.889</v>
       </c>
       <c r="F127" t="n">
-        <v>1332</v>
+        <v>444</v>
       </c>
       <c r="G127" t="n">
-        <v>1.9107</v>
+        <v>1.91145</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4895,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.901</v>
+        <v>1.889</v>
       </c>
       <c r="C128" t="n">
-        <v>1.881</v>
+        <v>1.889</v>
       </c>
       <c r="D128" t="n">
-        <v>1.901</v>
+        <v>1.889</v>
       </c>
       <c r="E128" t="n">
-        <v>1.881</v>
+        <v>1.889</v>
       </c>
       <c r="F128" t="n">
-        <v>785784</v>
+        <v>1332</v>
       </c>
       <c r="G128" t="n">
-        <v>1.909733333333333</v>
+        <v>1.9107</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4930,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.89</v>
+        <v>1.901</v>
       </c>
       <c r="C129" t="n">
-        <v>1.89</v>
+        <v>1.881</v>
       </c>
       <c r="D129" t="n">
-        <v>1.89</v>
+        <v>1.901</v>
       </c>
       <c r="E129" t="n">
-        <v>1.89</v>
+        <v>1.881</v>
       </c>
       <c r="F129" t="n">
-        <v>32036.3506</v>
+        <v>785784</v>
       </c>
       <c r="G129" t="n">
-        <v>1.909516666666667</v>
+        <v>1.909733333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,79 +4965,77 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F130" t="n">
+        <v>32036.3506</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.909516666666667</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>1.897</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C131" t="n">
         <v>1.878</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D131" t="n">
         <v>1.897</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E131" t="n">
         <v>1.878</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F131" t="n">
         <v>764683</v>
       </c>
-      <c r="G130" t="n">
+      <c r="G131" t="n">
         <v>1.908666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L131" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.897</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.879</v>
-      </c>
-      <c r="F131" t="n">
-        <v>743699.88</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.90815</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>1.878</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4995,22 +5045,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.899</v>
+        <v>1.897</v>
       </c>
       <c r="C132" t="n">
-        <v>1.899</v>
+        <v>1.897</v>
       </c>
       <c r="D132" t="n">
-        <v>1.899</v>
+        <v>1.897</v>
       </c>
       <c r="E132" t="n">
-        <v>1.899</v>
+        <v>1.879</v>
       </c>
       <c r="F132" t="n">
-        <v>264</v>
+        <v>743699.88</v>
       </c>
       <c r="G132" t="n">
-        <v>1.908066666666667</v>
+        <v>1.90815</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5019,7 +5069,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,22 +5086,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="C133" t="n">
-        <v>1.879</v>
+        <v>1.899</v>
       </c>
       <c r="D133" t="n">
-        <v>1.897</v>
+        <v>1.899</v>
       </c>
       <c r="E133" t="n">
-        <v>1.879</v>
+        <v>1.899</v>
       </c>
       <c r="F133" t="n">
-        <v>812937</v>
+        <v>264</v>
       </c>
       <c r="G133" t="n">
-        <v>1.907233333333334</v>
+        <v>1.908066666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5058,7 +5110,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,22 +5127,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="C134" t="n">
-        <v>1.898</v>
+        <v>1.879</v>
       </c>
       <c r="D134" t="n">
-        <v>1.898</v>
+        <v>1.897</v>
       </c>
       <c r="E134" t="n">
-        <v>1.898</v>
+        <v>1.879</v>
       </c>
       <c r="F134" t="n">
-        <v>264</v>
+        <v>812937</v>
       </c>
       <c r="G134" t="n">
-        <v>1.907033333333334</v>
+        <v>1.907233333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5097,7 +5151,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,22 +5168,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="C135" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="D135" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="E135" t="n">
-        <v>1.88</v>
+        <v>1.898</v>
       </c>
       <c r="F135" t="n">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
-        <v>1.90655</v>
+        <v>1.907033333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5136,7 +5192,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,31 +5209,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.899</v>
+        <v>1.88</v>
       </c>
       <c r="C136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F136" t="n">
+        <v>292</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.90655</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
         <v>1.881</v>
       </c>
-      <c r="D136" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2281.1859</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1.905933333333333</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5193,19 +5253,19 @@
         <v>1.899</v>
       </c>
       <c r="C137" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="D137" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="E137" t="n">
-        <v>1.899</v>
+        <v>1.881</v>
       </c>
       <c r="F137" t="n">
-        <v>201185.737</v>
+        <v>2281.1859</v>
       </c>
       <c r="G137" t="n">
-        <v>1.905616666666667</v>
+        <v>1.905933333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5214,7 +5274,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5232,28 +5294,32 @@
         <v>1.899</v>
       </c>
       <c r="C138" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="D138" t="n">
-        <v>1.899</v>
+        <v>1.9</v>
       </c>
       <c r="E138" t="n">
         <v>1.899</v>
       </c>
       <c r="F138" t="n">
-        <v>76969.03</v>
+        <v>201185.737</v>
       </c>
       <c r="G138" t="n">
-        <v>1.905266666666667</v>
+        <v>1.905616666666667</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5268,31 +5334,35 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="F139" t="n">
+        <v>76969.03</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.905266666666667</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
         <v>1.9</v>
       </c>
-      <c r="C139" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F139" t="n">
-        <v>20700.1304</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1.904933333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,22 +5377,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="C140" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="D140" t="n">
-        <v>1.902</v>
+        <v>1.9</v>
       </c>
       <c r="E140" t="n">
-        <v>1.882</v>
+        <v>1.9</v>
       </c>
       <c r="F140" t="n">
-        <v>670420</v>
+        <v>20700.1304</v>
       </c>
       <c r="G140" t="n">
-        <v>1.9043</v>
+        <v>1.904933333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5331,7 +5401,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,22 +5418,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.904</v>
+        <v>1.902</v>
       </c>
       <c r="C141" t="n">
-        <v>1.904</v>
+        <v>1.882</v>
       </c>
       <c r="D141" t="n">
-        <v>1.904</v>
+        <v>1.902</v>
       </c>
       <c r="E141" t="n">
-        <v>1.904</v>
+        <v>1.882</v>
       </c>
       <c r="F141" t="n">
-        <v>264</v>
+        <v>670420</v>
       </c>
       <c r="G141" t="n">
-        <v>1.904033333333333</v>
+        <v>1.9043</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5370,7 +5442,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5397,10 +5471,10 @@
         <v>1.904</v>
       </c>
       <c r="F142" t="n">
-        <v>538413.3944</v>
+        <v>264</v>
       </c>
       <c r="G142" t="n">
-        <v>1.903683333333333</v>
+        <v>1.904033333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5409,7 +5483,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,22 +5500,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.927</v>
+        <v>1.904</v>
       </c>
       <c r="C143" t="n">
-        <v>1.927</v>
+        <v>1.904</v>
       </c>
       <c r="D143" t="n">
-        <v>1.927</v>
+        <v>1.904</v>
       </c>
       <c r="E143" t="n">
-        <v>1.927</v>
+        <v>1.904</v>
       </c>
       <c r="F143" t="n">
-        <v>260</v>
+        <v>538413.3944</v>
       </c>
       <c r="G143" t="n">
-        <v>1.904066666666667</v>
+        <v>1.903683333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5448,7 +5524,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,22 +5541,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="C144" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="D144" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="E144" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="F144" t="n">
-        <v>1100</v>
+        <v>260</v>
       </c>
       <c r="G144" t="n">
-        <v>1.904333333333334</v>
+        <v>1.904066666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5487,7 +5565,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,19 +5582,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.927</v>
+        <v>1.92</v>
       </c>
       <c r="C145" t="n">
-        <v>1.911</v>
+        <v>1.92</v>
       </c>
       <c r="D145" t="n">
-        <v>1.937</v>
+        <v>1.92</v>
       </c>
       <c r="E145" t="n">
-        <v>1.911</v>
+        <v>1.92</v>
       </c>
       <c r="F145" t="n">
-        <v>721985</v>
+        <v>1100</v>
       </c>
       <c r="G145" t="n">
         <v>1.904333333333334</v>
@@ -5526,7 +5606,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,22 +5623,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.93</v>
+        <v>1.927</v>
       </c>
       <c r="C146" t="n">
-        <v>1.93</v>
+        <v>1.911</v>
       </c>
       <c r="D146" t="n">
-        <v>1.93</v>
+        <v>1.937</v>
       </c>
       <c r="E146" t="n">
-        <v>1.93</v>
+        <v>1.911</v>
       </c>
       <c r="F146" t="n">
-        <v>260</v>
+        <v>721985</v>
       </c>
       <c r="G146" t="n">
-        <v>1.9042</v>
+        <v>1.904333333333334</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5565,7 +5647,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,22 +5664,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.911</v>
+        <v>1.93</v>
       </c>
       <c r="C147" t="n">
-        <v>1.883</v>
+        <v>1.93</v>
       </c>
       <c r="D147" t="n">
-        <v>1.911</v>
+        <v>1.93</v>
       </c>
       <c r="E147" t="n">
-        <v>1.883</v>
+        <v>1.93</v>
       </c>
       <c r="F147" t="n">
-        <v>415433</v>
+        <v>260</v>
       </c>
       <c r="G147" t="n">
-        <v>1.903283333333334</v>
+        <v>1.9042</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5604,7 +5688,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,22 +5705,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.89</v>
+        <v>1.911</v>
       </c>
       <c r="C148" t="n">
         <v>1.883</v>
       </c>
       <c r="D148" t="n">
-        <v>1.89</v>
+        <v>1.911</v>
       </c>
       <c r="E148" t="n">
         <v>1.883</v>
       </c>
       <c r="F148" t="n">
-        <v>36928</v>
+        <v>415433</v>
       </c>
       <c r="G148" t="n">
-        <v>1.902816666666667</v>
+        <v>1.903283333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5643,7 +5729,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,22 +5746,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.886</v>
+        <v>1.89</v>
       </c>
       <c r="C149" t="n">
-        <v>1.886</v>
+        <v>1.883</v>
       </c>
       <c r="D149" t="n">
-        <v>1.886</v>
+        <v>1.89</v>
       </c>
       <c r="E149" t="n">
-        <v>1.886</v>
+        <v>1.883</v>
       </c>
       <c r="F149" t="n">
-        <v>265.1114</v>
+        <v>36928</v>
       </c>
       <c r="G149" t="n">
-        <v>1.9024</v>
+        <v>1.902816666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5682,7 +5770,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5709,10 +5799,10 @@
         <v>1.886</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8885999999999999</v>
+        <v>265.1114</v>
       </c>
       <c r="G150" t="n">
-        <v>1.902</v>
+        <v>1.9024</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5721,7 +5811,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,22 +5828,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="C151" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="D151" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="E151" t="n">
-        <v>1.889</v>
+        <v>1.886</v>
       </c>
       <c r="F151" t="n">
-        <v>1078.8599</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="G151" t="n">
-        <v>1.901733333333333</v>
+        <v>1.902</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5760,7 +5852,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,22 +5869,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.898</v>
+        <v>1.889</v>
       </c>
       <c r="C152" t="n">
-        <v>1.898</v>
+        <v>1.889</v>
       </c>
       <c r="D152" t="n">
-        <v>1.898</v>
+        <v>1.889</v>
       </c>
       <c r="E152" t="n">
-        <v>1.898</v>
+        <v>1.889</v>
       </c>
       <c r="F152" t="n">
-        <v>482.6056</v>
+        <v>1078.8599</v>
       </c>
       <c r="G152" t="n">
-        <v>1.901083333333333</v>
+        <v>1.901733333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5799,7 +5893,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,22 +5910,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.91</v>
+        <v>1.898</v>
       </c>
       <c r="C153" t="n">
-        <v>1.919</v>
+        <v>1.898</v>
       </c>
       <c r="D153" t="n">
-        <v>1.919</v>
+        <v>1.898</v>
       </c>
       <c r="E153" t="n">
-        <v>1.91</v>
+        <v>1.898</v>
       </c>
       <c r="F153" t="n">
-        <v>104265.8890890047</v>
+        <v>482.6056</v>
       </c>
       <c r="G153" t="n">
-        <v>1.901316666666667</v>
+        <v>1.901083333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5838,7 +5934,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,22 +5951,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="C154" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="D154" t="n">
-        <v>1.902</v>
+        <v>1.919</v>
       </c>
       <c r="E154" t="n">
-        <v>1.902</v>
+        <v>1.91</v>
       </c>
       <c r="F154" t="n">
-        <v>10058.45</v>
+        <v>104265.8890890047</v>
       </c>
       <c r="G154" t="n">
-        <v>1.901266666666667</v>
+        <v>1.901316666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5877,7 +5975,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,22 +5992,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="C155" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="D155" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="E155" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="F155" t="n">
-        <v>62088.5195</v>
+        <v>10058.45</v>
       </c>
       <c r="G155" t="n">
-        <v>1.9012</v>
+        <v>1.901266666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5916,7 +6016,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5934,19 +6036,19 @@
         <v>1.901</v>
       </c>
       <c r="C156" t="n">
-        <v>1.918</v>
+        <v>1.901</v>
       </c>
       <c r="D156" t="n">
-        <v>1.918</v>
+        <v>1.901</v>
       </c>
       <c r="E156" t="n">
         <v>1.901</v>
       </c>
       <c r="F156" t="n">
-        <v>4868.882168925965</v>
+        <v>62088.5195</v>
       </c>
       <c r="G156" t="n">
-        <v>1.900933333333333</v>
+        <v>1.9012</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5955,7 +6057,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,7 +6074,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.918</v>
+        <v>1.901</v>
       </c>
       <c r="C157" t="n">
         <v>1.918</v>
@@ -5979,13 +6083,13 @@
         <v>1.918</v>
       </c>
       <c r="E157" t="n">
-        <v>1.918</v>
+        <v>1.901</v>
       </c>
       <c r="F157" t="n">
-        <v>7131.117831074035</v>
+        <v>4868.882168925965</v>
       </c>
       <c r="G157" t="n">
-        <v>1.90065</v>
+        <v>1.900933333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5994,7 +6098,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6021,10 +6127,10 @@
         <v>1.918</v>
       </c>
       <c r="F158" t="n">
-        <v>2868.882168925964</v>
+        <v>7131.117831074035</v>
       </c>
       <c r="G158" t="n">
-        <v>1.900866666666667</v>
+        <v>1.90065</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6033,7 +6139,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,22 +6156,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.902</v>
+        <v>1.918</v>
       </c>
       <c r="C159" t="n">
-        <v>1.902</v>
+        <v>1.918</v>
       </c>
       <c r="D159" t="n">
-        <v>1.902</v>
+        <v>1.918</v>
       </c>
       <c r="E159" t="n">
-        <v>1.902</v>
+        <v>1.918</v>
       </c>
       <c r="F159" t="n">
-        <v>17172.6467</v>
+        <v>2868.882168925964</v>
       </c>
       <c r="G159" t="n">
-        <v>1.900833333333334</v>
+        <v>1.900866666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6072,7 +6180,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6087,22 +6197,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="C160" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="D160" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="E160" t="n">
-        <v>1.901</v>
+        <v>1.902</v>
       </c>
       <c r="F160" t="n">
-        <v>117864.5724</v>
+        <v>17172.6467</v>
       </c>
       <c r="G160" t="n">
-        <v>1.900266666666667</v>
+        <v>1.900833333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6111,7 +6221,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,22 +6238,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.89</v>
+        <v>1.901</v>
       </c>
       <c r="C161" t="n">
-        <v>1.916</v>
+        <v>1.901</v>
       </c>
       <c r="D161" t="n">
-        <v>1.916</v>
+        <v>1.901</v>
       </c>
       <c r="E161" t="n">
-        <v>1.887</v>
+        <v>1.901</v>
       </c>
       <c r="F161" t="n">
-        <v>833075.0921</v>
+        <v>117864.5724</v>
       </c>
       <c r="G161" t="n">
-        <v>1.90045</v>
+        <v>1.900266666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6150,7 +6262,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6165,7 +6279,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.916</v>
+        <v>1.89</v>
       </c>
       <c r="C162" t="n">
         <v>1.916</v>
@@ -6174,13 +6288,13 @@
         <v>1.916</v>
       </c>
       <c r="E162" t="n">
-        <v>1.916</v>
+        <v>1.887</v>
       </c>
       <c r="F162" t="n">
-        <v>1043.84133611691</v>
+        <v>833075.0921</v>
       </c>
       <c r="G162" t="n">
-        <v>1.900133333333333</v>
+        <v>1.90045</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6189,7 +6303,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,22 +6320,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="C163" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="D163" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="E163" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="F163" t="n">
-        <v>35683.5244</v>
+        <v>1043.84133611691</v>
       </c>
       <c r="G163" t="n">
-        <v>1.89985</v>
+        <v>1.900133333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6228,7 +6344,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6255,10 +6373,10 @@
         <v>1.89</v>
       </c>
       <c r="F164" t="n">
-        <v>35683.5245</v>
+        <v>35683.5244</v>
       </c>
       <c r="G164" t="n">
-        <v>1.89955</v>
+        <v>1.89985</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6267,7 +6385,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,22 +6402,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="C165" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="D165" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="E165" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F165" t="n">
-        <v>798.7021999999999</v>
+        <v>35683.5245</v>
       </c>
       <c r="G165" t="n">
-        <v>1.8994</v>
+        <v>1.89955</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6306,7 +6426,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,22 +6443,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="C166" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="D166" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="E166" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="F166" t="n">
-        <v>90029.527</v>
+        <v>798.7021999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>1.898916666666667</v>
+        <v>1.8994</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6345,7 +6467,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6360,22 +6484,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="C167" t="n">
-        <v>1.917</v>
+        <v>1.909</v>
       </c>
       <c r="D167" t="n">
-        <v>1.917</v>
+        <v>1.909</v>
       </c>
       <c r="E167" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="F167" t="n">
-        <v>16041.4989</v>
+        <v>90029.527</v>
       </c>
       <c r="G167" t="n">
-        <v>1.899066666666667</v>
+        <v>1.898916666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6384,7 +6508,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,7 +6525,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.917</v>
+        <v>1.91</v>
       </c>
       <c r="C168" t="n">
         <v>1.917</v>
@@ -6408,13 +6534,13 @@
         <v>1.917</v>
       </c>
       <c r="E168" t="n">
-        <v>1.917</v>
+        <v>1.91</v>
       </c>
       <c r="F168" t="n">
-        <v>9739</v>
+        <v>16041.4989</v>
       </c>
       <c r="G168" t="n">
-        <v>1.898716666666667</v>
+        <v>1.899066666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6423,7 +6549,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6438,22 +6566,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.916</v>
+        <v>1.917</v>
       </c>
       <c r="C169" t="n">
-        <v>1.896</v>
+        <v>1.917</v>
       </c>
       <c r="D169" t="n">
-        <v>1.916</v>
+        <v>1.917</v>
       </c>
       <c r="E169" t="n">
-        <v>1.896</v>
+        <v>1.917</v>
       </c>
       <c r="F169" t="n">
-        <v>634545</v>
+        <v>9739</v>
       </c>
       <c r="G169" t="n">
-        <v>1.89855</v>
+        <v>1.898716666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6462,7 +6590,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6477,22 +6607,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.895</v>
+        <v>1.916</v>
       </c>
       <c r="C170" t="n">
-        <v>1.895</v>
+        <v>1.896</v>
       </c>
       <c r="D170" t="n">
-        <v>1.895</v>
+        <v>1.916</v>
       </c>
       <c r="E170" t="n">
-        <v>1.895</v>
+        <v>1.896</v>
       </c>
       <c r="F170" t="n">
-        <v>10093.626</v>
+        <v>634545</v>
       </c>
       <c r="G170" t="n">
-        <v>1.898366666666667</v>
+        <v>1.89855</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6501,7 +6631,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6519,19 +6651,19 @@
         <v>1.895</v>
       </c>
       <c r="C171" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="D171" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="E171" t="n">
         <v>1.895</v>
       </c>
       <c r="F171" t="n">
-        <v>73263</v>
+        <v>10093.626</v>
       </c>
       <c r="G171" t="n">
-        <v>1.89795</v>
+        <v>1.898366666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6540,7 +6672,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,7 +6689,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="C172" t="n">
         <v>1.91</v>
@@ -6564,13 +6698,13 @@
         <v>1.91</v>
       </c>
       <c r="E172" t="n">
-        <v>1.91</v>
+        <v>1.895</v>
       </c>
       <c r="F172" t="n">
-        <v>15684.3381</v>
+        <v>73263</v>
       </c>
       <c r="G172" t="n">
-        <v>1.898016666666666</v>
+        <v>1.89795</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6579,7 +6713,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6589,6 +6725,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F173" t="n">
+        <v>15684.3381</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.898016666666666</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M173"/>
+  <dimension ref="A1:N183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>4327112.927</v>
       </c>
       <c r="G2" t="n">
+        <v>1.892866666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.895933333333336</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>482884.098</v>
       </c>
       <c r="G3" t="n">
+        <v>1.894133333333332</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.895750000000002</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>25573.5762</v>
       </c>
       <c r="G4" t="n">
+        <v>1.895999999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.895566666666669</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>111010.3019</v>
       </c>
       <c r="G5" t="n">
+        <v>1.896733333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.895600000000002</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>165219.2562</v>
       </c>
       <c r="G6" t="n">
+        <v>1.897399999999999</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.895383333333335</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>9263.8824</v>
       </c>
       <c r="G7" t="n">
+        <v>1.898333333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.895316666666669</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,25 @@
         <v>1882.1335</v>
       </c>
       <c r="G8" t="n">
+        <v>1.898466666666665</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.895100000000002</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +723,27 @@
         <v>15710.8789</v>
       </c>
       <c r="G9" t="n">
+        <v>1.899266666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.895250000000002</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +767,29 @@
         <v>505748.371</v>
       </c>
       <c r="G10" t="n">
+        <v>1.900333333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.895450000000002</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +813,21 @@
         <v>36550.2599</v>
       </c>
       <c r="G11" t="n">
+        <v>1.901666666666665</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.895400000000002</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +851,21 @@
         <v>496106.6153</v>
       </c>
       <c r="G12" t="n">
+        <v>1.901599999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.894883333333335</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +889,21 @@
         <v>31520.4041</v>
       </c>
       <c r="G13" t="n">
+        <v>1.901599999999999</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.894366666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +927,21 @@
         <v>1000</v>
       </c>
       <c r="G14" t="n">
+        <v>1.902266666666665</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.894183333333335</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +965,21 @@
         <v>370000</v>
       </c>
       <c r="G15" t="n">
+        <v>1.901599999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.893516666666668</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1003,21 @@
         <v>35288.2599</v>
       </c>
       <c r="G16" t="n">
+        <v>1.902266666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.893100000000001</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1041,21 @@
         <v>261.7802</v>
       </c>
       <c r="G17" t="n">
+        <v>1.902333333333332</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.892916666666668</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1079,21 @@
         <v>1000</v>
       </c>
       <c r="G18" t="n">
+        <v>1.902399999999999</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.892983333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1117,21 @@
         <v>197.3581</v>
       </c>
       <c r="G19" t="n">
+        <v>1.902399999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.893050000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1155,21 @@
         <v>64.4221</v>
       </c>
       <c r="G20" t="n">
+        <v>1.902399999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.893166666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1193,21 @@
         <v>535.5779</v>
       </c>
       <c r="G21" t="n">
+        <v>1.903733333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.893283333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1231,21 @@
         <v>262</v>
       </c>
       <c r="G22" t="n">
+        <v>1.904733333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.893183333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1269,21 @@
         <v>1167.7285</v>
       </c>
       <c r="G23" t="n">
+        <v>1.906333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.893433333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1307,21 @@
         <v>10000</v>
       </c>
       <c r="G24" t="n">
+        <v>1.906533333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.893716666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1345,21 @@
         <v>2483.8394</v>
       </c>
       <c r="G25" t="n">
+        <v>1.906533333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.894050000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1383,21 @@
         <v>10000</v>
       </c>
       <c r="G26" t="n">
+        <v>1.907533333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.894466666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1421,21 @@
         <v>20875.2498</v>
       </c>
       <c r="G27" t="n">
+        <v>1.909266666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.894933333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1459,21 @@
         <v>20000</v>
       </c>
       <c r="G28" t="n">
+        <v>1.910999999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.895616666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1497,21 @@
         <v>10000</v>
       </c>
       <c r="G29" t="n">
+        <v>1.911399999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.896516666666668</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1535,21 @@
         <v>2747.394</v>
       </c>
       <c r="G30" t="n">
+        <v>1.912733333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.897333333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1573,21 @@
         <v>2225.394</v>
       </c>
       <c r="G31" t="n">
+        <v>1.912733333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.897850000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1611,21 @@
         <v>1000</v>
       </c>
       <c r="G32" t="n">
+        <v>1.913133333333332</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.898783333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1649,21 @@
         <v>3000</v>
       </c>
       <c r="G33" t="n">
+        <v>1.913533333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.8997</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,24 +1687,21 @@
         <v>1847000</v>
       </c>
       <c r="G34" t="n">
+        <v>1.915533333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.901033333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.916</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1609,22 +1725,21 @@
         <v>227421.264</v>
       </c>
       <c r="G35" t="n">
+        <v>1.917999999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.902000000000001</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1648,22 +1763,21 @@
         <v>4088.06</v>
       </c>
       <c r="G36" t="n">
+        <v>1.920466666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.902966666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1687,22 +1801,21 @@
         <v>1000</v>
       </c>
       <c r="G37" t="n">
+        <v>1.922599999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.903900000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,22 +1839,21 @@
         <v>523013.1707</v>
       </c>
       <c r="G38" t="n">
+        <v>1.922733333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.904583333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1765,22 +1877,21 @@
         <v>5995.8625</v>
       </c>
       <c r="G39" t="n">
+        <v>1.924399999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.905916666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,22 +1915,21 @@
         <v>14379.3901</v>
       </c>
       <c r="G40" t="n">
+        <v>1.926466666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.907350000000001</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1843,22 +1953,21 @@
         <v>1705.6006</v>
       </c>
       <c r="G41" t="n">
+        <v>1.926533333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.908366666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,22 +1991,21 @@
         <v>44640.0824</v>
       </c>
       <c r="G42" t="n">
+        <v>1.928533333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.9099</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1921,22 +2029,21 @@
         <v>600042.8235000001</v>
       </c>
       <c r="G43" t="n">
+        <v>1.930466666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.90965</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1960,22 +2067,21 @@
         <v>15261.8117</v>
       </c>
       <c r="G44" t="n">
+        <v>1.9324</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.909416666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1999,22 +2105,21 @@
         <v>21722.3379</v>
       </c>
       <c r="G45" t="n">
+        <v>1.9348</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.910016666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2038,22 +2143,23 @@
         <v>394.5768</v>
       </c>
       <c r="G46" t="n">
+        <v>1.936133333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.910683333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2075,18 +2181,21 @@
         <v>64517.9941</v>
       </c>
       <c r="G47" t="n">
+        <v>1.938133333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.911616666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,18 +2219,21 @@
         <v>36393</v>
       </c>
       <c r="G48" t="n">
+        <v>1.9382</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.912066666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2145,18 +2257,21 @@
         <v>36392.2439</v>
       </c>
       <c r="G49" t="n">
+        <v>1.9382</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.913033333333334</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,18 +2295,21 @@
         <v>1126310.995</v>
       </c>
       <c r="G50" t="n">
+        <v>1.936133333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.913316666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2215,18 +2333,21 @@
         <v>832.116</v>
       </c>
       <c r="G51" t="n">
+        <v>1.935933333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.914383333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2250,18 +2371,21 @@
         <v>520.8333</v>
       </c>
       <c r="G52" t="n">
+        <v>1.933533333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.9148</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2285,18 +2409,21 @@
         <v>520.8333</v>
       </c>
       <c r="G53" t="n">
+        <v>1.934466666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.9155</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,18 +2447,21 @@
         <v>557834</v>
       </c>
       <c r="G54" t="n">
+        <v>1.932533333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.915683333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2355,18 +2485,21 @@
         <v>258</v>
       </c>
       <c r="G55" t="n">
+        <v>1.932266666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.9164</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2390,18 +2523,21 @@
         <v>558514</v>
       </c>
       <c r="G56" t="n">
+        <v>1.931933333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.916916666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2425,18 +2561,21 @@
         <v>1742</v>
       </c>
       <c r="G57" t="n">
+        <v>1.931666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.917766666666666</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,18 +2599,21 @@
         <v>2170168.88</v>
       </c>
       <c r="G58" t="n">
+        <v>1.9294</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.918116666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2495,18 +2637,21 @@
         <v>441.7611</v>
       </c>
       <c r="G59" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.918766666666666</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,18 +2675,21 @@
         <v>558.2388999999999</v>
       </c>
       <c r="G60" t="n">
+        <v>1.928533333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.919416666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,18 +2713,21 @@
         <v>12534.538</v>
       </c>
       <c r="G61" t="n">
+        <v>1.929133333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.920066666666666</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2600,18 +2751,21 @@
         <v>2465.462</v>
       </c>
       <c r="G62" t="n">
+        <v>1.928666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.920566666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2635,18 +2789,21 @@
         <v>2000</v>
       </c>
       <c r="G63" t="n">
+        <v>1.930133333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.921066666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,18 +2827,21 @@
         <v>1019.9616</v>
       </c>
       <c r="G64" t="n">
+        <v>1.930066666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.921549999999999</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2705,18 +2865,21 @@
         <v>2168383</v>
       </c>
       <c r="G65" t="n">
+        <v>1.929733333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.921566666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,18 +2903,21 @@
         <v>3032193.76</v>
       </c>
       <c r="G66" t="n">
+        <v>1.929266666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.922349999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2775,18 +2941,21 @@
         <v>2797823.88</v>
       </c>
       <c r="G67" t="n">
+        <v>1.9294</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.922566666666666</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,18 +2979,21 @@
         <v>3128788.4965</v>
       </c>
       <c r="G68" t="n">
+        <v>1.929666666666666</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.923299999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,18 +3017,21 @@
         <v>1306800.8536</v>
       </c>
       <c r="G69" t="n">
+        <v>1.931533333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.923749999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2880,18 +3055,21 @@
         <v>2181623.6165</v>
       </c>
       <c r="G70" t="n">
+        <v>1.928933333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.923549999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2915,18 +3093,21 @@
         <v>260</v>
       </c>
       <c r="G71" t="n">
+        <v>1.930133333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.924033333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,18 +3131,21 @@
         <v>220262.26</v>
       </c>
       <c r="G72" t="n">
+        <v>1.929199999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.924666666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,18 +3169,21 @@
         <v>422958</v>
       </c>
       <c r="G73" t="n">
+        <v>1.928733333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.924899999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,18 +3207,21 @@
         <v>261</v>
       </c>
       <c r="G74" t="n">
+        <v>1.928066666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.925216666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,18 +3245,21 @@
         <v>16102.3385</v>
       </c>
       <c r="G75" t="n">
+        <v>1.926133333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.925549999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,18 +3283,21 @@
         <v>434314.9206</v>
       </c>
       <c r="G76" t="n">
+        <v>1.924133333333332</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.925533333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3125,18 +3321,21 @@
         <v>261</v>
       </c>
       <c r="G77" t="n">
+        <v>1.922733333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.925666666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3160,18 +3359,21 @@
         <v>158906.465</v>
       </c>
       <c r="G78" t="n">
+        <v>1.921399999999999</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.925816666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3195,18 +3397,21 @@
         <v>261</v>
       </c>
       <c r="G79" t="n">
+        <v>1.920133333333332</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.925983333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,18 +3435,21 @@
         <v>1443.147</v>
       </c>
       <c r="G80" t="n">
+        <v>1.920733333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.92615</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3265,18 +3473,21 @@
         <v>17288.5452</v>
       </c>
       <c r="G81" t="n">
+        <v>1.919599999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.926316666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3300,18 +3511,21 @@
         <v>1247774.759</v>
       </c>
       <c r="G82" t="n">
+        <v>1.920133333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.926416666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3335,18 +3549,21 @@
         <v>9421.326999999999</v>
       </c>
       <c r="G83" t="n">
+        <v>1.919533333333332</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.9266</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,18 +3587,21 @@
         <v>2367605.9262</v>
       </c>
       <c r="G84" t="n">
+        <v>1.917199999999999</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.926416666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,18 +3625,21 @@
         <v>219725.631</v>
       </c>
       <c r="G85" t="n">
+        <v>1.917266666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.926233333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,18 +3663,21 @@
         <v>1592837.3037</v>
       </c>
       <c r="G86" t="n">
+        <v>1.916066666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.926166666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,18 +3701,21 @@
         <v>10000</v>
       </c>
       <c r="G87" t="n">
+        <v>1.916733333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.926533333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,18 +3739,21 @@
         <v>670684.8976</v>
       </c>
       <c r="G88" t="n">
+        <v>1.918999999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.926899999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3545,18 +3777,21 @@
         <v>916327.7825</v>
       </c>
       <c r="G89" t="n">
+        <v>1.917799999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.926816666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3580,18 +3815,21 @@
         <v>1329255.88</v>
       </c>
       <c r="G90" t="n">
+        <v>1.917866666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.926833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3615,18 +3853,21 @@
         <v>793869.0592</v>
       </c>
       <c r="G91" t="n">
+        <v>1.917933333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.926833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,18 +3891,21 @@
         <v>818129</v>
       </c>
       <c r="G92" t="n">
+        <v>1.917066666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.92665</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3685,18 +3929,21 @@
         <v>71759.745</v>
       </c>
       <c r="G93" t="n">
+        <v>1.918266666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.927</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,18 +3967,21 @@
         <v>640733</v>
       </c>
       <c r="G94" t="n">
+        <v>1.917266666666666</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.926416666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3755,18 +4005,21 @@
         <v>643497</v>
       </c>
       <c r="G95" t="n">
+        <v>1.916266666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.925716666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3790,18 +4043,21 @@
         <v>681857.88</v>
       </c>
       <c r="G96" t="n">
+        <v>1.915266666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.925016666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3825,18 +4081,21 @@
         <v>259</v>
       </c>
       <c r="G97" t="n">
+        <v>1.9162</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.924816666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3860,18 +4119,21 @@
         <v>10241</v>
       </c>
       <c r="G98" t="n">
+        <v>1.916866666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.925133333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,18 +4157,21 @@
         <v>803989</v>
       </c>
       <c r="G99" t="n">
+        <v>1.916933333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.92455</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,18 +4195,21 @@
         <v>12168.6776</v>
       </c>
       <c r="G100" t="n">
+        <v>1.916933333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.92385</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,18 +4233,21 @@
         <v>372.0466</v>
       </c>
       <c r="G101" t="n">
+        <v>1.918533333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.924166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,18 +4271,21 @@
         <v>755613</v>
       </c>
       <c r="G102" t="n">
+        <v>1.916333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.923483333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4035,18 +4309,21 @@
         <v>170287.6994</v>
       </c>
       <c r="G103" t="n">
+        <v>1.916133333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.923316666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4070,18 +4347,21 @@
         <v>768410.79</v>
       </c>
       <c r="G104" t="n">
+        <v>1.915866666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.922683333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4105,18 +4385,21 @@
         <v>1287767.88</v>
       </c>
       <c r="G105" t="n">
+        <v>1.915666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.92205</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,18 +4423,21 @@
         <v>1492976.88</v>
       </c>
       <c r="G106" t="n">
+        <v>1.915599999999999</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.9217</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4175,18 +4461,21 @@
         <v>342.333</v>
       </c>
       <c r="G107" t="n">
+        <v>1.917799999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.921566666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,18 +4499,21 @@
         <v>609818</v>
       </c>
       <c r="G108" t="n">
+        <v>1.915866666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.921416666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,18 +4537,21 @@
         <v>308.0997</v>
       </c>
       <c r="G109" t="n">
+        <v>1.918066666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.921383333333334</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4280,18 +4575,21 @@
         <v>789202</v>
       </c>
       <c r="G110" t="n">
+        <v>1.918133333333332</v>
+      </c>
+      <c r="H110" t="n">
         <v>1.921216666666667</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4315,18 +4613,21 @@
         <v>106088.99</v>
       </c>
       <c r="G111" t="n">
+        <v>1.918199999999999</v>
+      </c>
+      <c r="H111" t="n">
         <v>1.920583333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,18 +4651,21 @@
         <v>260</v>
       </c>
       <c r="G112" t="n">
+        <v>1.918266666666665</v>
+      </c>
+      <c r="H112" t="n">
         <v>1.921</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4385,18 +4689,21 @@
         <v>1358824.88</v>
       </c>
       <c r="G113" t="n">
+        <v>1.916333333333332</v>
+      </c>
+      <c r="H113" t="n">
         <v>1.920600000000001</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,18 +4727,21 @@
         <v>1572.1733</v>
       </c>
       <c r="G114" t="n">
+        <v>1.916666666666665</v>
+      </c>
+      <c r="H114" t="n">
         <v>1.920583333333334</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4455,18 +4765,21 @@
         <v>815147.8277</v>
       </c>
       <c r="G115" t="n">
+        <v>1.916733333333332</v>
+      </c>
+      <c r="H115" t="n">
         <v>1.919966666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,18 +4803,21 @@
         <v>685778</v>
       </c>
       <c r="G116" t="n">
+        <v>1.914866666666665</v>
+      </c>
+      <c r="H116" t="n">
         <v>1.919900000000001</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,18 +4841,21 @@
         <v>2001985.9447</v>
       </c>
       <c r="G117" t="n">
+        <v>1.913199999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>1.918866666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,18 +4879,21 @@
         <v>10092.2402</v>
       </c>
       <c r="G118" t="n">
+        <v>1.910199999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>1.918516666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4595,18 +4917,21 @@
         <v>2752827.1952</v>
       </c>
       <c r="G119" t="n">
+        <v>1.907199999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>1.917233333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,18 +4955,21 @@
         <v>252381.4074</v>
       </c>
       <c r="G120" t="n">
+        <v>1.904133333333332</v>
+      </c>
+      <c r="H120" t="n">
         <v>1.91595</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,18 +4993,21 @@
         <v>2261</v>
       </c>
       <c r="G121" t="n">
+        <v>1.904799999999998</v>
+      </c>
+      <c r="H121" t="n">
         <v>1.915616666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4700,18 +5031,21 @@
         <v>774227.88</v>
       </c>
       <c r="G122" t="n">
+        <v>1.902066666666665</v>
+      </c>
+      <c r="H122" t="n">
         <v>1.914916666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4735,18 +5069,21 @@
         <v>846979.932</v>
       </c>
       <c r="G123" t="n">
+        <v>1.899666666666665</v>
+      </c>
+      <c r="H123" t="n">
         <v>1.9138</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,18 +5107,21 @@
         <v>264</v>
       </c>
       <c r="G124" t="n">
+        <v>1.897466666666665</v>
+      </c>
+      <c r="H124" t="n">
         <v>1.913233333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,18 +5145,21 @@
         <v>1000</v>
       </c>
       <c r="G125" t="n">
+        <v>1.895399999999999</v>
+      </c>
+      <c r="H125" t="n">
         <v>1.912633333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4840,18 +5183,21 @@
         <v>1425.1196</v>
       </c>
       <c r="G126" t="n">
+        <v>1.894266666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>1.911833333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4875,18 +5221,21 @@
         <v>444</v>
       </c>
       <c r="G127" t="n">
+        <v>1.891199999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>1.91145</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,18 +5259,21 @@
         <v>1332</v>
       </c>
       <c r="G128" t="n">
+        <v>1.890066666666665</v>
+      </c>
+      <c r="H128" t="n">
         <v>1.9107</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4945,18 +5297,21 @@
         <v>785784</v>
       </c>
       <c r="G129" t="n">
+        <v>1.888133333333332</v>
+      </c>
+      <c r="H129" t="n">
         <v>1.909733333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,22 +5335,21 @@
         <v>32036.3506</v>
       </c>
       <c r="G130" t="n">
+        <v>1.887133333333332</v>
+      </c>
+      <c r="H130" t="n">
         <v>1.909516666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1.881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5019,24 +5373,21 @@
         <v>764683</v>
       </c>
       <c r="G131" t="n">
+        <v>1.885199999999999</v>
+      </c>
+      <c r="H131" t="n">
         <v>1.908666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5060,24 +5411,21 @@
         <v>743699.88</v>
       </c>
       <c r="G132" t="n">
+        <v>1.886333333333332</v>
+      </c>
+      <c r="H132" t="n">
         <v>1.90815</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5101,24 +5449,21 @@
         <v>264</v>
       </c>
       <c r="G133" t="n">
+        <v>1.886933333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>1.908066666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5142,24 +5487,21 @@
         <v>812937</v>
       </c>
       <c r="G134" t="n">
+        <v>1.888066666666666</v>
+      </c>
+      <c r="H134" t="n">
         <v>1.907233333333334</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,24 +5525,21 @@
         <v>264</v>
       </c>
       <c r="G135" t="n">
+        <v>1.890466666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>1.907033333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,24 +5563,21 @@
         <v>292</v>
       </c>
       <c r="G136" t="n">
+        <v>1.887866666666665</v>
+      </c>
+      <c r="H136" t="n">
         <v>1.90655</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5265,24 +5601,21 @@
         <v>2281.1859</v>
       </c>
       <c r="G137" t="n">
+        <v>1.886799999999999</v>
+      </c>
+      <c r="H137" t="n">
         <v>1.905933333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5306,26 +5639,21 @@
         <v>201185.737</v>
       </c>
       <c r="G138" t="n">
+        <v>1.888666666666666</v>
+      </c>
+      <c r="H138" t="n">
         <v>1.905616666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="K138" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5349,26 +5677,21 @@
         <v>76969.03</v>
       </c>
       <c r="G139" t="n">
+        <v>1.888266666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>1.905266666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,24 +5715,21 @@
         <v>20700.1304</v>
       </c>
       <c r="G140" t="n">
+        <v>1.889933333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>1.904933333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5433,24 +5753,21 @@
         <v>670420</v>
       </c>
       <c r="G141" t="n">
+        <v>1.889466666666666</v>
+      </c>
+      <c r="H141" t="n">
         <v>1.9043</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,24 +5791,21 @@
         <v>264</v>
       </c>
       <c r="G142" t="n">
+        <v>1.890466666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>1.904033333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5515,24 +5829,21 @@
         <v>538413.3944</v>
       </c>
       <c r="G143" t="n">
+        <v>1.891466666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>1.903683333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5556,24 +5867,21 @@
         <v>260</v>
       </c>
       <c r="G144" t="n">
+        <v>1.894533333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>1.904066666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5597,24 +5905,21 @@
         <v>1100</v>
       </c>
       <c r="G145" t="n">
+        <v>1.896533333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>1.904333333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5638,24 +5943,21 @@
         <v>721985</v>
       </c>
       <c r="G146" t="n">
+        <v>1.898733333333332</v>
+      </c>
+      <c r="H146" t="n">
         <v>1.904333333333334</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,24 +5981,21 @@
         <v>260</v>
       </c>
       <c r="G147" t="n">
+        <v>1.900933333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>1.9042</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5720,24 +6019,21 @@
         <v>415433</v>
       </c>
       <c r="G148" t="n">
+        <v>1.899866666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>1.903283333333334</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5761,24 +6057,21 @@
         <v>36928</v>
       </c>
       <c r="G149" t="n">
+        <v>1.900133333333332</v>
+      </c>
+      <c r="H149" t="n">
         <v>1.902816666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,24 +6095,21 @@
         <v>265.1114</v>
       </c>
       <c r="G150" t="n">
+        <v>1.899333333333332</v>
+      </c>
+      <c r="H150" t="n">
         <v>1.9024</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5843,24 +6133,21 @@
         <v>0.8885999999999999</v>
       </c>
       <c r="G151" t="n">
+        <v>1.899733333333332</v>
+      </c>
+      <c r="H151" t="n">
         <v>1.902</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5884,24 +6171,21 @@
         <v>1078.8599</v>
       </c>
       <c r="G152" t="n">
+        <v>1.900266666666666</v>
+      </c>
+      <c r="H152" t="n">
         <v>1.901733333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5925,24 +6209,21 @@
         <v>482.6056</v>
       </c>
       <c r="G153" t="n">
+        <v>1.900133333333332</v>
+      </c>
+      <c r="H153" t="n">
         <v>1.901083333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,24 +6247,21 @@
         <v>104265.8890890047</v>
       </c>
       <c r="G154" t="n">
+        <v>1.901466666666666</v>
+      </c>
+      <c r="H154" t="n">
         <v>1.901316666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,24 +6285,21 @@
         <v>10058.45</v>
       </c>
       <c r="G155" t="n">
+        <v>1.901599999999999</v>
+      </c>
+      <c r="H155" t="n">
         <v>1.901266666666667</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,24 +6323,21 @@
         <v>62088.5195</v>
       </c>
       <c r="G156" t="n">
+        <v>1.902866666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>1.9012</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6089,24 +6361,21 @@
         <v>4868.882168925965</v>
       </c>
       <c r="G157" t="n">
+        <v>1.903799999999999</v>
+      </c>
+      <c r="H157" t="n">
         <v>1.900933333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6130,24 +6399,21 @@
         <v>7131.117831074035</v>
       </c>
       <c r="G158" t="n">
+        <v>1.904733333333332</v>
+      </c>
+      <c r="H158" t="n">
         <v>1.90065</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,24 +6437,21 @@
         <v>2868.882168925964</v>
       </c>
       <c r="G159" t="n">
+        <v>1.904133333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>1.900866666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6212,24 +6475,21 @@
         <v>17172.6467</v>
       </c>
       <c r="G160" t="n">
+        <v>1.902933333333332</v>
+      </c>
+      <c r="H160" t="n">
         <v>1.900833333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6253,24 +6513,21 @@
         <v>117864.5724</v>
       </c>
       <c r="G161" t="n">
+        <v>1.902266666666665</v>
+      </c>
+      <c r="H161" t="n">
         <v>1.900266666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6294,24 +6551,21 @@
         <v>833075.0921</v>
       </c>
       <c r="G162" t="n">
+        <v>1.901333333333332</v>
+      </c>
+      <c r="H162" t="n">
         <v>1.90045</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6335,24 +6589,21 @@
         <v>1043.84133611691</v>
       </c>
       <c r="G163" t="n">
+        <v>1.903533333333332</v>
+      </c>
+      <c r="H163" t="n">
         <v>1.900133333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6376,24 +6627,21 @@
         <v>35683.5244</v>
       </c>
       <c r="G164" t="n">
+        <v>1.903999999999999</v>
+      </c>
+      <c r="H164" t="n">
         <v>1.89985</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6417,24 +6665,21 @@
         <v>35683.5245</v>
       </c>
       <c r="G165" t="n">
+        <v>1.904266666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>1.89955</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,24 +6703,21 @@
         <v>798.7021999999999</v>
       </c>
       <c r="G166" t="n">
+        <v>1.905199999999999</v>
+      </c>
+      <c r="H166" t="n">
         <v>1.8994</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6499,24 +6741,21 @@
         <v>90029.527</v>
       </c>
       <c r="G167" t="n">
+        <v>1.906533333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>1.898916666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6540,24 +6779,21 @@
         <v>16041.4989</v>
       </c>
       <c r="G168" t="n">
+        <v>1.907799999999999</v>
+      </c>
+      <c r="H168" t="n">
         <v>1.899066666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6581,24 +6817,21 @@
         <v>9739</v>
       </c>
       <c r="G169" t="n">
+        <v>1.907666666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>1.898716666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6622,24 +6855,21 @@
         <v>634545</v>
       </c>
       <c r="G170" t="n">
+        <v>1.907266666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>1.89855</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,24 +6893,21 @@
         <v>10093.626</v>
       </c>
       <c r="G171" t="n">
+        <v>1.906866666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>1.898366666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6704,24 +6931,21 @@
         <v>73263</v>
       </c>
       <c r="G172" t="n">
+        <v>1.906333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>1.89795</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6745,24 +6969,401 @@
         <v>15684.3381</v>
       </c>
       <c r="G173" t="n">
+        <v>1.905799999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>1.898016666666666</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F174" t="n">
+        <v>261</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.905866666666666</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1.898166666666666</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F175" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.906999999999999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1.898399999999999</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F176" t="n">
+        <v>52331.2264</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.906933333333332</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1.898283333333333</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F177" t="n">
+        <v>918333.6217</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.905933333333333</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1.898633333333333</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.906133333333333</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1.899116666666666</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2262</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.908066666666666</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1.900066666666666</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F180" t="n">
+        <v>522</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.909999999999999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1.901016666666666</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F181" t="n">
+        <v>748816.6997</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1.909333333333333</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1.900533333333333</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F182" t="n">
+        <v>261</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.909933333333333</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.900883333333333</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1106242.7304</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.908133333333333</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.901183333333333</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N183"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.9</v>
+        <v>1.861</v>
       </c>
       <c r="C2" t="n">
-        <v>1.909</v>
+        <v>1.861</v>
       </c>
       <c r="D2" t="n">
-        <v>1.909</v>
+        <v>1.861</v>
       </c>
       <c r="E2" t="n">
-        <v>1.855</v>
+        <v>1.861</v>
       </c>
       <c r="F2" t="n">
-        <v>4327112.927</v>
+        <v>27333.7515</v>
       </c>
       <c r="G2" t="n">
-        <v>1.892866666666666</v>
+        <v>-5140034.643128891</v>
       </c>
       <c r="H2" t="n">
-        <v>1.895933333333336</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.909</v>
+        <v>1.86</v>
       </c>
       <c r="C3" t="n">
-        <v>1.909</v>
+        <v>1.86</v>
       </c>
       <c r="D3" t="n">
-        <v>1.909</v>
+        <v>1.86</v>
       </c>
       <c r="E3" t="n">
-        <v>1.909</v>
+        <v>1.86</v>
       </c>
       <c r="F3" t="n">
-        <v>482884.098</v>
+        <v>3832.2345</v>
       </c>
       <c r="G3" t="n">
-        <v>1.894133333333332</v>
+        <v>-5143866.877628891</v>
       </c>
       <c r="H3" t="n">
-        <v>1.895750000000002</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.91</v>
+        <v>1.889</v>
       </c>
       <c r="C4" t="n">
-        <v>1.91</v>
+        <v>1.889</v>
       </c>
       <c r="D4" t="n">
-        <v>1.91</v>
+        <v>1.889</v>
       </c>
       <c r="E4" t="n">
-        <v>1.91</v>
+        <v>1.889</v>
       </c>
       <c r="F4" t="n">
-        <v>25573.5762</v>
+        <v>64164.9452</v>
       </c>
       <c r="G4" t="n">
-        <v>1.895999999999999</v>
+        <v>-5079701.932428891</v>
       </c>
       <c r="H4" t="n">
-        <v>1.895566666666669</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>1.86</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.86</v>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +542,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.914</v>
+        <v>1.889</v>
       </c>
       <c r="C5" t="n">
-        <v>1.91</v>
+        <v>1.889</v>
       </c>
       <c r="D5" t="n">
-        <v>1.914</v>
+        <v>1.889</v>
       </c>
       <c r="E5" t="n">
-        <v>1.91</v>
+        <v>1.889</v>
       </c>
       <c r="F5" t="n">
-        <v>111010.3019</v>
+        <v>87269.3018</v>
       </c>
       <c r="G5" t="n">
-        <v>1.896733333333332</v>
+        <v>-5079701.932428891</v>
       </c>
       <c r="H5" t="n">
-        <v>1.895600000000002</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +595,27 @@
         <v>1.89</v>
       </c>
       <c r="F6" t="n">
-        <v>165219.2562</v>
+        <v>36944.6753</v>
       </c>
       <c r="G6" t="n">
-        <v>1.897399999999999</v>
+        <v>-5042757.257128891</v>
       </c>
       <c r="H6" t="n">
-        <v>1.895383333333335</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +624,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.899</v>
+        <v>1.884</v>
       </c>
       <c r="C7" t="n">
-        <v>1.899</v>
+        <v>1.875</v>
       </c>
       <c r="D7" t="n">
-        <v>1.899</v>
+        <v>1.884</v>
       </c>
       <c r="E7" t="n">
-        <v>1.899</v>
+        <v>1.875</v>
       </c>
       <c r="F7" t="n">
-        <v>9263.8824</v>
+        <v>25409.7662</v>
       </c>
       <c r="G7" t="n">
-        <v>1.898333333333332</v>
+        <v>-5068167.023328891</v>
       </c>
       <c r="H7" t="n">
-        <v>1.895316666666669</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,40 +659,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="C8" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="D8" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="E8" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="F8" t="n">
-        <v>1882.1335</v>
+        <v>30587.6398</v>
       </c>
       <c r="G8" t="n">
-        <v>1.898466666666665</v>
+        <v>-5098754.663128891</v>
       </c>
       <c r="H8" t="n">
-        <v>1.895100000000002</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -708,42 +694,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.9</v>
+        <v>1.861</v>
       </c>
       <c r="C9" t="n">
-        <v>1.912</v>
+        <v>1.86</v>
       </c>
       <c r="D9" t="n">
-        <v>1.912</v>
+        <v>1.861</v>
       </c>
       <c r="E9" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="F9" t="n">
-        <v>15710.8789</v>
+        <v>651122.6642</v>
       </c>
       <c r="G9" t="n">
-        <v>1.899266666666666</v>
+        <v>-5098754.663128891</v>
       </c>
       <c r="H9" t="n">
-        <v>1.895250000000002</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -752,44 +729,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.912</v>
+        <v>1.86</v>
       </c>
       <c r="C10" t="n">
-        <v>1.915</v>
+        <v>1.855</v>
       </c>
       <c r="D10" t="n">
-        <v>1.915</v>
+        <v>1.86</v>
       </c>
       <c r="E10" t="n">
-        <v>1.912</v>
+        <v>1.855</v>
       </c>
       <c r="F10" t="n">
-        <v>505748.371</v>
+        <v>2019707.7215</v>
       </c>
       <c r="G10" t="n">
-        <v>1.900333333333332</v>
+        <v>-7118462.384628891</v>
       </c>
       <c r="H10" t="n">
-        <v>1.895450000000002</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.912</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,36 +764,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.9</v>
+        <v>1.859</v>
       </c>
       <c r="C11" t="n">
-        <v>1.9</v>
+        <v>1.854</v>
       </c>
       <c r="D11" t="n">
-        <v>1.9</v>
+        <v>1.859</v>
       </c>
       <c r="E11" t="n">
-        <v>1.9</v>
+        <v>1.854</v>
       </c>
       <c r="F11" t="n">
-        <v>36550.2599</v>
+        <v>358961.8849</v>
       </c>
       <c r="G11" t="n">
-        <v>1.901666666666665</v>
+        <v>-7477424.269528891</v>
       </c>
       <c r="H11" t="n">
-        <v>1.895400000000002</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -836,36 +799,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="C12" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="D12" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="E12" t="n">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="F12" t="n">
-        <v>496106.6153</v>
+        <v>1539088.163287041</v>
       </c>
       <c r="G12" t="n">
-        <v>1.901599999999999</v>
+        <v>-5938336.10624185</v>
       </c>
       <c r="H12" t="n">
-        <v>1.894883333333335</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,36 +834,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.89</v>
+        <v>1.959</v>
       </c>
       <c r="C13" t="n">
-        <v>1.89</v>
+        <v>1.959</v>
       </c>
       <c r="D13" t="n">
-        <v>1.89</v>
+        <v>1.959</v>
       </c>
       <c r="E13" t="n">
-        <v>1.89</v>
+        <v>1.959</v>
       </c>
       <c r="F13" t="n">
-        <v>31520.4041</v>
+        <v>5104.6453</v>
       </c>
       <c r="G13" t="n">
-        <v>1.901599999999999</v>
+        <v>-5943440.75154185</v>
       </c>
       <c r="H13" t="n">
-        <v>1.894366666666669</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -924,24 +881,21 @@
         <v>1.91</v>
       </c>
       <c r="F14" t="n">
-        <v>1000</v>
+        <v>213193.591</v>
       </c>
       <c r="G14" t="n">
-        <v>1.902266666666665</v>
+        <v>-6156634.34254185</v>
       </c>
       <c r="H14" t="n">
-        <v>1.894183333333335</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -950,36 +904,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.891</v>
+        <v>1.89</v>
       </c>
       <c r="C15" t="n">
         <v>1.89</v>
       </c>
       <c r="D15" t="n">
-        <v>1.891</v>
+        <v>1.89</v>
       </c>
       <c r="E15" t="n">
         <v>1.89</v>
       </c>
       <c r="F15" t="n">
-        <v>370000</v>
+        <v>771.5964</v>
       </c>
       <c r="G15" t="n">
-        <v>1.901599999999999</v>
+        <v>-6157405.93894185</v>
       </c>
       <c r="H15" t="n">
-        <v>1.893516666666668</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,36 +939,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="C16" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D16" t="n">
-        <v>1.91</v>
+        <v>1.891</v>
       </c>
       <c r="E16" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F16" t="n">
-        <v>35288.2599</v>
+        <v>16873.0159</v>
       </c>
       <c r="G16" t="n">
-        <v>1.902266666666666</v>
+        <v>-6157405.93894185</v>
       </c>
       <c r="H16" t="n">
-        <v>1.893100000000001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,36 +974,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="C17" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D17" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="E17" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="F17" t="n">
-        <v>261.7802</v>
+        <v>241275.784</v>
       </c>
       <c r="G17" t="n">
-        <v>1.902333333333332</v>
+        <v>-6157405.93894185</v>
       </c>
       <c r="H17" t="n">
-        <v>1.892916666666668</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1064,36 +1009,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="C18" t="n">
-        <v>1.91</v>
+        <v>1.882</v>
       </c>
       <c r="D18" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="E18" t="n">
-        <v>1.91</v>
+        <v>1.882</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>117141.7062</v>
       </c>
       <c r="G18" t="n">
-        <v>1.902399999999999</v>
+        <v>-6274547.64514185</v>
       </c>
       <c r="H18" t="n">
-        <v>1.892983333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1102,36 +1044,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="C19" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="D19" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="E19" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="F19" t="n">
-        <v>197.3581</v>
+        <v>1529</v>
       </c>
       <c r="G19" t="n">
-        <v>1.902399999999999</v>
+        <v>-6273018.64514185</v>
       </c>
       <c r="H19" t="n">
-        <v>1.893050000000001</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1140,36 +1079,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="C20" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="D20" t="n">
-        <v>1.91</v>
+        <v>1.883</v>
       </c>
       <c r="E20" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="F20" t="n">
-        <v>64.4221</v>
+        <v>183295.175</v>
       </c>
       <c r="G20" t="n">
-        <v>1.902399999999999</v>
+        <v>-6456313.82014185</v>
       </c>
       <c r="H20" t="n">
-        <v>1.893166666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1178,36 +1114,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.91</v>
+        <v>1.881</v>
       </c>
       <c r="C21" t="n">
-        <v>1.91</v>
+        <v>1.885</v>
       </c>
       <c r="D21" t="n">
-        <v>1.91</v>
+        <v>1.885</v>
       </c>
       <c r="E21" t="n">
-        <v>1.91</v>
+        <v>1.881</v>
       </c>
       <c r="F21" t="n">
-        <v>535.5779</v>
+        <v>185660.3815</v>
       </c>
       <c r="G21" t="n">
-        <v>1.903733333333332</v>
+        <v>-6270653.43864185</v>
       </c>
       <c r="H21" t="n">
-        <v>1.893283333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1216,36 +1149,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.914</v>
+        <v>1.888</v>
       </c>
       <c r="C22" t="n">
-        <v>1.914</v>
+        <v>1.888</v>
       </c>
       <c r="D22" t="n">
-        <v>1.914</v>
+        <v>1.888</v>
       </c>
       <c r="E22" t="n">
-        <v>1.914</v>
+        <v>1.888</v>
       </c>
       <c r="F22" t="n">
-        <v>262</v>
+        <v>46135.4192</v>
       </c>
       <c r="G22" t="n">
-        <v>1.904733333333333</v>
+        <v>-6224518.01944185</v>
       </c>
       <c r="H22" t="n">
-        <v>1.893183333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1254,36 +1184,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.914</v>
+        <v>1.9</v>
       </c>
       <c r="C23" t="n">
-        <v>1.914</v>
+        <v>1.9</v>
       </c>
       <c r="D23" t="n">
-        <v>1.914</v>
+        <v>1.9</v>
       </c>
       <c r="E23" t="n">
-        <v>1.914</v>
+        <v>1.9</v>
       </c>
       <c r="F23" t="n">
-        <v>1167.7285</v>
+        <v>264</v>
       </c>
       <c r="G23" t="n">
-        <v>1.906333333333333</v>
+        <v>-6224254.01944185</v>
       </c>
       <c r="H23" t="n">
-        <v>1.893433333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1292,36 +1219,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.914</v>
+        <v>1.899</v>
       </c>
       <c r="C24" t="n">
-        <v>1.915</v>
+        <v>1.899</v>
       </c>
       <c r="D24" t="n">
-        <v>1.915</v>
+        <v>1.899</v>
       </c>
       <c r="E24" t="n">
-        <v>1.914</v>
+        <v>1.899</v>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>27202.0156</v>
       </c>
       <c r="G24" t="n">
-        <v>1.906533333333333</v>
+        <v>-6251456.035041849</v>
       </c>
       <c r="H24" t="n">
-        <v>1.893716666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,36 +1254,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.915</v>
+        <v>1.88</v>
       </c>
       <c r="C25" t="n">
-        <v>1.915</v>
+        <v>1.88</v>
       </c>
       <c r="D25" t="n">
-        <v>1.915</v>
+        <v>1.88</v>
       </c>
       <c r="E25" t="n">
-        <v>1.915</v>
+        <v>1.88</v>
       </c>
       <c r="F25" t="n">
-        <v>2483.8394</v>
+        <v>137114.5055</v>
       </c>
       <c r="G25" t="n">
-        <v>1.906533333333333</v>
+        <v>-6388570.540541849</v>
       </c>
       <c r="H25" t="n">
-        <v>1.894050000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1368,36 +1289,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.915</v>
+        <v>1.891</v>
       </c>
       <c r="C26" t="n">
-        <v>1.915</v>
+        <v>1.891</v>
       </c>
       <c r="D26" t="n">
-        <v>1.915</v>
+        <v>1.891</v>
       </c>
       <c r="E26" t="n">
-        <v>1.915</v>
+        <v>1.891</v>
       </c>
       <c r="F26" t="n">
-        <v>10000</v>
+        <v>1001789.2431</v>
       </c>
       <c r="G26" t="n">
-        <v>1.907533333333333</v>
+        <v>-5386781.297441849</v>
       </c>
       <c r="H26" t="n">
-        <v>1.894466666666668</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1406,36 +1324,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.915</v>
+        <v>1.891</v>
       </c>
       <c r="C27" t="n">
-        <v>1.916</v>
+        <v>1.89</v>
       </c>
       <c r="D27" t="n">
-        <v>1.916</v>
+        <v>1.891</v>
       </c>
       <c r="E27" t="n">
-        <v>1.915</v>
+        <v>1.89</v>
       </c>
       <c r="F27" t="n">
-        <v>20875.2498</v>
+        <v>52560</v>
       </c>
       <c r="G27" t="n">
-        <v>1.909266666666666</v>
+        <v>-5439341.297441849</v>
       </c>
       <c r="H27" t="n">
-        <v>1.894933333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,36 +1359,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="C28" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="D28" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="E28" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>10911.3334</v>
       </c>
       <c r="G28" t="n">
-        <v>1.910999999999999</v>
+        <v>-5428429.96404185</v>
       </c>
       <c r="H28" t="n">
-        <v>1.895616666666668</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,36 +1394,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="C29" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="D29" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="E29" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="F29" t="n">
-        <v>10000</v>
+        <v>1930.1546</v>
       </c>
       <c r="G29" t="n">
-        <v>1.911399999999999</v>
+        <v>-5428429.96404185</v>
       </c>
       <c r="H29" t="n">
-        <v>1.896516666666668</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1523,33 +1432,30 @@
         <v>1.9</v>
       </c>
       <c r="C30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="D30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="E30" t="n">
         <v>1.9</v>
       </c>
       <c r="F30" t="n">
-        <v>2747.394</v>
+        <v>265.6749</v>
       </c>
       <c r="G30" t="n">
-        <v>1.912733333333333</v>
+        <v>-5428429.96404185</v>
       </c>
       <c r="H30" t="n">
-        <v>1.897333333333334</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1558,36 +1464,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="C31" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="D31" t="n">
-        <v>1.91</v>
+        <v>1.909</v>
       </c>
       <c r="E31" t="n">
-        <v>1.91</v>
+        <v>1.855</v>
       </c>
       <c r="F31" t="n">
-        <v>2225.394</v>
+        <v>4327112.927</v>
       </c>
       <c r="G31" t="n">
-        <v>1.912733333333333</v>
+        <v>-1101317.037041849</v>
       </c>
       <c r="H31" t="n">
-        <v>1.897850000000001</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1596,36 +1499,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="C32" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="D32" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="E32" t="n">
-        <v>1.916</v>
+        <v>1.909</v>
       </c>
       <c r="F32" t="n">
-        <v>1000</v>
+        <v>482884.098</v>
       </c>
       <c r="G32" t="n">
-        <v>1.913133333333332</v>
+        <v>-1101317.037041849</v>
       </c>
       <c r="H32" t="n">
-        <v>1.898783333333334</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1634,36 +1534,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="C33" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="D33" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="E33" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="F33" t="n">
-        <v>3000</v>
+        <v>25573.5762</v>
       </c>
       <c r="G33" t="n">
-        <v>1.913533333333333</v>
+        <v>-1075743.460841849</v>
       </c>
       <c r="H33" t="n">
-        <v>1.8997</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1672,36 +1569,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.916</v>
+        <v>1.914</v>
       </c>
       <c r="C34" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="D34" t="n">
-        <v>1.94</v>
+        <v>1.914</v>
       </c>
       <c r="E34" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="F34" t="n">
-        <v>1847000</v>
+        <v>111010.3019</v>
       </c>
       <c r="G34" t="n">
-        <v>1.915533333333333</v>
+        <v>-1075743.460841849</v>
       </c>
       <c r="H34" t="n">
-        <v>1.901033333333334</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1710,36 +1604,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="C35" t="n">
-        <v>1.947</v>
+        <v>1.89</v>
       </c>
       <c r="D35" t="n">
-        <v>1.947</v>
+        <v>1.89</v>
       </c>
       <c r="E35" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="F35" t="n">
-        <v>227421.264</v>
+        <v>165219.2562</v>
       </c>
       <c r="G35" t="n">
-        <v>1.917999999999999</v>
+        <v>-1240962.717041849</v>
       </c>
       <c r="H35" t="n">
-        <v>1.902000000000001</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1748,36 +1639,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.947</v>
+        <v>1.899</v>
       </c>
       <c r="C36" t="n">
-        <v>1.947</v>
+        <v>1.899</v>
       </c>
       <c r="D36" t="n">
-        <v>1.947</v>
+        <v>1.899</v>
       </c>
       <c r="E36" t="n">
-        <v>1.947</v>
+        <v>1.899</v>
       </c>
       <c r="F36" t="n">
-        <v>4088.06</v>
+        <v>9263.8824</v>
       </c>
       <c r="G36" t="n">
-        <v>1.920466666666666</v>
+        <v>-1231698.834641849</v>
       </c>
       <c r="H36" t="n">
-        <v>1.902966666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,36 +1674,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.946</v>
+        <v>1.89</v>
       </c>
       <c r="C37" t="n">
-        <v>1.946</v>
+        <v>1.89</v>
       </c>
       <c r="D37" t="n">
-        <v>1.946</v>
+        <v>1.89</v>
       </c>
       <c r="E37" t="n">
-        <v>1.946</v>
+        <v>1.89</v>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>1882.1335</v>
       </c>
       <c r="G37" t="n">
-        <v>1.922599999999999</v>
+        <v>-1233580.968141849</v>
       </c>
       <c r="H37" t="n">
-        <v>1.903900000000001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1824,36 +1709,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="C38" t="n">
-        <v>1.916</v>
+        <v>1.912</v>
       </c>
       <c r="D38" t="n">
-        <v>1.93</v>
+        <v>1.912</v>
       </c>
       <c r="E38" t="n">
-        <v>1.916</v>
+        <v>1.9</v>
       </c>
       <c r="F38" t="n">
-        <v>523013.1707</v>
+        <v>15710.8789</v>
       </c>
       <c r="G38" t="n">
-        <v>1.922733333333333</v>
+        <v>-1217870.089241849</v>
       </c>
       <c r="H38" t="n">
-        <v>1.904583333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,36 +1744,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.94</v>
+        <v>1.912</v>
       </c>
       <c r="C39" t="n">
-        <v>1.94</v>
+        <v>1.915</v>
       </c>
       <c r="D39" t="n">
-        <v>1.94</v>
+        <v>1.915</v>
       </c>
       <c r="E39" t="n">
-        <v>1.94</v>
+        <v>1.912</v>
       </c>
       <c r="F39" t="n">
-        <v>5995.8625</v>
+        <v>505748.371</v>
       </c>
       <c r="G39" t="n">
-        <v>1.924399999999999</v>
+        <v>-712121.7182418494</v>
       </c>
       <c r="H39" t="n">
-        <v>1.905916666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1900,36 +1779,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="C40" t="n">
-        <v>1.946</v>
+        <v>1.9</v>
       </c>
       <c r="D40" t="n">
-        <v>1.946</v>
+        <v>1.9</v>
       </c>
       <c r="E40" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="F40" t="n">
-        <v>14379.3901</v>
+        <v>36550.2599</v>
       </c>
       <c r="G40" t="n">
-        <v>1.926466666666666</v>
+        <v>-748671.9781418494</v>
       </c>
       <c r="H40" t="n">
-        <v>1.907350000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,36 +1814,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="C41" t="n">
-        <v>1.916</v>
+        <v>1.89</v>
       </c>
       <c r="D41" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="E41" t="n">
-        <v>1.916</v>
+        <v>1.89</v>
       </c>
       <c r="F41" t="n">
-        <v>1705.6006</v>
+        <v>496106.6153</v>
       </c>
       <c r="G41" t="n">
-        <v>1.926533333333333</v>
+        <v>-1244778.593441849</v>
       </c>
       <c r="H41" t="n">
-        <v>1.908366666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,36 +1849,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.946</v>
+        <v>1.89</v>
       </c>
       <c r="C42" t="n">
-        <v>1.946</v>
+        <v>1.89</v>
       </c>
       <c r="D42" t="n">
-        <v>1.946</v>
+        <v>1.89</v>
       </c>
       <c r="E42" t="n">
-        <v>1.946</v>
+        <v>1.89</v>
       </c>
       <c r="F42" t="n">
-        <v>44640.0824</v>
+        <v>31520.4041</v>
       </c>
       <c r="G42" t="n">
-        <v>1.928533333333333</v>
+        <v>-1244778.593441849</v>
       </c>
       <c r="H42" t="n">
-        <v>1.9099</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,36 +1884,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.945</v>
+        <v>1.91</v>
       </c>
       <c r="C43" t="n">
-        <v>1.945</v>
+        <v>1.91</v>
       </c>
       <c r="D43" t="n">
-        <v>1.945</v>
+        <v>1.91</v>
       </c>
       <c r="E43" t="n">
-        <v>1.945</v>
+        <v>1.91</v>
       </c>
       <c r="F43" t="n">
-        <v>600042.8235000001</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>1.930466666666666</v>
+        <v>-1243778.593441849</v>
       </c>
       <c r="H43" t="n">
-        <v>1.90965</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2052,36 +1919,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.945</v>
+        <v>1.891</v>
       </c>
       <c r="C44" t="n">
-        <v>1.945</v>
+        <v>1.89</v>
       </c>
       <c r="D44" t="n">
-        <v>1.945</v>
+        <v>1.891</v>
       </c>
       <c r="E44" t="n">
-        <v>1.945</v>
+        <v>1.89</v>
       </c>
       <c r="F44" t="n">
-        <v>15261.8117</v>
+        <v>370000</v>
       </c>
       <c r="G44" t="n">
-        <v>1.9324</v>
+        <v>-1613778.593441849</v>
       </c>
       <c r="H44" t="n">
-        <v>1.909416666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2090,36 +1954,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="C45" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="D45" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="E45" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="F45" t="n">
-        <v>21722.3379</v>
+        <v>35288.2599</v>
       </c>
       <c r="G45" t="n">
-        <v>1.9348</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H45" t="n">
-        <v>1.910016666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,36 +1989,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="C46" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="D46" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="E46" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="F46" t="n">
-        <v>394.5768</v>
+        <v>261.7802</v>
       </c>
       <c r="G46" t="n">
-        <v>1.936133333333333</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H46" t="n">
-        <v>1.910683333333334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2166,36 +2024,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="C47" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="D47" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="E47" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="F47" t="n">
-        <v>64517.9941</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>1.938133333333333</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H47" t="n">
-        <v>1.911616666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2204,36 +2059,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="C48" t="n">
-        <v>1.917</v>
+        <v>1.91</v>
       </c>
       <c r="D48" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="E48" t="n">
-        <v>1.917</v>
+        <v>1.91</v>
       </c>
       <c r="F48" t="n">
-        <v>36393</v>
+        <v>197.3581</v>
       </c>
       <c r="G48" t="n">
-        <v>1.9382</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H48" t="n">
-        <v>1.912066666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2242,36 +2094,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="C49" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="D49" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="E49" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="F49" t="n">
-        <v>36392.2439</v>
+        <v>64.4221</v>
       </c>
       <c r="G49" t="n">
-        <v>1.9382</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H49" t="n">
-        <v>1.913033333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2280,36 +2129,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="C50" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="D50" t="n">
-        <v>1.918</v>
+        <v>1.91</v>
       </c>
       <c r="E50" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="F50" t="n">
-        <v>1126310.995</v>
+        <v>535.5779</v>
       </c>
       <c r="G50" t="n">
-        <v>1.936133333333333</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H50" t="n">
-        <v>1.913316666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2318,36 +2164,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.944</v>
+        <v>1.914</v>
       </c>
       <c r="C51" t="n">
-        <v>1.944</v>
+        <v>1.914</v>
       </c>
       <c r="D51" t="n">
-        <v>1.944</v>
+        <v>1.914</v>
       </c>
       <c r="E51" t="n">
-        <v>1.944</v>
+        <v>1.914</v>
       </c>
       <c r="F51" t="n">
-        <v>832.116</v>
+        <v>262</v>
       </c>
       <c r="G51" t="n">
-        <v>1.935933333333333</v>
+        <v>-1578228.333541849</v>
       </c>
       <c r="H51" t="n">
-        <v>1.914383333333334</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,36 +2199,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.91</v>
+        <v>1.914</v>
       </c>
       <c r="C52" t="n">
-        <v>1.91</v>
+        <v>1.914</v>
       </c>
       <c r="D52" t="n">
-        <v>1.91</v>
+        <v>1.914</v>
       </c>
       <c r="E52" t="n">
-        <v>1.91</v>
+        <v>1.914</v>
       </c>
       <c r="F52" t="n">
-        <v>520.8333</v>
+        <v>1167.7285</v>
       </c>
       <c r="G52" t="n">
-        <v>1.933533333333333</v>
+        <v>-1578228.333541849</v>
       </c>
       <c r="H52" t="n">
-        <v>1.9148</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2394,36 +2234,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.93</v>
+        <v>1.914</v>
       </c>
       <c r="C53" t="n">
-        <v>1.93</v>
+        <v>1.915</v>
       </c>
       <c r="D53" t="n">
-        <v>1.93</v>
+        <v>1.915</v>
       </c>
       <c r="E53" t="n">
-        <v>1.93</v>
+        <v>1.914</v>
       </c>
       <c r="F53" t="n">
-        <v>520.8333</v>
+        <v>10000</v>
       </c>
       <c r="G53" t="n">
-        <v>1.934466666666666</v>
+        <v>-1568228.333541849</v>
       </c>
       <c r="H53" t="n">
-        <v>1.9155</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2432,36 +2269,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.911</v>
+        <v>1.915</v>
       </c>
       <c r="C54" t="n">
-        <v>1.911</v>
+        <v>1.915</v>
       </c>
       <c r="D54" t="n">
-        <v>1.911</v>
+        <v>1.915</v>
       </c>
       <c r="E54" t="n">
-        <v>1.911</v>
+        <v>1.915</v>
       </c>
       <c r="F54" t="n">
-        <v>557834</v>
+        <v>2483.8394</v>
       </c>
       <c r="G54" t="n">
-        <v>1.932533333333333</v>
+        <v>-1568228.333541849</v>
       </c>
       <c r="H54" t="n">
-        <v>1.915683333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,36 +2304,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.942</v>
+        <v>1.915</v>
       </c>
       <c r="C55" t="n">
-        <v>1.942</v>
+        <v>1.915</v>
       </c>
       <c r="D55" t="n">
-        <v>1.942</v>
+        <v>1.915</v>
       </c>
       <c r="E55" t="n">
-        <v>1.942</v>
+        <v>1.915</v>
       </c>
       <c r="F55" t="n">
-        <v>258</v>
+        <v>10000</v>
       </c>
       <c r="G55" t="n">
-        <v>1.932266666666666</v>
+        <v>-1568228.333541849</v>
       </c>
       <c r="H55" t="n">
-        <v>1.9164</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2508,36 +2339,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.911</v>
+        <v>1.915</v>
       </c>
       <c r="C56" t="n">
-        <v>1.911</v>
+        <v>1.916</v>
       </c>
       <c r="D56" t="n">
-        <v>1.911</v>
+        <v>1.916</v>
       </c>
       <c r="E56" t="n">
-        <v>1.911</v>
+        <v>1.915</v>
       </c>
       <c r="F56" t="n">
-        <v>558514</v>
+        <v>20875.2498</v>
       </c>
       <c r="G56" t="n">
-        <v>1.931933333333333</v>
+        <v>-1547353.083741849</v>
       </c>
       <c r="H56" t="n">
-        <v>1.916916666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2546,36 +2374,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.942</v>
+        <v>1.916</v>
       </c>
       <c r="C57" t="n">
-        <v>1.942</v>
+        <v>1.916</v>
       </c>
       <c r="D57" t="n">
-        <v>1.942</v>
+        <v>1.916</v>
       </c>
       <c r="E57" t="n">
-        <v>1.942</v>
+        <v>1.916</v>
       </c>
       <c r="F57" t="n">
-        <v>1742</v>
+        <v>20000</v>
       </c>
       <c r="G57" t="n">
-        <v>1.931666666666666</v>
+        <v>-1547353.083741849</v>
       </c>
       <c r="H57" t="n">
-        <v>1.917766666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,36 +2409,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.911</v>
+        <v>1.916</v>
       </c>
       <c r="C58" t="n">
-        <v>1.911</v>
+        <v>1.916</v>
       </c>
       <c r="D58" t="n">
-        <v>1.941</v>
+        <v>1.916</v>
       </c>
       <c r="E58" t="n">
-        <v>1.911</v>
+        <v>1.916</v>
       </c>
       <c r="F58" t="n">
-        <v>2170168.88</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="n">
-        <v>1.9294</v>
+        <v>-1547353.083741849</v>
       </c>
       <c r="H58" t="n">
-        <v>1.918116666666666</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2622,36 +2444,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.939</v>
+        <v>1.9</v>
       </c>
       <c r="C59" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="D59" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="E59" t="n">
-        <v>1.939</v>
+        <v>1.9</v>
       </c>
       <c r="F59" t="n">
-        <v>441.7611</v>
+        <v>2747.394</v>
       </c>
       <c r="G59" t="n">
-        <v>1.929</v>
+        <v>-1550100.477741849</v>
       </c>
       <c r="H59" t="n">
-        <v>1.918766666666666</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2660,36 +2479,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="C60" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="D60" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="E60" t="n">
-        <v>1.939</v>
+        <v>1.91</v>
       </c>
       <c r="F60" t="n">
-        <v>558.2388999999999</v>
+        <v>2225.394</v>
       </c>
       <c r="G60" t="n">
-        <v>1.928533333333333</v>
+        <v>-1550100.477741849</v>
       </c>
       <c r="H60" t="n">
-        <v>1.919416666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2698,36 +2514,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="C61" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="D61" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="E61" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="F61" t="n">
-        <v>12534.538</v>
+        <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>1.929133333333333</v>
+        <v>-1549100.477741849</v>
       </c>
       <c r="H61" t="n">
-        <v>1.920066666666666</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2736,36 +2549,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="C62" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="D62" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="E62" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="F62" t="n">
-        <v>2465.462</v>
+        <v>3000</v>
       </c>
       <c r="G62" t="n">
-        <v>1.928666666666666</v>
+        <v>-1549100.477741849</v>
       </c>
       <c r="H62" t="n">
-        <v>1.920566666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,36 +2584,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="C63" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="D63" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="E63" t="n">
-        <v>1.939</v>
+        <v>1.916</v>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>1847000</v>
       </c>
       <c r="G63" t="n">
-        <v>1.930133333333333</v>
+        <v>297899.5222581506</v>
       </c>
       <c r="H63" t="n">
-        <v>1.921066666666666</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2812,36 +2619,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="C64" t="n">
-        <v>1.939</v>
+        <v>1.947</v>
       </c>
       <c r="D64" t="n">
-        <v>1.939</v>
+        <v>1.947</v>
       </c>
       <c r="E64" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="F64" t="n">
-        <v>1019.9616</v>
+        <v>227421.264</v>
       </c>
       <c r="G64" t="n">
-        <v>1.930066666666666</v>
+        <v>525320.7862581506</v>
       </c>
       <c r="H64" t="n">
-        <v>1.921549999999999</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,36 +2654,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.937</v>
+        <v>1.947</v>
       </c>
       <c r="C65" t="n">
-        <v>1.911</v>
+        <v>1.947</v>
       </c>
       <c r="D65" t="n">
-        <v>1.937</v>
+        <v>1.947</v>
       </c>
       <c r="E65" t="n">
-        <v>1.911</v>
+        <v>1.947</v>
       </c>
       <c r="F65" t="n">
-        <v>2168383</v>
+        <v>4088.06</v>
       </c>
       <c r="G65" t="n">
-        <v>1.929733333333333</v>
+        <v>525320.7862581506</v>
       </c>
       <c r="H65" t="n">
-        <v>1.921566666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2888,36 +2689,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.937</v>
+        <v>1.946</v>
       </c>
       <c r="C66" t="n">
-        <v>1.937</v>
+        <v>1.946</v>
       </c>
       <c r="D66" t="n">
-        <v>1.937</v>
+        <v>1.946</v>
       </c>
       <c r="E66" t="n">
-        <v>1.911</v>
+        <v>1.946</v>
       </c>
       <c r="F66" t="n">
-        <v>3032193.76</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="n">
-        <v>1.929266666666666</v>
+        <v>524320.7862581506</v>
       </c>
       <c r="H66" t="n">
-        <v>1.922349999999999</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,36 +2724,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.936</v>
+        <v>1.93</v>
       </c>
       <c r="C67" t="n">
-        <v>1.912</v>
+        <v>1.916</v>
       </c>
       <c r="D67" t="n">
-        <v>1.936</v>
+        <v>1.93</v>
       </c>
       <c r="E67" t="n">
-        <v>1.912</v>
+        <v>1.916</v>
       </c>
       <c r="F67" t="n">
-        <v>2797823.88</v>
+        <v>523013.1707</v>
       </c>
       <c r="G67" t="n">
-        <v>1.9294</v>
+        <v>1307.615558150574</v>
       </c>
       <c r="H67" t="n">
-        <v>1.922566666666666</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,36 +2759,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.933</v>
+        <v>1.94</v>
       </c>
       <c r="C68" t="n">
-        <v>1.934</v>
+        <v>1.94</v>
       </c>
       <c r="D68" t="n">
-        <v>1.937</v>
+        <v>1.94</v>
       </c>
       <c r="E68" t="n">
-        <v>1.933</v>
+        <v>1.94</v>
       </c>
       <c r="F68" t="n">
-        <v>3128788.4965</v>
+        <v>5995.8625</v>
       </c>
       <c r="G68" t="n">
-        <v>1.929666666666666</v>
+        <v>7303.478058150574</v>
       </c>
       <c r="H68" t="n">
-        <v>1.923299999999999</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,36 +2794,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.938</v>
+        <v>1.94</v>
       </c>
       <c r="C69" t="n">
-        <v>1.939</v>
+        <v>1.946</v>
       </c>
       <c r="D69" t="n">
-        <v>1.939</v>
+        <v>1.946</v>
       </c>
       <c r="E69" t="n">
-        <v>1.911</v>
+        <v>1.94</v>
       </c>
       <c r="F69" t="n">
-        <v>1306800.8536</v>
+        <v>14379.3901</v>
       </c>
       <c r="G69" t="n">
-        <v>1.931533333333333</v>
+        <v>21682.86815815057</v>
       </c>
       <c r="H69" t="n">
-        <v>1.923749999999999</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,36 +2829,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.912</v>
+        <v>1.946</v>
       </c>
       <c r="C70" t="n">
-        <v>1.903</v>
+        <v>1.916</v>
       </c>
       <c r="D70" t="n">
-        <v>1.912</v>
+        <v>1.946</v>
       </c>
       <c r="E70" t="n">
-        <v>1.903</v>
+        <v>1.916</v>
       </c>
       <c r="F70" t="n">
-        <v>2181623.6165</v>
+        <v>1705.6006</v>
       </c>
       <c r="G70" t="n">
-        <v>1.928933333333333</v>
+        <v>19977.26755815057</v>
       </c>
       <c r="H70" t="n">
-        <v>1.923549999999999</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,36 +2864,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.929</v>
+        <v>1.946</v>
       </c>
       <c r="C71" t="n">
-        <v>1.929</v>
+        <v>1.946</v>
       </c>
       <c r="D71" t="n">
-        <v>1.929</v>
+        <v>1.946</v>
       </c>
       <c r="E71" t="n">
-        <v>1.929</v>
+        <v>1.946</v>
       </c>
       <c r="F71" t="n">
-        <v>260</v>
+        <v>44640.0824</v>
       </c>
       <c r="G71" t="n">
-        <v>1.930133333333333</v>
+        <v>64617.34995815057</v>
       </c>
       <c r="H71" t="n">
-        <v>1.924033333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3116,36 +2899,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.91</v>
+        <v>1.945</v>
       </c>
       <c r="C72" t="n">
-        <v>1.928</v>
+        <v>1.945</v>
       </c>
       <c r="D72" t="n">
-        <v>1.928</v>
+        <v>1.945</v>
       </c>
       <c r="E72" t="n">
-        <v>1.91</v>
+        <v>1.945</v>
       </c>
       <c r="F72" t="n">
-        <v>220262.26</v>
+        <v>600042.8235000001</v>
       </c>
       <c r="G72" t="n">
-        <v>1.929199999999999</v>
+        <v>-535425.4735418495</v>
       </c>
       <c r="H72" t="n">
-        <v>1.924666666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3154,36 +2934,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.904</v>
+        <v>1.945</v>
       </c>
       <c r="C73" t="n">
-        <v>1.904</v>
+        <v>1.945</v>
       </c>
       <c r="D73" t="n">
-        <v>1.904</v>
+        <v>1.945</v>
       </c>
       <c r="E73" t="n">
-        <v>1.904</v>
+        <v>1.945</v>
       </c>
       <c r="F73" t="n">
-        <v>422958</v>
+        <v>15261.8117</v>
       </c>
       <c r="G73" t="n">
-        <v>1.928733333333333</v>
+        <v>-535425.4735418495</v>
       </c>
       <c r="H73" t="n">
-        <v>1.924899999999999</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,36 +2969,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.929</v>
+        <v>1.946</v>
       </c>
       <c r="C74" t="n">
-        <v>1.929</v>
+        <v>1.946</v>
       </c>
       <c r="D74" t="n">
-        <v>1.929</v>
+        <v>1.946</v>
       </c>
       <c r="E74" t="n">
-        <v>1.929</v>
+        <v>1.946</v>
       </c>
       <c r="F74" t="n">
-        <v>261</v>
+        <v>21722.3379</v>
       </c>
       <c r="G74" t="n">
-        <v>1.928066666666666</v>
+        <v>-513703.1356418495</v>
       </c>
       <c r="H74" t="n">
-        <v>1.925216666666666</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,36 +3004,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C75" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D75" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E75" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F75" t="n">
-        <v>16102.3385</v>
+        <v>394.5768</v>
       </c>
       <c r="G75" t="n">
-        <v>1.926133333333332</v>
+        <v>-514097.7124418495</v>
       </c>
       <c r="H75" t="n">
-        <v>1.925549999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,36 +3039,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="C76" t="n">
-        <v>1.909</v>
+        <v>1.946</v>
       </c>
       <c r="D76" t="n">
-        <v>1.909</v>
+        <v>1.946</v>
       </c>
       <c r="E76" t="n">
-        <v>1.903</v>
+        <v>1.94</v>
       </c>
       <c r="F76" t="n">
-        <v>434314.9206</v>
+        <v>64517.9941</v>
       </c>
       <c r="G76" t="n">
-        <v>1.924133333333332</v>
+        <v>-449579.7183418495</v>
       </c>
       <c r="H76" t="n">
-        <v>1.925533333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3306,36 +3074,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.918</v>
+        <v>1.93</v>
       </c>
       <c r="C77" t="n">
-        <v>1.918</v>
+        <v>1.917</v>
       </c>
       <c r="D77" t="n">
-        <v>1.918</v>
+        <v>1.93</v>
       </c>
       <c r="E77" t="n">
-        <v>1.918</v>
+        <v>1.917</v>
       </c>
       <c r="F77" t="n">
-        <v>261</v>
+        <v>36393</v>
       </c>
       <c r="G77" t="n">
-        <v>1.922733333333332</v>
+        <v>-485972.7183418495</v>
       </c>
       <c r="H77" t="n">
-        <v>1.925666666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,36 +3109,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.918</v>
+        <v>1.94</v>
       </c>
       <c r="C78" t="n">
-        <v>1.919</v>
+        <v>1.94</v>
       </c>
       <c r="D78" t="n">
-        <v>1.919</v>
+        <v>1.94</v>
       </c>
       <c r="E78" t="n">
-        <v>1.918</v>
+        <v>1.94</v>
       </c>
       <c r="F78" t="n">
-        <v>158906.465</v>
+        <v>36392.2439</v>
       </c>
       <c r="G78" t="n">
-        <v>1.921399999999999</v>
+        <v>-449580.4744418495</v>
       </c>
       <c r="H78" t="n">
-        <v>1.925816666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,36 +3144,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="C79" t="n">
-        <v>1.92</v>
+        <v>1.916</v>
       </c>
       <c r="D79" t="n">
-        <v>1.92</v>
+        <v>1.918</v>
       </c>
       <c r="E79" t="n">
-        <v>1.92</v>
+        <v>1.916</v>
       </c>
       <c r="F79" t="n">
-        <v>261</v>
+        <v>1126310.995</v>
       </c>
       <c r="G79" t="n">
-        <v>1.920133333333332</v>
+        <v>-1575891.46944185</v>
       </c>
       <c r="H79" t="n">
-        <v>1.925983333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3420,36 +3179,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.92</v>
+        <v>1.944</v>
       </c>
       <c r="C80" t="n">
-        <v>1.92</v>
+        <v>1.944</v>
       </c>
       <c r="D80" t="n">
-        <v>1.92</v>
+        <v>1.944</v>
       </c>
       <c r="E80" t="n">
-        <v>1.92</v>
+        <v>1.944</v>
       </c>
       <c r="F80" t="n">
-        <v>1443.147</v>
+        <v>832.116</v>
       </c>
       <c r="G80" t="n">
-        <v>1.920733333333332</v>
+        <v>-1575059.35344185</v>
       </c>
       <c r="H80" t="n">
-        <v>1.92615</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,36 +3214,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="C81" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="D81" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="E81" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F81" t="n">
-        <v>17288.5452</v>
+        <v>520.8333</v>
       </c>
       <c r="G81" t="n">
-        <v>1.919599999999999</v>
+        <v>-1575580.18674185</v>
       </c>
       <c r="H81" t="n">
-        <v>1.926316666666666</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3496,36 +3249,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.919</v>
+        <v>1.93</v>
       </c>
       <c r="C82" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="D82" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="E82" t="n">
-        <v>1.919</v>
+        <v>1.93</v>
       </c>
       <c r="F82" t="n">
-        <v>1247774.759</v>
+        <v>520.8333</v>
       </c>
       <c r="G82" t="n">
-        <v>1.920133333333332</v>
+        <v>-1575059.35344185</v>
       </c>
       <c r="H82" t="n">
-        <v>1.926416666666666</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,36 +3284,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.92</v>
+        <v>1.911</v>
       </c>
       <c r="C83" t="n">
-        <v>1.925</v>
+        <v>1.911</v>
       </c>
       <c r="D83" t="n">
-        <v>1.925</v>
+        <v>1.911</v>
       </c>
       <c r="E83" t="n">
-        <v>1.92</v>
+        <v>1.911</v>
       </c>
       <c r="F83" t="n">
-        <v>9421.326999999999</v>
+        <v>557834</v>
       </c>
       <c r="G83" t="n">
-        <v>1.919533333333332</v>
+        <v>-2132893.35344185</v>
       </c>
       <c r="H83" t="n">
-        <v>1.9266</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3572,36 +3319,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.91</v>
+        <v>1.942</v>
       </c>
       <c r="C84" t="n">
-        <v>1.904</v>
+        <v>1.942</v>
       </c>
       <c r="D84" t="n">
-        <v>1.91</v>
+        <v>1.942</v>
       </c>
       <c r="E84" t="n">
-        <v>1.904</v>
+        <v>1.942</v>
       </c>
       <c r="F84" t="n">
-        <v>2367605.9262</v>
+        <v>258</v>
       </c>
       <c r="G84" t="n">
-        <v>1.917199999999999</v>
+        <v>-2132635.35344185</v>
       </c>
       <c r="H84" t="n">
-        <v>1.926416666666666</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,36 +3354,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.904</v>
+        <v>1.911</v>
       </c>
       <c r="C85" t="n">
-        <v>1.904</v>
+        <v>1.911</v>
       </c>
       <c r="D85" t="n">
-        <v>1.904</v>
+        <v>1.911</v>
       </c>
       <c r="E85" t="n">
-        <v>1.904</v>
+        <v>1.911</v>
       </c>
       <c r="F85" t="n">
-        <v>219725.631</v>
+        <v>558514</v>
       </c>
       <c r="G85" t="n">
-        <v>1.917266666666666</v>
+        <v>-2691149.35344185</v>
       </c>
       <c r="H85" t="n">
-        <v>1.926233333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,36 +3389,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.904</v>
+        <v>1.942</v>
       </c>
       <c r="C86" t="n">
-        <v>1.911</v>
+        <v>1.942</v>
       </c>
       <c r="D86" t="n">
-        <v>1.937</v>
+        <v>1.942</v>
       </c>
       <c r="E86" t="n">
-        <v>1.904</v>
+        <v>1.942</v>
       </c>
       <c r="F86" t="n">
-        <v>1592837.3037</v>
+        <v>1742</v>
       </c>
       <c r="G86" t="n">
-        <v>1.916066666666666</v>
+        <v>-2689407.35344185</v>
       </c>
       <c r="H86" t="n">
-        <v>1.926166666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,36 +3424,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.938</v>
+        <v>1.911</v>
       </c>
       <c r="C87" t="n">
-        <v>1.938</v>
+        <v>1.911</v>
       </c>
       <c r="D87" t="n">
-        <v>1.938</v>
+        <v>1.941</v>
       </c>
       <c r="E87" t="n">
-        <v>1.938</v>
+        <v>1.911</v>
       </c>
       <c r="F87" t="n">
-        <v>10000</v>
+        <v>2170168.88</v>
       </c>
       <c r="G87" t="n">
-        <v>1.916733333333333</v>
+        <v>-4859576.23344185</v>
       </c>
       <c r="H87" t="n">
-        <v>1.926533333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,36 +3459,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.938</v>
+        <v>1.939</v>
       </c>
       <c r="C88" t="n">
-        <v>1.938</v>
+        <v>1.939</v>
       </c>
       <c r="D88" t="n">
-        <v>1.938</v>
+        <v>1.939</v>
       </c>
       <c r="E88" t="n">
-        <v>1.938</v>
+        <v>1.939</v>
       </c>
       <c r="F88" t="n">
-        <v>670684.8976</v>
+        <v>441.7611</v>
       </c>
       <c r="G88" t="n">
-        <v>1.918999999999999</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H88" t="n">
-        <v>1.926899999999999</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3762,36 +3494,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.918</v>
+        <v>1.939</v>
       </c>
       <c r="C89" t="n">
-        <v>1.911</v>
+        <v>1.939</v>
       </c>
       <c r="D89" t="n">
-        <v>1.936</v>
+        <v>1.939</v>
       </c>
       <c r="E89" t="n">
-        <v>1.911</v>
+        <v>1.939</v>
       </c>
       <c r="F89" t="n">
-        <v>916327.7825</v>
+        <v>558.2388999999999</v>
       </c>
       <c r="G89" t="n">
-        <v>1.917799999999999</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H89" t="n">
-        <v>1.926816666666666</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,36 +3529,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.936</v>
+        <v>1.939</v>
       </c>
       <c r="C90" t="n">
-        <v>1.911</v>
+        <v>1.939</v>
       </c>
       <c r="D90" t="n">
-        <v>1.937</v>
+        <v>1.939</v>
       </c>
       <c r="E90" t="n">
-        <v>1.911</v>
+        <v>1.939</v>
       </c>
       <c r="F90" t="n">
-        <v>1329255.88</v>
+        <v>12534.538</v>
       </c>
       <c r="G90" t="n">
-        <v>1.917866666666666</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H90" t="n">
-        <v>1.926833333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,36 +3564,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.936</v>
+        <v>1.939</v>
       </c>
       <c r="C91" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="D91" t="n">
-        <v>1.936</v>
+        <v>1.939</v>
       </c>
       <c r="E91" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="F91" t="n">
-        <v>793869.0592</v>
+        <v>2465.462</v>
       </c>
       <c r="G91" t="n">
-        <v>1.917933333333333</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H91" t="n">
-        <v>1.926833333333333</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3876,36 +3599,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.936</v>
+        <v>1.939</v>
       </c>
       <c r="C92" t="n">
-        <v>1.905</v>
+        <v>1.939</v>
       </c>
       <c r="D92" t="n">
-        <v>1.936</v>
+        <v>1.939</v>
       </c>
       <c r="E92" t="n">
-        <v>1.905</v>
+        <v>1.939</v>
       </c>
       <c r="F92" t="n">
-        <v>818129</v>
+        <v>2000</v>
       </c>
       <c r="G92" t="n">
-        <v>1.917066666666666</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H92" t="n">
-        <v>1.92665</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,36 +3634,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.905</v>
+        <v>1.939</v>
       </c>
       <c r="C93" t="n">
-        <v>1.937</v>
+        <v>1.939</v>
       </c>
       <c r="D93" t="n">
-        <v>1.937</v>
+        <v>1.939</v>
       </c>
       <c r="E93" t="n">
-        <v>1.905</v>
+        <v>1.939</v>
       </c>
       <c r="F93" t="n">
-        <v>71759.745</v>
+        <v>1019.9616</v>
       </c>
       <c r="G93" t="n">
-        <v>1.918266666666666</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H93" t="n">
-        <v>1.927</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,36 +3669,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.932</v>
+        <v>1.937</v>
       </c>
       <c r="C94" t="n">
-        <v>1.905</v>
+        <v>1.911</v>
       </c>
       <c r="D94" t="n">
-        <v>1.932</v>
+        <v>1.937</v>
       </c>
       <c r="E94" t="n">
-        <v>1.905</v>
+        <v>1.911</v>
       </c>
       <c r="F94" t="n">
-        <v>640733</v>
+        <v>2168383</v>
       </c>
       <c r="G94" t="n">
-        <v>1.917266666666666</v>
+        <v>-7027517.47234185</v>
       </c>
       <c r="H94" t="n">
-        <v>1.926416666666666</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,36 +3704,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.932</v>
+        <v>1.937</v>
       </c>
       <c r="C95" t="n">
-        <v>1.905</v>
+        <v>1.937</v>
       </c>
       <c r="D95" t="n">
-        <v>1.932</v>
+        <v>1.937</v>
       </c>
       <c r="E95" t="n">
-        <v>1.905</v>
+        <v>1.911</v>
       </c>
       <c r="F95" t="n">
-        <v>643497</v>
+        <v>3032193.76</v>
       </c>
       <c r="G95" t="n">
-        <v>1.916266666666666</v>
+        <v>-3995323.712341851</v>
       </c>
       <c r="H95" t="n">
-        <v>1.925716666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4028,36 +3739,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.919</v>
+        <v>1.936</v>
       </c>
       <c r="C96" t="n">
-        <v>1.905</v>
+        <v>1.912</v>
       </c>
       <c r="D96" t="n">
-        <v>1.932</v>
+        <v>1.936</v>
       </c>
       <c r="E96" t="n">
-        <v>1.905</v>
+        <v>1.912</v>
       </c>
       <c r="F96" t="n">
-        <v>681857.88</v>
+        <v>2797823.88</v>
       </c>
       <c r="G96" t="n">
-        <v>1.915266666666666</v>
+        <v>-6793147.592341851</v>
       </c>
       <c r="H96" t="n">
-        <v>1.925016666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,36 +3774,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.934</v>
+        <v>1.933</v>
       </c>
       <c r="C97" t="n">
         <v>1.934</v>
       </c>
       <c r="D97" t="n">
-        <v>1.934</v>
+        <v>1.937</v>
       </c>
       <c r="E97" t="n">
-        <v>1.934</v>
+        <v>1.933</v>
       </c>
       <c r="F97" t="n">
-        <v>259</v>
+        <v>3128788.4965</v>
       </c>
       <c r="G97" t="n">
-        <v>1.9162</v>
+        <v>-3664359.095841851</v>
       </c>
       <c r="H97" t="n">
-        <v>1.924816666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,36 +3809,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.934</v>
+        <v>1.938</v>
       </c>
       <c r="C98" t="n">
-        <v>1.935</v>
+        <v>1.939</v>
       </c>
       <c r="D98" t="n">
-        <v>1.935</v>
+        <v>1.939</v>
       </c>
       <c r="E98" t="n">
-        <v>1.934</v>
+        <v>1.911</v>
       </c>
       <c r="F98" t="n">
-        <v>10241</v>
+        <v>1306800.8536</v>
       </c>
       <c r="G98" t="n">
-        <v>1.916866666666666</v>
+        <v>-2357558.242241851</v>
       </c>
       <c r="H98" t="n">
-        <v>1.925133333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,36 +3844,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.933</v>
+        <v>1.912</v>
       </c>
       <c r="C99" t="n">
-        <v>1.905</v>
+        <v>1.903</v>
       </c>
       <c r="D99" t="n">
-        <v>1.933</v>
+        <v>1.912</v>
       </c>
       <c r="E99" t="n">
-        <v>1.905</v>
+        <v>1.903</v>
       </c>
       <c r="F99" t="n">
-        <v>803989</v>
+        <v>2181623.6165</v>
       </c>
       <c r="G99" t="n">
-        <v>1.916933333333333</v>
+        <v>-4539181.858741851</v>
       </c>
       <c r="H99" t="n">
-        <v>1.92455</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,36 +3879,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.904</v>
+        <v>1.929</v>
       </c>
       <c r="C100" t="n">
-        <v>1.904</v>
+        <v>1.929</v>
       </c>
       <c r="D100" t="n">
-        <v>1.904</v>
+        <v>1.929</v>
       </c>
       <c r="E100" t="n">
-        <v>1.904</v>
+        <v>1.929</v>
       </c>
       <c r="F100" t="n">
-        <v>12168.6776</v>
+        <v>260</v>
       </c>
       <c r="G100" t="n">
-        <v>1.916933333333333</v>
+        <v>-4538921.858741851</v>
       </c>
       <c r="H100" t="n">
-        <v>1.92385</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4218,36 +3914,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.935</v>
+        <v>1.91</v>
       </c>
       <c r="C101" t="n">
-        <v>1.935</v>
+        <v>1.928</v>
       </c>
       <c r="D101" t="n">
-        <v>1.935</v>
+        <v>1.928</v>
       </c>
       <c r="E101" t="n">
-        <v>1.935</v>
+        <v>1.91</v>
       </c>
       <c r="F101" t="n">
-        <v>372.0466</v>
+        <v>220262.26</v>
       </c>
       <c r="G101" t="n">
-        <v>1.918533333333333</v>
+        <v>-4759184.11874185</v>
       </c>
       <c r="H101" t="n">
-        <v>1.924166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4256,36 +3949,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.933</v>
+        <v>1.904</v>
       </c>
       <c r="C102" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="D102" t="n">
-        <v>1.933</v>
+        <v>1.904</v>
       </c>
       <c r="E102" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="F102" t="n">
-        <v>755613</v>
+        <v>422958</v>
       </c>
       <c r="G102" t="n">
-        <v>1.916333333333333</v>
+        <v>-5182142.11874185</v>
       </c>
       <c r="H102" t="n">
-        <v>1.923483333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4294,36 +3984,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.935</v>
+        <v>1.929</v>
       </c>
       <c r="C103" t="n">
-        <v>1.935</v>
+        <v>1.929</v>
       </c>
       <c r="D103" t="n">
-        <v>1.935</v>
+        <v>1.929</v>
       </c>
       <c r="E103" t="n">
-        <v>1.935</v>
+        <v>1.929</v>
       </c>
       <c r="F103" t="n">
-        <v>170287.6994</v>
+        <v>261</v>
       </c>
       <c r="G103" t="n">
-        <v>1.916133333333333</v>
+        <v>-5181881.11874185</v>
       </c>
       <c r="H103" t="n">
-        <v>1.923316666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,36 +4019,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.935</v>
+        <v>1.91</v>
       </c>
       <c r="C104" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="D104" t="n">
-        <v>1.935</v>
+        <v>1.91</v>
       </c>
       <c r="E104" t="n">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="F104" t="n">
-        <v>768410.79</v>
+        <v>16102.3385</v>
       </c>
       <c r="G104" t="n">
-        <v>1.915866666666666</v>
+        <v>-5197983.45724185</v>
       </c>
       <c r="H104" t="n">
-        <v>1.922683333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4370,36 +4054,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.936</v>
+        <v>1.903</v>
       </c>
       <c r="C105" t="n">
-        <v>1.908</v>
+        <v>1.909</v>
       </c>
       <c r="D105" t="n">
-        <v>1.937</v>
+        <v>1.909</v>
       </c>
       <c r="E105" t="n">
-        <v>1.908</v>
+        <v>1.903</v>
       </c>
       <c r="F105" t="n">
-        <v>1287767.88</v>
+        <v>434314.9206</v>
       </c>
       <c r="G105" t="n">
-        <v>1.915666666666666</v>
+        <v>-5632298.37784185</v>
       </c>
       <c r="H105" t="n">
-        <v>1.92205</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,36 +4089,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.936</v>
+        <v>1.918</v>
       </c>
       <c r="C106" t="n">
-        <v>1.909</v>
+        <v>1.918</v>
       </c>
       <c r="D106" t="n">
-        <v>1.937</v>
+        <v>1.918</v>
       </c>
       <c r="E106" t="n">
-        <v>1.909</v>
+        <v>1.918</v>
       </c>
       <c r="F106" t="n">
-        <v>1492976.88</v>
+        <v>261</v>
       </c>
       <c r="G106" t="n">
-        <v>1.915599999999999</v>
+        <v>-5632037.37784185</v>
       </c>
       <c r="H106" t="n">
-        <v>1.9217</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4446,36 +4124,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.938</v>
+        <v>1.918</v>
       </c>
       <c r="C107" t="n">
-        <v>1.938</v>
+        <v>1.919</v>
       </c>
       <c r="D107" t="n">
-        <v>1.938</v>
+        <v>1.919</v>
       </c>
       <c r="E107" t="n">
-        <v>1.938</v>
+        <v>1.918</v>
       </c>
       <c r="F107" t="n">
-        <v>342.333</v>
+        <v>158906.465</v>
       </c>
       <c r="G107" t="n">
-        <v>1.917799999999999</v>
+        <v>-5473130.91284185</v>
       </c>
       <c r="H107" t="n">
-        <v>1.921566666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4484,36 +4159,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.936</v>
+        <v>1.92</v>
       </c>
       <c r="C108" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="D108" t="n">
-        <v>1.936</v>
+        <v>1.92</v>
       </c>
       <c r="E108" t="n">
-        <v>1.908</v>
+        <v>1.92</v>
       </c>
       <c r="F108" t="n">
-        <v>609818</v>
+        <v>261</v>
       </c>
       <c r="G108" t="n">
-        <v>1.915866666666666</v>
+        <v>-5472869.91284185</v>
       </c>
       <c r="H108" t="n">
-        <v>1.921416666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4522,36 +4194,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.938</v>
+        <v>1.92</v>
       </c>
       <c r="C109" t="n">
-        <v>1.938</v>
+        <v>1.92</v>
       </c>
       <c r="D109" t="n">
-        <v>1.938</v>
+        <v>1.92</v>
       </c>
       <c r="E109" t="n">
-        <v>1.938</v>
+        <v>1.92</v>
       </c>
       <c r="F109" t="n">
-        <v>308.0997</v>
+        <v>1443.147</v>
       </c>
       <c r="G109" t="n">
-        <v>1.918066666666666</v>
+        <v>-5472869.91284185</v>
       </c>
       <c r="H109" t="n">
-        <v>1.921383333333334</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,36 +4229,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.936</v>
+        <v>1.92</v>
       </c>
       <c r="C110" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="D110" t="n">
-        <v>1.936</v>
+        <v>1.92</v>
       </c>
       <c r="E110" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="F110" t="n">
-        <v>789202</v>
+        <v>17288.5452</v>
       </c>
       <c r="G110" t="n">
-        <v>1.918133333333332</v>
+        <v>-5472869.91284185</v>
       </c>
       <c r="H110" t="n">
-        <v>1.921216666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,36 +4264,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.906</v>
+        <v>1.919</v>
       </c>
       <c r="C111" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="D111" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="E111" t="n">
-        <v>1.906</v>
+        <v>1.919</v>
       </c>
       <c r="F111" t="n">
-        <v>106088.99</v>
+        <v>1247774.759</v>
       </c>
       <c r="G111" t="n">
-        <v>1.918199999999999</v>
+        <v>-5472869.91284185</v>
       </c>
       <c r="H111" t="n">
-        <v>1.920583333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4636,36 +4299,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="C112" t="n">
-        <v>1.935</v>
+        <v>1.925</v>
       </c>
       <c r="D112" t="n">
-        <v>1.935</v>
+        <v>1.925</v>
       </c>
       <c r="E112" t="n">
-        <v>1.906</v>
+        <v>1.92</v>
       </c>
       <c r="F112" t="n">
-        <v>260</v>
+        <v>9421.326999999999</v>
       </c>
       <c r="G112" t="n">
-        <v>1.918266666666665</v>
+        <v>-5463448.58584185</v>
       </c>
       <c r="H112" t="n">
-        <v>1.921</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,36 +4334,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.933</v>
+        <v>1.91</v>
       </c>
       <c r="C113" t="n">
-        <v>1.906</v>
+        <v>1.904</v>
       </c>
       <c r="D113" t="n">
-        <v>1.936</v>
+        <v>1.91</v>
       </c>
       <c r="E113" t="n">
-        <v>1.906</v>
+        <v>1.904</v>
       </c>
       <c r="F113" t="n">
-        <v>1358824.88</v>
+        <v>2367605.9262</v>
       </c>
       <c r="G113" t="n">
-        <v>1.916333333333332</v>
+        <v>-7831054.51204185</v>
       </c>
       <c r="H113" t="n">
-        <v>1.920600000000001</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4712,36 +4369,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="C114" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="D114" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="E114" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="F114" t="n">
-        <v>1572.1733</v>
+        <v>219725.631</v>
       </c>
       <c r="G114" t="n">
-        <v>1.916666666666665</v>
+        <v>-7831054.51204185</v>
       </c>
       <c r="H114" t="n">
-        <v>1.920583333333334</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,36 +4404,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="C115" t="n">
-        <v>1.905</v>
+        <v>1.911</v>
       </c>
       <c r="D115" t="n">
         <v>1.937</v>
       </c>
       <c r="E115" t="n">
-        <v>1.905</v>
+        <v>1.904</v>
       </c>
       <c r="F115" t="n">
-        <v>815147.8277</v>
+        <v>1592837.3037</v>
       </c>
       <c r="G115" t="n">
-        <v>1.916733333333332</v>
+        <v>-6238217.20834185</v>
       </c>
       <c r="H115" t="n">
-        <v>1.919966666666667</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,36 +4439,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.927</v>
+        <v>1.938</v>
       </c>
       <c r="C116" t="n">
-        <v>1.907</v>
+        <v>1.938</v>
       </c>
       <c r="D116" t="n">
-        <v>1.927</v>
+        <v>1.938</v>
       </c>
       <c r="E116" t="n">
-        <v>1.907</v>
+        <v>1.938</v>
       </c>
       <c r="F116" t="n">
-        <v>685778</v>
+        <v>10000</v>
       </c>
       <c r="G116" t="n">
-        <v>1.914866666666665</v>
+        <v>-6228217.20834185</v>
       </c>
       <c r="H116" t="n">
-        <v>1.919900000000001</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,36 +4474,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.906</v>
+        <v>1.938</v>
       </c>
       <c r="C117" t="n">
-        <v>1.88</v>
+        <v>1.938</v>
       </c>
       <c r="D117" t="n">
-        <v>1.906</v>
+        <v>1.938</v>
       </c>
       <c r="E117" t="n">
-        <v>1.88</v>
+        <v>1.938</v>
       </c>
       <c r="F117" t="n">
-        <v>2001985.9447</v>
+        <v>670684.8976</v>
       </c>
       <c r="G117" t="n">
-        <v>1.913199999999999</v>
+        <v>-6228217.20834185</v>
       </c>
       <c r="H117" t="n">
-        <v>1.918866666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,36 +4509,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.926</v>
+        <v>1.918</v>
       </c>
       <c r="C118" t="n">
-        <v>1.89</v>
+        <v>1.911</v>
       </c>
       <c r="D118" t="n">
-        <v>1.926</v>
+        <v>1.936</v>
       </c>
       <c r="E118" t="n">
-        <v>1.89</v>
+        <v>1.911</v>
       </c>
       <c r="F118" t="n">
-        <v>10092.2402</v>
+        <v>916327.7825</v>
       </c>
       <c r="G118" t="n">
-        <v>1.910199999999999</v>
+        <v>-7144544.99084185</v>
       </c>
       <c r="H118" t="n">
-        <v>1.918516666666667</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,36 +4544,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.88</v>
+        <v>1.936</v>
       </c>
       <c r="C119" t="n">
-        <v>1.862</v>
+        <v>1.911</v>
       </c>
       <c r="D119" t="n">
-        <v>1.88</v>
+        <v>1.937</v>
       </c>
       <c r="E119" t="n">
-        <v>1.862</v>
+        <v>1.911</v>
       </c>
       <c r="F119" t="n">
-        <v>2752827.1952</v>
+        <v>1329255.88</v>
       </c>
       <c r="G119" t="n">
-        <v>1.907199999999999</v>
+        <v>-7144544.99084185</v>
       </c>
       <c r="H119" t="n">
-        <v>1.917233333333334</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4940,36 +4579,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.863</v>
+        <v>1.936</v>
       </c>
       <c r="C120" t="n">
-        <v>1.862</v>
+        <v>1.91</v>
       </c>
       <c r="D120" t="n">
-        <v>1.863</v>
+        <v>1.936</v>
       </c>
       <c r="E120" t="n">
-        <v>1.862</v>
+        <v>1.91</v>
       </c>
       <c r="F120" t="n">
-        <v>252381.4074</v>
+        <v>793869.0592</v>
       </c>
       <c r="G120" t="n">
-        <v>1.904133333333332</v>
+        <v>-7938414.05004185</v>
       </c>
       <c r="H120" t="n">
-        <v>1.91595</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,36 +4614,33 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.866</v>
+        <v>1.936</v>
       </c>
       <c r="C121" t="n">
-        <v>1.919</v>
+        <v>1.905</v>
       </c>
       <c r="D121" t="n">
-        <v>1.919</v>
+        <v>1.936</v>
       </c>
       <c r="E121" t="n">
-        <v>1.866</v>
+        <v>1.905</v>
       </c>
       <c r="F121" t="n">
-        <v>2261</v>
+        <v>818129</v>
       </c>
       <c r="G121" t="n">
-        <v>1.904799999999998</v>
+        <v>-8756543.050041851</v>
       </c>
       <c r="H121" t="n">
-        <v>1.915616666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,36 +4649,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.913</v>
+        <v>1.905</v>
       </c>
       <c r="C122" t="n">
-        <v>1.897</v>
+        <v>1.937</v>
       </c>
       <c r="D122" t="n">
-        <v>1.913</v>
+        <v>1.937</v>
       </c>
       <c r="E122" t="n">
-        <v>1.872</v>
+        <v>1.905</v>
       </c>
       <c r="F122" t="n">
-        <v>774227.88</v>
+        <v>71759.745</v>
       </c>
       <c r="G122" t="n">
-        <v>1.902066666666665</v>
+        <v>-8684783.305041851</v>
       </c>
       <c r="H122" t="n">
-        <v>1.914916666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5054,36 +4684,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.896</v>
+        <v>1.932</v>
       </c>
       <c r="C123" t="n">
-        <v>1.872</v>
+        <v>1.905</v>
       </c>
       <c r="D123" t="n">
-        <v>1.896</v>
+        <v>1.932</v>
       </c>
       <c r="E123" t="n">
-        <v>1.872</v>
+        <v>1.905</v>
       </c>
       <c r="F123" t="n">
-        <v>846979.932</v>
+        <v>640733</v>
       </c>
       <c r="G123" t="n">
-        <v>1.899666666666665</v>
+        <v>-9325516.305041851</v>
       </c>
       <c r="H123" t="n">
-        <v>1.9138</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,36 +4719,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.905</v>
+        <v>1.932</v>
       </c>
       <c r="C124" t="n">
         <v>1.905</v>
       </c>
       <c r="D124" t="n">
-        <v>1.905</v>
+        <v>1.932</v>
       </c>
       <c r="E124" t="n">
         <v>1.905</v>
       </c>
       <c r="F124" t="n">
-        <v>264</v>
+        <v>643497</v>
       </c>
       <c r="G124" t="n">
-        <v>1.897466666666665</v>
+        <v>-9325516.305041851</v>
       </c>
       <c r="H124" t="n">
-        <v>1.913233333333334</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,36 +4754,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.875</v>
+        <v>1.919</v>
       </c>
       <c r="C125" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="D125" t="n">
-        <v>1.875</v>
+        <v>1.932</v>
       </c>
       <c r="E125" t="n">
-        <v>1.875</v>
+        <v>1.905</v>
       </c>
       <c r="F125" t="n">
-        <v>1000</v>
+        <v>681857.88</v>
       </c>
       <c r="G125" t="n">
-        <v>1.895399999999999</v>
+        <v>-9325516.305041851</v>
       </c>
       <c r="H125" t="n">
-        <v>1.912633333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,36 +4789,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.875</v>
+        <v>1.934</v>
       </c>
       <c r="C126" t="n">
-        <v>1.889</v>
+        <v>1.934</v>
       </c>
       <c r="D126" t="n">
-        <v>1.889</v>
+        <v>1.934</v>
       </c>
       <c r="E126" t="n">
-        <v>1.875</v>
+        <v>1.934</v>
       </c>
       <c r="F126" t="n">
-        <v>1425.1196</v>
+        <v>259</v>
       </c>
       <c r="G126" t="n">
-        <v>1.894266666666665</v>
+        <v>-9325257.305041851</v>
       </c>
       <c r="H126" t="n">
-        <v>1.911833333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5206,36 +4824,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.889</v>
+        <v>1.934</v>
       </c>
       <c r="C127" t="n">
-        <v>1.889</v>
+        <v>1.935</v>
       </c>
       <c r="D127" t="n">
-        <v>1.889</v>
+        <v>1.935</v>
       </c>
       <c r="E127" t="n">
-        <v>1.889</v>
+        <v>1.934</v>
       </c>
       <c r="F127" t="n">
-        <v>444</v>
+        <v>10241</v>
       </c>
       <c r="G127" t="n">
-        <v>1.891199999999999</v>
+        <v>-9315016.305041851</v>
       </c>
       <c r="H127" t="n">
-        <v>1.91145</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5244,36 +4859,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.889</v>
+        <v>1.933</v>
       </c>
       <c r="C128" t="n">
-        <v>1.889</v>
+        <v>1.905</v>
       </c>
       <c r="D128" t="n">
-        <v>1.889</v>
+        <v>1.933</v>
       </c>
       <c r="E128" t="n">
-        <v>1.889</v>
+        <v>1.905</v>
       </c>
       <c r="F128" t="n">
-        <v>1332</v>
+        <v>803989</v>
       </c>
       <c r="G128" t="n">
-        <v>1.890066666666665</v>
+        <v>-10119005.30504185</v>
       </c>
       <c r="H128" t="n">
-        <v>1.9107</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,36 +4894,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.901</v>
+        <v>1.904</v>
       </c>
       <c r="C129" t="n">
-        <v>1.881</v>
+        <v>1.904</v>
       </c>
       <c r="D129" t="n">
-        <v>1.901</v>
+        <v>1.904</v>
       </c>
       <c r="E129" t="n">
-        <v>1.881</v>
+        <v>1.904</v>
       </c>
       <c r="F129" t="n">
-        <v>785784</v>
+        <v>12168.6776</v>
       </c>
       <c r="G129" t="n">
-        <v>1.888133333333332</v>
+        <v>-10131173.98264185</v>
       </c>
       <c r="H129" t="n">
-        <v>1.909733333333333</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5320,36 +4929,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.89</v>
+        <v>1.935</v>
       </c>
       <c r="C130" t="n">
-        <v>1.89</v>
+        <v>1.935</v>
       </c>
       <c r="D130" t="n">
-        <v>1.89</v>
+        <v>1.935</v>
       </c>
       <c r="E130" t="n">
-        <v>1.89</v>
+        <v>1.935</v>
       </c>
       <c r="F130" t="n">
-        <v>32036.3506</v>
+        <v>372.0466</v>
       </c>
       <c r="G130" t="n">
-        <v>1.887133333333332</v>
+        <v>-10130801.93604185</v>
       </c>
       <c r="H130" t="n">
-        <v>1.909516666666667</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,36 +4964,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.897</v>
+        <v>1.933</v>
       </c>
       <c r="C131" t="n">
-        <v>1.878</v>
+        <v>1.905</v>
       </c>
       <c r="D131" t="n">
-        <v>1.897</v>
+        <v>1.933</v>
       </c>
       <c r="E131" t="n">
-        <v>1.878</v>
+        <v>1.905</v>
       </c>
       <c r="F131" t="n">
-        <v>764683</v>
+        <v>755613</v>
       </c>
       <c r="G131" t="n">
-        <v>1.885199999999999</v>
+        <v>-10886414.93604185</v>
       </c>
       <c r="H131" t="n">
-        <v>1.908666666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5396,36 +4999,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.897</v>
+        <v>1.935</v>
       </c>
       <c r="C132" t="n">
-        <v>1.897</v>
+        <v>1.935</v>
       </c>
       <c r="D132" t="n">
-        <v>1.897</v>
+        <v>1.935</v>
       </c>
       <c r="E132" t="n">
-        <v>1.879</v>
+        <v>1.935</v>
       </c>
       <c r="F132" t="n">
-        <v>743699.88</v>
+        <v>170287.6994</v>
       </c>
       <c r="G132" t="n">
-        <v>1.886333333333332</v>
+        <v>-10716127.23664185</v>
       </c>
       <c r="H132" t="n">
-        <v>1.90815</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,36 +5034,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.899</v>
+        <v>1.935</v>
       </c>
       <c r="C133" t="n">
-        <v>1.899</v>
+        <v>1.907</v>
       </c>
       <c r="D133" t="n">
-        <v>1.899</v>
+        <v>1.935</v>
       </c>
       <c r="E133" t="n">
-        <v>1.899</v>
+        <v>1.907</v>
       </c>
       <c r="F133" t="n">
-        <v>264</v>
+        <v>768410.79</v>
       </c>
       <c r="G133" t="n">
-        <v>1.886933333333332</v>
+        <v>-11484538.02664185</v>
       </c>
       <c r="H133" t="n">
-        <v>1.908066666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,36 +5069,33 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.897</v>
+        <v>1.936</v>
       </c>
       <c r="C134" t="n">
-        <v>1.879</v>
+        <v>1.908</v>
       </c>
       <c r="D134" t="n">
-        <v>1.897</v>
+        <v>1.937</v>
       </c>
       <c r="E134" t="n">
-        <v>1.879</v>
+        <v>1.908</v>
       </c>
       <c r="F134" t="n">
-        <v>812937</v>
+        <v>1287767.88</v>
       </c>
       <c r="G134" t="n">
-        <v>1.888066666666666</v>
+        <v>-10196770.14664185</v>
       </c>
       <c r="H134" t="n">
-        <v>1.907233333333334</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5510,36 +5104,33 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.898</v>
+        <v>1.936</v>
       </c>
       <c r="C135" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="D135" t="n">
-        <v>1.898</v>
+        <v>1.937</v>
       </c>
       <c r="E135" t="n">
-        <v>1.898</v>
+        <v>1.909</v>
       </c>
       <c r="F135" t="n">
-        <v>264</v>
+        <v>1492976.88</v>
       </c>
       <c r="G135" t="n">
-        <v>1.890466666666666</v>
+        <v>-8703793.266641855</v>
       </c>
       <c r="H135" t="n">
-        <v>1.907033333333334</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,36 +5139,33 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.88</v>
+        <v>1.938</v>
       </c>
       <c r="C136" t="n">
-        <v>1.88</v>
+        <v>1.938</v>
       </c>
       <c r="D136" t="n">
-        <v>1.88</v>
+        <v>1.938</v>
       </c>
       <c r="E136" t="n">
-        <v>1.88</v>
+        <v>1.938</v>
       </c>
       <c r="F136" t="n">
-        <v>292</v>
+        <v>342.333</v>
       </c>
       <c r="G136" t="n">
-        <v>1.887866666666665</v>
+        <v>-8703450.933641855</v>
       </c>
       <c r="H136" t="n">
-        <v>1.90655</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5586,36 +5174,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.899</v>
+        <v>1.936</v>
       </c>
       <c r="C137" t="n">
-        <v>1.881</v>
+        <v>1.908</v>
       </c>
       <c r="D137" t="n">
-        <v>1.899</v>
+        <v>1.936</v>
       </c>
       <c r="E137" t="n">
-        <v>1.881</v>
+        <v>1.908</v>
       </c>
       <c r="F137" t="n">
-        <v>2281.1859</v>
+        <v>609818</v>
       </c>
       <c r="G137" t="n">
-        <v>1.886799999999999</v>
+        <v>-9313268.933641855</v>
       </c>
       <c r="H137" t="n">
-        <v>1.905933333333333</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5624,36 +5209,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.899</v>
+        <v>1.938</v>
       </c>
       <c r="C138" t="n">
-        <v>1.9</v>
+        <v>1.938</v>
       </c>
       <c r="D138" t="n">
-        <v>1.9</v>
+        <v>1.938</v>
       </c>
       <c r="E138" t="n">
-        <v>1.899</v>
+        <v>1.938</v>
       </c>
       <c r="F138" t="n">
-        <v>201185.737</v>
+        <v>308.0997</v>
       </c>
       <c r="G138" t="n">
-        <v>1.888666666666666</v>
+        <v>-9312960.833941855</v>
       </c>
       <c r="H138" t="n">
-        <v>1.905616666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,36 +5244,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.899</v>
+        <v>1.936</v>
       </c>
       <c r="C139" t="n">
-        <v>1.899</v>
+        <v>1.906</v>
       </c>
       <c r="D139" t="n">
-        <v>1.899</v>
+        <v>1.936</v>
       </c>
       <c r="E139" t="n">
-        <v>1.899</v>
+        <v>1.906</v>
       </c>
       <c r="F139" t="n">
-        <v>76969.03</v>
+        <v>789202</v>
       </c>
       <c r="G139" t="n">
-        <v>1.888266666666666</v>
+        <v>-10102162.83394185</v>
       </c>
       <c r="H139" t="n">
-        <v>1.905266666666667</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5700,36 +5279,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.9</v>
+        <v>1.906</v>
       </c>
       <c r="C140" t="n">
-        <v>1.9</v>
+        <v>1.906</v>
       </c>
       <c r="D140" t="n">
-        <v>1.9</v>
+        <v>1.906</v>
       </c>
       <c r="E140" t="n">
-        <v>1.9</v>
+        <v>1.906</v>
       </c>
       <c r="F140" t="n">
-        <v>20700.1304</v>
+        <v>106088.99</v>
       </c>
       <c r="G140" t="n">
-        <v>1.889933333333332</v>
+        <v>-10102162.83394185</v>
       </c>
       <c r="H140" t="n">
-        <v>1.904933333333333</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,36 +5314,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.902</v>
+        <v>1.906</v>
       </c>
       <c r="C141" t="n">
-        <v>1.882</v>
+        <v>1.935</v>
       </c>
       <c r="D141" t="n">
-        <v>1.902</v>
+        <v>1.935</v>
       </c>
       <c r="E141" t="n">
-        <v>1.882</v>
+        <v>1.906</v>
       </c>
       <c r="F141" t="n">
-        <v>670420</v>
+        <v>260</v>
       </c>
       <c r="G141" t="n">
-        <v>1.889466666666666</v>
+        <v>-10101902.83394185</v>
       </c>
       <c r="H141" t="n">
-        <v>1.9043</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5776,36 +5349,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.904</v>
+        <v>1.933</v>
       </c>
       <c r="C142" t="n">
-        <v>1.904</v>
+        <v>1.906</v>
       </c>
       <c r="D142" t="n">
-        <v>1.904</v>
+        <v>1.936</v>
       </c>
       <c r="E142" t="n">
-        <v>1.904</v>
+        <v>1.906</v>
       </c>
       <c r="F142" t="n">
-        <v>264</v>
+        <v>1358824.88</v>
       </c>
       <c r="G142" t="n">
-        <v>1.890466666666666</v>
+        <v>-11460727.71394185</v>
       </c>
       <c r="H142" t="n">
-        <v>1.904033333333333</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5814,36 +5384,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="C143" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="D143" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="E143" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="F143" t="n">
-        <v>538413.3944</v>
+        <v>1572.1733</v>
       </c>
       <c r="G143" t="n">
-        <v>1.891466666666666</v>
+        <v>-11459155.54064185</v>
       </c>
       <c r="H143" t="n">
-        <v>1.903683333333333</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5852,36 +5419,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.927</v>
+        <v>1.91</v>
       </c>
       <c r="C144" t="n">
-        <v>1.927</v>
+        <v>1.905</v>
       </c>
       <c r="D144" t="n">
-        <v>1.927</v>
+        <v>1.937</v>
       </c>
       <c r="E144" t="n">
-        <v>1.927</v>
+        <v>1.905</v>
       </c>
       <c r="F144" t="n">
-        <v>260</v>
+        <v>815147.8277</v>
       </c>
       <c r="G144" t="n">
-        <v>1.894533333333332</v>
+        <v>-12274303.36834185</v>
       </c>
       <c r="H144" t="n">
-        <v>1.904066666666667</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5890,36 +5454,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="C145" t="n">
-        <v>1.92</v>
+        <v>1.907</v>
       </c>
       <c r="D145" t="n">
-        <v>1.92</v>
+        <v>1.927</v>
       </c>
       <c r="E145" t="n">
-        <v>1.92</v>
+        <v>1.907</v>
       </c>
       <c r="F145" t="n">
-        <v>1100</v>
+        <v>685778</v>
       </c>
       <c r="G145" t="n">
-        <v>1.896533333333333</v>
+        <v>-11588525.36834185</v>
       </c>
       <c r="H145" t="n">
-        <v>1.904333333333334</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,36 +5489,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.927</v>
+        <v>1.906</v>
       </c>
       <c r="C146" t="n">
-        <v>1.911</v>
+        <v>1.88</v>
       </c>
       <c r="D146" t="n">
-        <v>1.937</v>
+        <v>1.906</v>
       </c>
       <c r="E146" t="n">
-        <v>1.911</v>
+        <v>1.88</v>
       </c>
       <c r="F146" t="n">
-        <v>721985</v>
+        <v>2001985.9447</v>
       </c>
       <c r="G146" t="n">
-        <v>1.898733333333332</v>
+        <v>-13590511.31304185</v>
       </c>
       <c r="H146" t="n">
-        <v>1.904333333333334</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5966,36 +5524,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.93</v>
+        <v>1.926</v>
       </c>
       <c r="C147" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="D147" t="n">
-        <v>1.93</v>
+        <v>1.926</v>
       </c>
       <c r="E147" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="F147" t="n">
-        <v>260</v>
+        <v>10092.2402</v>
       </c>
       <c r="G147" t="n">
-        <v>1.900933333333332</v>
+        <v>-13580419.07284185</v>
       </c>
       <c r="H147" t="n">
-        <v>1.9042</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6004,36 +5559,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.911</v>
+        <v>1.88</v>
       </c>
       <c r="C148" t="n">
-        <v>1.883</v>
+        <v>1.862</v>
       </c>
       <c r="D148" t="n">
-        <v>1.911</v>
+        <v>1.88</v>
       </c>
       <c r="E148" t="n">
-        <v>1.883</v>
+        <v>1.862</v>
       </c>
       <c r="F148" t="n">
-        <v>415433</v>
+        <v>2752827.1952</v>
       </c>
       <c r="G148" t="n">
-        <v>1.899866666666666</v>
+        <v>-16333246.26804185</v>
       </c>
       <c r="H148" t="n">
-        <v>1.903283333333334</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6042,36 +5594,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.89</v>
+        <v>1.863</v>
       </c>
       <c r="C149" t="n">
-        <v>1.883</v>
+        <v>1.862</v>
       </c>
       <c r="D149" t="n">
-        <v>1.89</v>
+        <v>1.863</v>
       </c>
       <c r="E149" t="n">
-        <v>1.883</v>
+        <v>1.862</v>
       </c>
       <c r="F149" t="n">
-        <v>36928</v>
+        <v>252381.4074</v>
       </c>
       <c r="G149" t="n">
-        <v>1.900133333333332</v>
+        <v>-16333246.26804185</v>
       </c>
       <c r="H149" t="n">
-        <v>1.902816666666667</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6080,36 +5629,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.886</v>
+        <v>1.866</v>
       </c>
       <c r="C150" t="n">
-        <v>1.886</v>
+        <v>1.919</v>
       </c>
       <c r="D150" t="n">
-        <v>1.886</v>
+        <v>1.919</v>
       </c>
       <c r="E150" t="n">
-        <v>1.886</v>
+        <v>1.866</v>
       </c>
       <c r="F150" t="n">
-        <v>265.1114</v>
+        <v>2261</v>
       </c>
       <c r="G150" t="n">
-        <v>1.899333333333332</v>
+        <v>-16330985.26804185</v>
       </c>
       <c r="H150" t="n">
-        <v>1.9024</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,36 +5664,33 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.886</v>
+        <v>1.913</v>
       </c>
       <c r="C151" t="n">
-        <v>1.886</v>
+        <v>1.897</v>
       </c>
       <c r="D151" t="n">
-        <v>1.886</v>
+        <v>1.913</v>
       </c>
       <c r="E151" t="n">
-        <v>1.886</v>
+        <v>1.872</v>
       </c>
       <c r="F151" t="n">
-        <v>0.8885999999999999</v>
+        <v>774227.88</v>
       </c>
       <c r="G151" t="n">
-        <v>1.899733333333332</v>
+        <v>-17105213.14804186</v>
       </c>
       <c r="H151" t="n">
-        <v>1.902</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,36 +5699,33 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.889</v>
+        <v>1.896</v>
       </c>
       <c r="C152" t="n">
-        <v>1.889</v>
+        <v>1.872</v>
       </c>
       <c r="D152" t="n">
-        <v>1.889</v>
+        <v>1.896</v>
       </c>
       <c r="E152" t="n">
-        <v>1.889</v>
+        <v>1.872</v>
       </c>
       <c r="F152" t="n">
-        <v>1078.8599</v>
+        <v>846979.932</v>
       </c>
       <c r="G152" t="n">
-        <v>1.900266666666666</v>
+        <v>-17952193.08004186</v>
       </c>
       <c r="H152" t="n">
-        <v>1.901733333333333</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6194,36 +5734,33 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.898</v>
+        <v>1.905</v>
       </c>
       <c r="C153" t="n">
-        <v>1.898</v>
+        <v>1.905</v>
       </c>
       <c r="D153" t="n">
-        <v>1.898</v>
+        <v>1.905</v>
       </c>
       <c r="E153" t="n">
-        <v>1.898</v>
+        <v>1.905</v>
       </c>
       <c r="F153" t="n">
-        <v>482.6056</v>
+        <v>264</v>
       </c>
       <c r="G153" t="n">
-        <v>1.900133333333332</v>
+        <v>-17951929.08004186</v>
       </c>
       <c r="H153" t="n">
-        <v>1.901083333333333</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6232,36 +5769,33 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="C154" t="n">
-        <v>1.919</v>
+        <v>1.875</v>
       </c>
       <c r="D154" t="n">
-        <v>1.919</v>
+        <v>1.875</v>
       </c>
       <c r="E154" t="n">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="F154" t="n">
-        <v>104265.8890890047</v>
+        <v>1000</v>
       </c>
       <c r="G154" t="n">
-        <v>1.901466666666666</v>
+        <v>-17952929.08004186</v>
       </c>
       <c r="H154" t="n">
-        <v>1.901316666666667</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6270,36 +5804,33 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.902</v>
+        <v>1.875</v>
       </c>
       <c r="C155" t="n">
-        <v>1.902</v>
+        <v>1.889</v>
       </c>
       <c r="D155" t="n">
-        <v>1.902</v>
+        <v>1.889</v>
       </c>
       <c r="E155" t="n">
-        <v>1.902</v>
+        <v>1.875</v>
       </c>
       <c r="F155" t="n">
-        <v>10058.45</v>
+        <v>1425.1196</v>
       </c>
       <c r="G155" t="n">
-        <v>1.901599999999999</v>
+        <v>-17951503.96044185</v>
       </c>
       <c r="H155" t="n">
-        <v>1.901266666666667</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6308,36 +5839,33 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.901</v>
+        <v>1.889</v>
       </c>
       <c r="C156" t="n">
-        <v>1.901</v>
+        <v>1.889</v>
       </c>
       <c r="D156" t="n">
-        <v>1.901</v>
+        <v>1.889</v>
       </c>
       <c r="E156" t="n">
-        <v>1.901</v>
+        <v>1.889</v>
       </c>
       <c r="F156" t="n">
-        <v>62088.5195</v>
+        <v>444</v>
       </c>
       <c r="G156" t="n">
-        <v>1.902866666666666</v>
+        <v>-17951503.96044185</v>
       </c>
       <c r="H156" t="n">
-        <v>1.9012</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,36 +5874,33 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.901</v>
+        <v>1.889</v>
       </c>
       <c r="C157" t="n">
-        <v>1.918</v>
+        <v>1.889</v>
       </c>
       <c r="D157" t="n">
-        <v>1.918</v>
+        <v>1.889</v>
       </c>
       <c r="E157" t="n">
-        <v>1.901</v>
+        <v>1.889</v>
       </c>
       <c r="F157" t="n">
-        <v>4868.882168925965</v>
+        <v>1332</v>
       </c>
       <c r="G157" t="n">
-        <v>1.903799999999999</v>
+        <v>-17951503.96044185</v>
       </c>
       <c r="H157" t="n">
-        <v>1.900933333333333</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,36 +5909,33 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.918</v>
+        <v>1.901</v>
       </c>
       <c r="C158" t="n">
-        <v>1.918</v>
+        <v>1.881</v>
       </c>
       <c r="D158" t="n">
-        <v>1.918</v>
+        <v>1.901</v>
       </c>
       <c r="E158" t="n">
-        <v>1.918</v>
+        <v>1.881</v>
       </c>
       <c r="F158" t="n">
-        <v>7131.117831074035</v>
+        <v>785784</v>
       </c>
       <c r="G158" t="n">
-        <v>1.904733333333332</v>
+        <v>-18737287.96044185</v>
       </c>
       <c r="H158" t="n">
-        <v>1.90065</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,36 +5944,37 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.918</v>
+        <v>1.89</v>
       </c>
       <c r="C159" t="n">
-        <v>1.918</v>
+        <v>1.89</v>
       </c>
       <c r="D159" t="n">
-        <v>1.918</v>
+        <v>1.89</v>
       </c>
       <c r="E159" t="n">
-        <v>1.918</v>
+        <v>1.89</v>
       </c>
       <c r="F159" t="n">
-        <v>2868.882168925964</v>
+        <v>32036.3506</v>
       </c>
       <c r="G159" t="n">
-        <v>1.904133333333332</v>
+        <v>-18705251.60984185</v>
       </c>
       <c r="H159" t="n">
-        <v>1.900866666666667</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+        <v>1.881</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1.881</v>
+      </c>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6460,36 +5983,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.902</v>
+        <v>1.897</v>
       </c>
       <c r="C160" t="n">
-        <v>1.902</v>
+        <v>1.878</v>
       </c>
       <c r="D160" t="n">
-        <v>1.902</v>
+        <v>1.897</v>
       </c>
       <c r="E160" t="n">
-        <v>1.902</v>
+        <v>1.878</v>
       </c>
       <c r="F160" t="n">
-        <v>17172.6467</v>
+        <v>764683</v>
       </c>
       <c r="G160" t="n">
-        <v>1.902933333333332</v>
+        <v>-19469934.60984185</v>
       </c>
       <c r="H160" t="n">
-        <v>1.900833333333334</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6498,36 +6024,39 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.901</v>
+        <v>1.897</v>
       </c>
       <c r="C161" t="n">
-        <v>1.901</v>
+        <v>1.897</v>
       </c>
       <c r="D161" t="n">
-        <v>1.901</v>
+        <v>1.897</v>
       </c>
       <c r="E161" t="n">
-        <v>1.901</v>
+        <v>1.879</v>
       </c>
       <c r="F161" t="n">
-        <v>117864.5724</v>
+        <v>743699.88</v>
       </c>
       <c r="G161" t="n">
-        <v>1.902266666666665</v>
+        <v>-18726234.72984185</v>
       </c>
       <c r="H161" t="n">
-        <v>1.900266666666667</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6536,36 +6065,39 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.89</v>
+        <v>1.899</v>
       </c>
       <c r="C162" t="n">
-        <v>1.916</v>
+        <v>1.899</v>
       </c>
       <c r="D162" t="n">
-        <v>1.916</v>
+        <v>1.899</v>
       </c>
       <c r="E162" t="n">
-        <v>1.887</v>
+        <v>1.899</v>
       </c>
       <c r="F162" t="n">
-        <v>833075.0921</v>
+        <v>264</v>
       </c>
       <c r="G162" t="n">
-        <v>1.901333333333332</v>
+        <v>-18725970.72984185</v>
       </c>
       <c r="H162" t="n">
-        <v>1.90045</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6574,36 +6106,41 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.916</v>
+        <v>1.897</v>
       </c>
       <c r="C163" t="n">
-        <v>1.916</v>
+        <v>1.879</v>
       </c>
       <c r="D163" t="n">
-        <v>1.916</v>
+        <v>1.897</v>
       </c>
       <c r="E163" t="n">
-        <v>1.916</v>
+        <v>1.879</v>
       </c>
       <c r="F163" t="n">
-        <v>1043.84133611691</v>
+        <v>812937</v>
       </c>
       <c r="G163" t="n">
-        <v>1.903533333333332</v>
+        <v>-19538907.72984185</v>
       </c>
       <c r="H163" t="n">
-        <v>1.900133333333333</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6612,36 +6149,39 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.89</v>
+        <v>1.898</v>
       </c>
       <c r="C164" t="n">
-        <v>1.89</v>
+        <v>1.898</v>
       </c>
       <c r="D164" t="n">
-        <v>1.89</v>
+        <v>1.898</v>
       </c>
       <c r="E164" t="n">
-        <v>1.89</v>
+        <v>1.898</v>
       </c>
       <c r="F164" t="n">
-        <v>35683.5244</v>
+        <v>264</v>
       </c>
       <c r="G164" t="n">
-        <v>1.903999999999999</v>
+        <v>-19538643.72984185</v>
       </c>
       <c r="H164" t="n">
-        <v>1.89985</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6650,36 +6190,39 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="C165" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="D165" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="E165" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F165" t="n">
-        <v>35683.5245</v>
+        <v>292</v>
       </c>
       <c r="G165" t="n">
-        <v>1.904266666666666</v>
+        <v>-19538935.72984185</v>
       </c>
       <c r="H165" t="n">
-        <v>1.89955</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="inlineStr"/>
-      <c r="N165" t="n">
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6688,36 +6231,39 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="C166" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="D166" t="n">
-        <v>1.9</v>
+        <v>1.899</v>
       </c>
       <c r="E166" t="n">
-        <v>1.9</v>
+        <v>1.881</v>
       </c>
       <c r="F166" t="n">
-        <v>798.7021999999999</v>
+        <v>2281.1859</v>
       </c>
       <c r="G166" t="n">
-        <v>1.905199999999999</v>
+        <v>-19536654.54394186</v>
       </c>
       <c r="H166" t="n">
-        <v>1.8994</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="inlineStr"/>
-      <c r="N166" t="n">
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6726,36 +6272,39 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="C167" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="D167" t="n">
-        <v>1.909</v>
+        <v>1.9</v>
       </c>
       <c r="E167" t="n">
-        <v>1.909</v>
+        <v>1.899</v>
       </c>
       <c r="F167" t="n">
-        <v>90029.527</v>
+        <v>201185.737</v>
       </c>
       <c r="G167" t="n">
-        <v>1.906533333333332</v>
+        <v>-19335468.80694186</v>
       </c>
       <c r="H167" t="n">
-        <v>1.898916666666667</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="inlineStr"/>
-      <c r="N167" t="n">
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,36 +6313,39 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="C168" t="n">
-        <v>1.917</v>
+        <v>1.899</v>
       </c>
       <c r="D168" t="n">
-        <v>1.917</v>
+        <v>1.899</v>
       </c>
       <c r="E168" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="F168" t="n">
-        <v>16041.4989</v>
+        <v>76969.03</v>
       </c>
       <c r="G168" t="n">
-        <v>1.907799999999999</v>
+        <v>-19412437.83694186</v>
       </c>
       <c r="H168" t="n">
-        <v>1.899066666666667</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="n">
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6802,36 +6354,39 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="C169" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="D169" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="E169" t="n">
-        <v>1.917</v>
+        <v>1.9</v>
       </c>
       <c r="F169" t="n">
-        <v>9739</v>
+        <v>20700.1304</v>
       </c>
       <c r="G169" t="n">
-        <v>1.907666666666666</v>
+        <v>-19391737.70654186</v>
       </c>
       <c r="H169" t="n">
-        <v>1.898716666666667</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="n">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6840,36 +6395,39 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.916</v>
+        <v>1.902</v>
       </c>
       <c r="C170" t="n">
-        <v>1.896</v>
+        <v>1.882</v>
       </c>
       <c r="D170" t="n">
-        <v>1.916</v>
+        <v>1.902</v>
       </c>
       <c r="E170" t="n">
-        <v>1.896</v>
+        <v>1.882</v>
       </c>
       <c r="F170" t="n">
-        <v>634545</v>
+        <v>670420</v>
       </c>
       <c r="G170" t="n">
-        <v>1.907266666666666</v>
+        <v>-20062157.70654186</v>
       </c>
       <c r="H170" t="n">
-        <v>1.89855</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="n">
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6878,36 +6436,39 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.895</v>
+        <v>1.904</v>
       </c>
       <c r="C171" t="n">
-        <v>1.895</v>
+        <v>1.904</v>
       </c>
       <c r="D171" t="n">
-        <v>1.895</v>
+        <v>1.904</v>
       </c>
       <c r="E171" t="n">
-        <v>1.895</v>
+        <v>1.904</v>
       </c>
       <c r="F171" t="n">
-        <v>10093.626</v>
+        <v>264</v>
       </c>
       <c r="G171" t="n">
-        <v>1.906866666666666</v>
+        <v>-20061893.70654186</v>
       </c>
       <c r="H171" t="n">
-        <v>1.898366666666667</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="n">
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6916,36 +6477,39 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.895</v>
+        <v>1.904</v>
       </c>
       <c r="C172" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="D172" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="E172" t="n">
-        <v>1.895</v>
+        <v>1.904</v>
       </c>
       <c r="F172" t="n">
-        <v>73263</v>
+        <v>538413.3944</v>
       </c>
       <c r="G172" t="n">
-        <v>1.906333333333333</v>
+        <v>-20061893.70654186</v>
       </c>
       <c r="H172" t="n">
-        <v>1.89795</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="n">
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6954,36 +6518,39 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="C173" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="D173" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="E173" t="n">
-        <v>1.91</v>
+        <v>1.927</v>
       </c>
       <c r="F173" t="n">
-        <v>15684.3381</v>
+        <v>260</v>
       </c>
       <c r="G173" t="n">
-        <v>1.905799999999999</v>
+        <v>-20061633.70654186</v>
       </c>
       <c r="H173" t="n">
-        <v>1.898016666666666</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="n">
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6992,36 +6559,39 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="C174" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="D174" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="E174" t="n">
-        <v>1.919</v>
+        <v>1.92</v>
       </c>
       <c r="F174" t="n">
-        <v>261</v>
+        <v>1100</v>
       </c>
       <c r="G174" t="n">
-        <v>1.905866666666666</v>
+        <v>-20062733.70654186</v>
       </c>
       <c r="H174" t="n">
-        <v>1.898166666666666</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="n">
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7030,36 +6600,39 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.919</v>
+        <v>1.927</v>
       </c>
       <c r="C175" t="n">
-        <v>1.919</v>
+        <v>1.911</v>
       </c>
       <c r="D175" t="n">
-        <v>1.919</v>
+        <v>1.937</v>
       </c>
       <c r="E175" t="n">
-        <v>1.919</v>
+        <v>1.911</v>
       </c>
       <c r="F175" t="n">
-        <v>32000</v>
+        <v>721985</v>
       </c>
       <c r="G175" t="n">
-        <v>1.906999999999999</v>
+        <v>-20784718.70654186</v>
       </c>
       <c r="H175" t="n">
-        <v>1.898399999999999</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="n">
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7068,36 +6641,39 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C176" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="D176" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E176" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="F176" t="n">
-        <v>52331.2264</v>
+        <v>260</v>
       </c>
       <c r="G176" t="n">
-        <v>1.906933333333332</v>
+        <v>-20784458.70654186</v>
       </c>
       <c r="H176" t="n">
-        <v>1.898283333333333</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="n">
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7106,36 +6682,39 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.89</v>
+        <v>1.911</v>
       </c>
       <c r="C177" t="n">
-        <v>1.901</v>
+        <v>1.883</v>
       </c>
       <c r="D177" t="n">
-        <v>1.917</v>
+        <v>1.911</v>
       </c>
       <c r="E177" t="n">
-        <v>1.89</v>
+        <v>1.883</v>
       </c>
       <c r="F177" t="n">
-        <v>918333.6217</v>
+        <v>415433</v>
       </c>
       <c r="G177" t="n">
-        <v>1.905933333333333</v>
+        <v>-21199891.70654186</v>
       </c>
       <c r="H177" t="n">
-        <v>1.898633333333333</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="n">
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7144,36 +6723,39 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1.918</v>
+        <v>1.89</v>
       </c>
       <c r="C178" t="n">
-        <v>1.919</v>
+        <v>1.883</v>
       </c>
       <c r="D178" t="n">
-        <v>1.919</v>
+        <v>1.89</v>
       </c>
       <c r="E178" t="n">
-        <v>1.918</v>
+        <v>1.883</v>
       </c>
       <c r="F178" t="n">
-        <v>1001</v>
+        <v>36928</v>
       </c>
       <c r="G178" t="n">
-        <v>1.906133333333333</v>
+        <v>-21199891.70654186</v>
       </c>
       <c r="H178" t="n">
-        <v>1.899116666666666</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="n">
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7182,36 +6764,39 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.918</v>
+        <v>1.886</v>
       </c>
       <c r="C179" t="n">
-        <v>1.919</v>
+        <v>1.886</v>
       </c>
       <c r="D179" t="n">
-        <v>1.919</v>
+        <v>1.886</v>
       </c>
       <c r="E179" t="n">
-        <v>1.918</v>
+        <v>1.886</v>
       </c>
       <c r="F179" t="n">
-        <v>2262</v>
+        <v>265.1114</v>
       </c>
       <c r="G179" t="n">
-        <v>1.908066666666666</v>
+        <v>-21199626.59514186</v>
       </c>
       <c r="H179" t="n">
-        <v>1.900066666666666</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>0</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="n">
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7220,36 +6805,39 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.919</v>
+        <v>1.886</v>
       </c>
       <c r="C180" t="n">
-        <v>1.919</v>
+        <v>1.886</v>
       </c>
       <c r="D180" t="n">
-        <v>1.919</v>
+        <v>1.886</v>
       </c>
       <c r="E180" t="n">
-        <v>1.919</v>
+        <v>1.886</v>
       </c>
       <c r="F180" t="n">
-        <v>522</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="G180" t="n">
-        <v>1.909999999999999</v>
+        <v>-21199626.59514186</v>
       </c>
       <c r="H180" t="n">
-        <v>1.901016666666666</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>0</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="n">
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7258,36 +6846,39 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.918</v>
+        <v>1.889</v>
       </c>
       <c r="C181" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="D181" t="n">
-        <v>1.918</v>
+        <v>1.889</v>
       </c>
       <c r="E181" t="n">
-        <v>1.89</v>
+        <v>1.889</v>
       </c>
       <c r="F181" t="n">
-        <v>748816.6997</v>
+        <v>1078.8599</v>
       </c>
       <c r="G181" t="n">
-        <v>1.909333333333333</v>
+        <v>-21198547.73524186</v>
       </c>
       <c r="H181" t="n">
-        <v>1.900533333333333</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>0</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="n">
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7296,36 +6887,39 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1.918</v>
+        <v>1.898</v>
       </c>
       <c r="C182" t="n">
-        <v>1.918</v>
+        <v>1.898</v>
       </c>
       <c r="D182" t="n">
-        <v>1.918</v>
+        <v>1.898</v>
       </c>
       <c r="E182" t="n">
-        <v>1.918</v>
+        <v>1.898</v>
       </c>
       <c r="F182" t="n">
-        <v>261</v>
+        <v>482.6056</v>
       </c>
       <c r="G182" t="n">
-        <v>1.909933333333333</v>
+        <v>-21198065.12964186</v>
       </c>
       <c r="H182" t="n">
-        <v>1.900883333333333</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="n">
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7334,36 +6928,1240 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F183" t="n">
+        <v>104265.8890890047</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-21093799.24055285</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
         <v>1.902</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C184" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F184" t="n">
+        <v>10058.45</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-21103857.69055285</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F185" t="n">
+        <v>62088.5195</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-21165946.21005285</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4868.882168925965</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-21161077.32788393</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E187" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F187" t="n">
+        <v>7131.117831074035</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-21161077.32788393</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2868.882168925964</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-21161077.32788393</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="F189" t="n">
+        <v>17172.6467</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-21178249.97458392</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="F190" t="n">
+        <v>117864.5724</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-21296114.54698392</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
         <v>1.89</v>
       </c>
-      <c r="D183" t="n">
+      <c r="C191" t="n">
         <v>1.916</v>
       </c>
-      <c r="E183" t="n">
+      <c r="D191" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.887</v>
+      </c>
+      <c r="F191" t="n">
+        <v>833075.0921</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-20463039.45488393</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E192" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1043.84133611691</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-20463039.45488393</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F193" t="n">
+        <v>35683.5244</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-20498722.97928393</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F194" t="n">
+        <v>35683.5245</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-20498722.97928393</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F195" t="n">
+        <v>798.7021999999999</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-20497924.27708393</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F196" t="n">
+        <v>90029.527</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-20407894.75008393</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F197" t="n">
+        <v>16041.4989</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-20391853.25118393</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="F198" t="n">
+        <v>9739</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-20391853.25118393</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="F199" t="n">
+        <v>634545</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-21026398.25118393</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F200" t="n">
+        <v>10093.626</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-21036491.87718393</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="F201" t="n">
+        <v>73263</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-20963228.87718393</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F202" t="n">
+        <v>15684.3381</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-20963228.87718393</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F203" t="n">
+        <v>261</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-20962967.87718393</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F204" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-20962967.87718393</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F205" t="n">
+        <v>52331.2264</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-21015299.10358392</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F206" t="n">
+        <v>918333.6217</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-20096965.48188392</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1001</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-20095964.48188392</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2262</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-20095964.48188392</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="F209" t="n">
+        <v>522</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-20095964.48188392</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F210" t="n">
+        <v>748816.6997</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-20844781.18158393</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="F211" t="n">
+        <v>261</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-20844520.18158393</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E212" t="n">
         <v>1.889</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F212" t="n">
         <v>1106242.7304</v>
       </c>
-      <c r="G183" t="n">
-        <v>1.908133333333333</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1.901183333333333</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="n">
+      <c r="G212" t="n">
+        <v>-21950762.91198393</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.861</v>
+        <v>1.891</v>
       </c>
       <c r="C2" t="n">
-        <v>1.861</v>
+        <v>1.89</v>
       </c>
       <c r="D2" t="n">
-        <v>1.861</v>
+        <v>1.891</v>
       </c>
       <c r="E2" t="n">
-        <v>1.861</v>
+        <v>1.89</v>
       </c>
       <c r="F2" t="n">
-        <v>27333.7515</v>
+        <v>370000</v>
       </c>
       <c r="G2" t="n">
-        <v>-5140034.643128891</v>
+        <v>-1613778.593441849</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,102 +467,111 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="C3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="D3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="E3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="F3" t="n">
-        <v>3832.2345</v>
+        <v>35288.2599</v>
       </c>
       <c r="G3" t="n">
-        <v>-5143866.877628891</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.89</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.889</v>
+        <v>1.91</v>
       </c>
       <c r="C4" t="n">
-        <v>1.889</v>
+        <v>1.91</v>
       </c>
       <c r="D4" t="n">
-        <v>1.889</v>
+        <v>1.91</v>
       </c>
       <c r="E4" t="n">
-        <v>1.889</v>
+        <v>1.91</v>
       </c>
       <c r="F4" t="n">
-        <v>64164.9452</v>
+        <v>261.7802</v>
       </c>
       <c r="G4" t="n">
-        <v>-5079701.932428891</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.86</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
+        <v>1.89</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.889</v>
+        <v>1.91</v>
       </c>
       <c r="C5" t="n">
-        <v>1.889</v>
+        <v>1.91</v>
       </c>
       <c r="D5" t="n">
-        <v>1.889</v>
+        <v>1.91</v>
       </c>
       <c r="E5" t="n">
-        <v>1.889</v>
+        <v>1.91</v>
       </c>
       <c r="F5" t="n">
-        <v>87269.3018</v>
+        <v>1000</v>
       </c>
       <c r="G5" t="n">
-        <v>-5079701.932428891</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,7 +581,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -577,28 +591,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="C6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="D6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="E6" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="F6" t="n">
-        <v>36944.6753</v>
+        <v>197.3581</v>
       </c>
       <c r="G6" t="n">
-        <v>-5042757.257128891</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,39 +622,34 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.884</v>
+        <v>1.91</v>
       </c>
       <c r="C7" t="n">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="D7" t="n">
-        <v>1.884</v>
+        <v>1.91</v>
       </c>
       <c r="E7" t="n">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="F7" t="n">
-        <v>25409.7662</v>
+        <v>64.4221</v>
       </c>
       <c r="G7" t="n">
-        <v>-5068167.023328891</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -653,28 +663,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="C8" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="D8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="E8" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="F8" t="n">
-        <v>30587.6398</v>
+        <v>535.5779</v>
       </c>
       <c r="G8" t="n">
-        <v>-5098754.663128891</v>
+        <v>-1578490.333541849</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -688,168 +699,197 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.861</v>
+        <v>1.914</v>
       </c>
       <c r="C9" t="n">
-        <v>1.86</v>
+        <v>1.914</v>
       </c>
       <c r="D9" t="n">
-        <v>1.861</v>
+        <v>1.914</v>
       </c>
       <c r="E9" t="n">
-        <v>1.86</v>
+        <v>1.914</v>
       </c>
       <c r="F9" t="n">
-        <v>651122.6642</v>
+        <v>262</v>
       </c>
       <c r="G9" t="n">
-        <v>-5098754.663128891</v>
+        <v>-1578228.333541849</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.86</v>
+        <v>1.914</v>
       </c>
       <c r="C10" t="n">
-        <v>1.855</v>
+        <v>1.914</v>
       </c>
       <c r="D10" t="n">
-        <v>1.86</v>
+        <v>1.914</v>
       </c>
       <c r="E10" t="n">
-        <v>1.855</v>
+        <v>1.914</v>
       </c>
       <c r="F10" t="n">
-        <v>2019707.7215</v>
+        <v>1167.7285</v>
       </c>
       <c r="G10" t="n">
-        <v>-7118462.384628891</v>
+        <v>-1578228.333541849</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.859</v>
+        <v>1.914</v>
       </c>
       <c r="C11" t="n">
-        <v>1.854</v>
+        <v>1.915</v>
       </c>
       <c r="D11" t="n">
-        <v>1.859</v>
+        <v>1.915</v>
       </c>
       <c r="E11" t="n">
-        <v>1.854</v>
+        <v>1.914</v>
       </c>
       <c r="F11" t="n">
-        <v>358961.8849</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="n">
-        <v>-7477424.269528891</v>
+        <v>-1568228.333541849</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.875</v>
+        <v>1.915</v>
       </c>
       <c r="C12" t="n">
-        <v>1.96</v>
+        <v>1.915</v>
       </c>
       <c r="D12" t="n">
-        <v>1.96</v>
+        <v>1.915</v>
       </c>
       <c r="E12" t="n">
-        <v>1.875</v>
+        <v>1.915</v>
       </c>
       <c r="F12" t="n">
-        <v>1539088.163287041</v>
+        <v>2483.8394</v>
       </c>
       <c r="G12" t="n">
-        <v>-5938336.10624185</v>
+        <v>-1568228.333541849</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.915</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.959</v>
+        <v>1.915</v>
       </c>
       <c r="C13" t="n">
-        <v>1.959</v>
+        <v>1.915</v>
       </c>
       <c r="D13" t="n">
-        <v>1.959</v>
+        <v>1.915</v>
       </c>
       <c r="E13" t="n">
-        <v>1.959</v>
+        <v>1.915</v>
       </c>
       <c r="F13" t="n">
-        <v>5104.6453</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="n">
-        <v>-5943440.75154185</v>
+        <v>-1568228.333541849</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,33 +898,40 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="C14" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="D14" t="n">
-        <v>1.91</v>
+        <v>1.916</v>
       </c>
       <c r="E14" t="n">
-        <v>1.91</v>
+        <v>1.915</v>
       </c>
       <c r="F14" t="n">
-        <v>213193.591</v>
+        <v>20875.2498</v>
       </c>
       <c r="G14" t="n">
-        <v>-6156634.34254185</v>
+        <v>-1547353.083741849</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -893,33 +940,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="C15" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="D15" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="E15" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="F15" t="n">
-        <v>771.5964</v>
+        <v>20000</v>
       </c>
       <c r="G15" t="n">
-        <v>-6157405.93894185</v>
+        <v>-1547353.083741849</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -928,33 +982,40 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.891</v>
+        <v>1.916</v>
       </c>
       <c r="C16" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="D16" t="n">
-        <v>1.891</v>
+        <v>1.916</v>
       </c>
       <c r="E16" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="F16" t="n">
-        <v>16873.0159</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="n">
-        <v>-6157405.93894185</v>
+        <v>-1547353.083741849</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -963,33 +1024,40 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="C17" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="D17" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="E17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="F17" t="n">
-        <v>241275.784</v>
+        <v>2747.394</v>
       </c>
       <c r="G17" t="n">
-        <v>-6157405.93894185</v>
+        <v>-1550100.477741849</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -998,138 +1066,172 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.883</v>
+        <v>1.91</v>
       </c>
       <c r="C18" t="n">
-        <v>1.882</v>
+        <v>1.91</v>
       </c>
       <c r="D18" t="n">
-        <v>1.883</v>
+        <v>1.91</v>
       </c>
       <c r="E18" t="n">
-        <v>1.882</v>
+        <v>1.91</v>
       </c>
       <c r="F18" t="n">
-        <v>117141.7062</v>
+        <v>2225.394</v>
       </c>
       <c r="G18" t="n">
-        <v>-6274547.64514185</v>
+        <v>-1550100.477741849</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.883</v>
+        <v>1.916</v>
       </c>
       <c r="C19" t="n">
-        <v>1.899</v>
+        <v>1.916</v>
       </c>
       <c r="D19" t="n">
-        <v>1.899</v>
+        <v>1.916</v>
       </c>
       <c r="E19" t="n">
-        <v>1.883</v>
+        <v>1.916</v>
       </c>
       <c r="F19" t="n">
-        <v>1529</v>
+        <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>-6273018.64514185</v>
+        <v>-1549100.477741849</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.883</v>
+        <v>1.916</v>
       </c>
       <c r="C20" t="n">
-        <v>1.88</v>
+        <v>1.916</v>
       </c>
       <c r="D20" t="n">
-        <v>1.883</v>
+        <v>1.916</v>
       </c>
       <c r="E20" t="n">
-        <v>1.88</v>
+        <v>1.916</v>
       </c>
       <c r="F20" t="n">
-        <v>183295.175</v>
+        <v>3000</v>
       </c>
       <c r="G20" t="n">
-        <v>-6456313.82014185</v>
+        <v>-1549100.477741849</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.881</v>
+        <v>1.916</v>
       </c>
       <c r="C21" t="n">
-        <v>1.885</v>
+        <v>1.94</v>
       </c>
       <c r="D21" t="n">
-        <v>1.885</v>
+        <v>1.94</v>
       </c>
       <c r="E21" t="n">
-        <v>1.881</v>
+        <v>1.916</v>
       </c>
       <c r="F21" t="n">
-        <v>185660.3815</v>
+        <v>1847000</v>
       </c>
       <c r="G21" t="n">
-        <v>-6270653.43864185</v>
+        <v>297899.5222581506</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1138,33 +1240,40 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.888</v>
+        <v>1.94</v>
       </c>
       <c r="C22" t="n">
-        <v>1.888</v>
+        <v>1.947</v>
       </c>
       <c r="D22" t="n">
-        <v>1.888</v>
+        <v>1.947</v>
       </c>
       <c r="E22" t="n">
-        <v>1.888</v>
+        <v>1.94</v>
       </c>
       <c r="F22" t="n">
-        <v>46135.4192</v>
+        <v>227421.264</v>
       </c>
       <c r="G22" t="n">
-        <v>-6224518.01944185</v>
+        <v>525320.7862581506</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1173,33 +1282,40 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.9</v>
+        <v>1.947</v>
       </c>
       <c r="C23" t="n">
-        <v>1.9</v>
+        <v>1.947</v>
       </c>
       <c r="D23" t="n">
-        <v>1.9</v>
+        <v>1.947</v>
       </c>
       <c r="E23" t="n">
-        <v>1.9</v>
+        <v>1.947</v>
       </c>
       <c r="F23" t="n">
-        <v>264</v>
+        <v>4088.06</v>
       </c>
       <c r="G23" t="n">
-        <v>-6224254.01944185</v>
+        <v>525320.7862581506</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1208,33 +1324,40 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.899</v>
+        <v>1.946</v>
       </c>
       <c r="C24" t="n">
-        <v>1.899</v>
+        <v>1.946</v>
       </c>
       <c r="D24" t="n">
-        <v>1.899</v>
+        <v>1.946</v>
       </c>
       <c r="E24" t="n">
-        <v>1.899</v>
+        <v>1.946</v>
       </c>
       <c r="F24" t="n">
-        <v>27202.0156</v>
+        <v>1000</v>
       </c>
       <c r="G24" t="n">
-        <v>-6251456.035041849</v>
+        <v>524320.7862581506</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1243,33 +1366,40 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="C25" t="n">
-        <v>1.88</v>
+        <v>1.916</v>
       </c>
       <c r="D25" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="E25" t="n">
-        <v>1.88</v>
+        <v>1.916</v>
       </c>
       <c r="F25" t="n">
-        <v>137114.5055</v>
+        <v>523013.1707</v>
       </c>
       <c r="G25" t="n">
-        <v>-6388570.540541849</v>
+        <v>1307.615558150574</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1278,33 +1408,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.891</v>
+        <v>1.94</v>
       </c>
       <c r="C26" t="n">
-        <v>1.891</v>
+        <v>1.94</v>
       </c>
       <c r="D26" t="n">
-        <v>1.891</v>
+        <v>1.94</v>
       </c>
       <c r="E26" t="n">
-        <v>1.891</v>
+        <v>1.94</v>
       </c>
       <c r="F26" t="n">
-        <v>1001789.2431</v>
+        <v>5995.8625</v>
       </c>
       <c r="G26" t="n">
-        <v>-5386781.297441849</v>
+        <v>7303.478058150574</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1313,33 +1450,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.891</v>
+        <v>1.94</v>
       </c>
       <c r="C27" t="n">
-        <v>1.89</v>
+        <v>1.946</v>
       </c>
       <c r="D27" t="n">
-        <v>1.891</v>
+        <v>1.946</v>
       </c>
       <c r="E27" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="F27" t="n">
-        <v>52560</v>
+        <v>14379.3901</v>
       </c>
       <c r="G27" t="n">
-        <v>-5439341.297441849</v>
+        <v>21682.86815815057</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1348,33 +1492,40 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.9</v>
+        <v>1.946</v>
       </c>
       <c r="C28" t="n">
-        <v>1.9</v>
+        <v>1.916</v>
       </c>
       <c r="D28" t="n">
-        <v>1.9</v>
+        <v>1.946</v>
       </c>
       <c r="E28" t="n">
-        <v>1.9</v>
+        <v>1.916</v>
       </c>
       <c r="F28" t="n">
-        <v>10911.3334</v>
+        <v>1705.6006</v>
       </c>
       <c r="G28" t="n">
-        <v>-5428429.96404185</v>
+        <v>19977.26755815057</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1383,33 +1534,40 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.9</v>
+        <v>1.946</v>
       </c>
       <c r="C29" t="n">
-        <v>1.9</v>
+        <v>1.946</v>
       </c>
       <c r="D29" t="n">
-        <v>1.9</v>
+        <v>1.946</v>
       </c>
       <c r="E29" t="n">
-        <v>1.9</v>
+        <v>1.946</v>
       </c>
       <c r="F29" t="n">
-        <v>1930.1546</v>
+        <v>44640.0824</v>
       </c>
       <c r="G29" t="n">
-        <v>-5428429.96404185</v>
+        <v>64617.34995815057</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1418,33 +1576,40 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.9</v>
+        <v>1.945</v>
       </c>
       <c r="C30" t="n">
-        <v>1.9</v>
+        <v>1.945</v>
       </c>
       <c r="D30" t="n">
-        <v>1.9</v>
+        <v>1.945</v>
       </c>
       <c r="E30" t="n">
-        <v>1.9</v>
+        <v>1.945</v>
       </c>
       <c r="F30" t="n">
-        <v>265.6749</v>
+        <v>600042.8235000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-5428429.96404185</v>
+        <v>-535425.4735418495</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1453,33 +1618,40 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.9</v>
+        <v>1.945</v>
       </c>
       <c r="C31" t="n">
-        <v>1.909</v>
+        <v>1.945</v>
       </c>
       <c r="D31" t="n">
-        <v>1.909</v>
+        <v>1.945</v>
       </c>
       <c r="E31" t="n">
-        <v>1.855</v>
+        <v>1.945</v>
       </c>
       <c r="F31" t="n">
-        <v>4327112.927</v>
+        <v>15261.8117</v>
       </c>
       <c r="G31" t="n">
-        <v>-1101317.037041849</v>
+        <v>-535425.4735418495</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1488,33 +1660,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.909</v>
+        <v>1.946</v>
       </c>
       <c r="C32" t="n">
-        <v>1.909</v>
+        <v>1.946</v>
       </c>
       <c r="D32" t="n">
-        <v>1.909</v>
+        <v>1.946</v>
       </c>
       <c r="E32" t="n">
-        <v>1.909</v>
+        <v>1.946</v>
       </c>
       <c r="F32" t="n">
-        <v>482884.098</v>
+        <v>21722.3379</v>
       </c>
       <c r="G32" t="n">
-        <v>-1101317.037041849</v>
+        <v>-513703.1356418495</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1523,33 +1702,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="C33" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="D33" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="E33" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="F33" t="n">
-        <v>25573.5762</v>
+        <v>394.5768</v>
       </c>
       <c r="G33" t="n">
-        <v>-1075743.460841849</v>
+        <v>-514097.7124418495</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1558,33 +1744,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.914</v>
+        <v>1.94</v>
       </c>
       <c r="C34" t="n">
-        <v>1.91</v>
+        <v>1.946</v>
       </c>
       <c r="D34" t="n">
-        <v>1.914</v>
+        <v>1.946</v>
       </c>
       <c r="E34" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="F34" t="n">
-        <v>111010.3019</v>
+        <v>64517.9941</v>
       </c>
       <c r="G34" t="n">
-        <v>-1075743.460841849</v>
+        <v>-449579.7183418495</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1593,33 +1786,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="C35" t="n">
-        <v>1.89</v>
+        <v>1.917</v>
       </c>
       <c r="D35" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="E35" t="n">
-        <v>1.89</v>
+        <v>1.917</v>
       </c>
       <c r="F35" t="n">
-        <v>165219.2562</v>
+        <v>36393</v>
       </c>
       <c r="G35" t="n">
-        <v>-1240962.717041849</v>
+        <v>-485972.7183418495</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1628,33 +1828,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.899</v>
+        <v>1.94</v>
       </c>
       <c r="C36" t="n">
-        <v>1.899</v>
+        <v>1.94</v>
       </c>
       <c r="D36" t="n">
-        <v>1.899</v>
+        <v>1.94</v>
       </c>
       <c r="E36" t="n">
-        <v>1.899</v>
+        <v>1.94</v>
       </c>
       <c r="F36" t="n">
-        <v>9263.8824</v>
+        <v>36392.2439</v>
       </c>
       <c r="G36" t="n">
-        <v>-1231698.834641849</v>
+        <v>-449580.4744418495</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1663,68 +1870,82 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.89</v>
+        <v>1.918</v>
       </c>
       <c r="C37" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="D37" t="n">
-        <v>1.89</v>
+        <v>1.918</v>
       </c>
       <c r="E37" t="n">
-        <v>1.89</v>
+        <v>1.916</v>
       </c>
       <c r="F37" t="n">
-        <v>1882.1335</v>
+        <v>1126310.995</v>
       </c>
       <c r="G37" t="n">
-        <v>-1233580.968141849</v>
+        <v>-1575891.46944185</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
+        <v>0.9955221932114883</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.9</v>
+        <v>1.944</v>
       </c>
       <c r="C38" t="n">
-        <v>1.912</v>
+        <v>1.944</v>
       </c>
       <c r="D38" t="n">
-        <v>1.912</v>
+        <v>1.944</v>
       </c>
       <c r="E38" t="n">
-        <v>1.9</v>
+        <v>1.944</v>
       </c>
       <c r="F38" t="n">
-        <v>15710.8789</v>
+        <v>832.116</v>
       </c>
       <c r="G38" t="n">
-        <v>-1217870.089241849</v>
+        <v>-1575059.35344185</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1738,34 +1959,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="C39" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="D39" t="n">
-        <v>1.915</v>
+        <v>1.91</v>
       </c>
       <c r="E39" t="n">
-        <v>1.912</v>
+        <v>1.91</v>
       </c>
       <c r="F39" t="n">
-        <v>505748.371</v>
+        <v>520.8333</v>
       </c>
       <c r="G39" t="n">
-        <v>-712121.7182418494</v>
+        <v>-1575580.18674185</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1773,28 +1995,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="C40" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="D40" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="E40" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="F40" t="n">
-        <v>36550.2599</v>
+        <v>520.8333</v>
       </c>
       <c r="G40" t="n">
-        <v>-748671.9781418494</v>
+        <v>-1575059.35344185</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1808,28 +2031,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="C41" t="n">
-        <v>1.89</v>
+        <v>1.911</v>
       </c>
       <c r="D41" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="E41" t="n">
-        <v>1.89</v>
+        <v>1.911</v>
       </c>
       <c r="F41" t="n">
-        <v>496106.6153</v>
+        <v>557834</v>
       </c>
       <c r="G41" t="n">
-        <v>-1244778.593441849</v>
+        <v>-2132893.35344185</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1843,28 +2067,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.89</v>
+        <v>1.942</v>
       </c>
       <c r="C42" t="n">
-        <v>1.89</v>
+        <v>1.942</v>
       </c>
       <c r="D42" t="n">
-        <v>1.89</v>
+        <v>1.942</v>
       </c>
       <c r="E42" t="n">
-        <v>1.89</v>
+        <v>1.942</v>
       </c>
       <c r="F42" t="n">
-        <v>31520.4041</v>
+        <v>258</v>
       </c>
       <c r="G42" t="n">
-        <v>-1244778.593441849</v>
+        <v>-2132635.35344185</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1878,28 +2103,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="C43" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="D43" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="E43" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="F43" t="n">
-        <v>1000</v>
+        <v>558514</v>
       </c>
       <c r="G43" t="n">
-        <v>-1243778.593441849</v>
+        <v>-2691149.35344185</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1913,28 +2139,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.891</v>
+        <v>1.942</v>
       </c>
       <c r="C44" t="n">
-        <v>1.89</v>
+        <v>1.942</v>
       </c>
       <c r="D44" t="n">
-        <v>1.891</v>
+        <v>1.942</v>
       </c>
       <c r="E44" t="n">
-        <v>1.89</v>
+        <v>1.942</v>
       </c>
       <c r="F44" t="n">
-        <v>370000</v>
+        <v>1742</v>
       </c>
       <c r="G44" t="n">
-        <v>-1613778.593441849</v>
+        <v>-2689407.35344185</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1948,28 +2175,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="C45" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="D45" t="n">
-        <v>1.91</v>
+        <v>1.941</v>
       </c>
       <c r="E45" t="n">
-        <v>1.91</v>
+        <v>1.911</v>
       </c>
       <c r="F45" t="n">
-        <v>35288.2599</v>
+        <v>2170168.88</v>
       </c>
       <c r="G45" t="n">
-        <v>-1578490.333541849</v>
+        <v>-4859576.23344185</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1983,28 +2211,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="C46" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="D46" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="E46" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.7802</v>
+        <v>441.7611</v>
       </c>
       <c r="G46" t="n">
-        <v>-1578490.333541849</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2018,28 +2247,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="C47" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="D47" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="E47" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="F47" t="n">
-        <v>1000</v>
+        <v>558.2388999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-1578490.333541849</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2053,28 +2283,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="C48" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="D48" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="E48" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="F48" t="n">
-        <v>197.3581</v>
+        <v>12534.538</v>
       </c>
       <c r="G48" t="n">
-        <v>-1578490.333541849</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2088,28 +2319,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="C49" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="D49" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="E49" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="F49" t="n">
-        <v>64.4221</v>
+        <v>2465.462</v>
       </c>
       <c r="G49" t="n">
-        <v>-1578490.333541849</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2123,28 +2355,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="C50" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="D50" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="E50" t="n">
-        <v>1.91</v>
+        <v>1.939</v>
       </c>
       <c r="F50" t="n">
-        <v>535.5779</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="n">
-        <v>-1578490.333541849</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2158,28 +2391,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.914</v>
+        <v>1.939</v>
       </c>
       <c r="C51" t="n">
-        <v>1.914</v>
+        <v>1.939</v>
       </c>
       <c r="D51" t="n">
-        <v>1.914</v>
+        <v>1.939</v>
       </c>
       <c r="E51" t="n">
-        <v>1.914</v>
+        <v>1.939</v>
       </c>
       <c r="F51" t="n">
-        <v>262</v>
+        <v>1019.9616</v>
       </c>
       <c r="G51" t="n">
-        <v>-1578228.333541849</v>
+        <v>-4859134.47234185</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2193,28 +2427,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.914</v>
+        <v>1.937</v>
       </c>
       <c r="C52" t="n">
-        <v>1.914</v>
+        <v>1.911</v>
       </c>
       <c r="D52" t="n">
-        <v>1.914</v>
+        <v>1.937</v>
       </c>
       <c r="E52" t="n">
-        <v>1.914</v>
+        <v>1.911</v>
       </c>
       <c r="F52" t="n">
-        <v>1167.7285</v>
+        <v>2168383</v>
       </c>
       <c r="G52" t="n">
-        <v>-1578228.333541849</v>
+        <v>-7027517.47234185</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2228,28 +2463,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.914</v>
+        <v>1.937</v>
       </c>
       <c r="C53" t="n">
-        <v>1.915</v>
+        <v>1.937</v>
       </c>
       <c r="D53" t="n">
-        <v>1.915</v>
+        <v>1.937</v>
       </c>
       <c r="E53" t="n">
-        <v>1.914</v>
+        <v>1.911</v>
       </c>
       <c r="F53" t="n">
-        <v>10000</v>
+        <v>3032193.76</v>
       </c>
       <c r="G53" t="n">
-        <v>-1568228.333541849</v>
+        <v>-3995323.712341851</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2263,28 +2499,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.915</v>
+        <v>1.936</v>
       </c>
       <c r="C54" t="n">
-        <v>1.915</v>
+        <v>1.912</v>
       </c>
       <c r="D54" t="n">
-        <v>1.915</v>
+        <v>1.936</v>
       </c>
       <c r="E54" t="n">
-        <v>1.915</v>
+        <v>1.912</v>
       </c>
       <c r="F54" t="n">
-        <v>2483.8394</v>
+        <v>2797823.88</v>
       </c>
       <c r="G54" t="n">
-        <v>-1568228.333541849</v>
+        <v>-6793147.592341851</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2298,28 +2535,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.915</v>
+        <v>1.933</v>
       </c>
       <c r="C55" t="n">
-        <v>1.915</v>
+        <v>1.934</v>
       </c>
       <c r="D55" t="n">
-        <v>1.915</v>
+        <v>1.937</v>
       </c>
       <c r="E55" t="n">
-        <v>1.915</v>
+        <v>1.933</v>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>3128788.4965</v>
       </c>
       <c r="G55" t="n">
-        <v>-1568228.333541849</v>
+        <v>-3664359.095841851</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2333,28 +2571,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.915</v>
+        <v>1.938</v>
       </c>
       <c r="C56" t="n">
-        <v>1.916</v>
+        <v>1.939</v>
       </c>
       <c r="D56" t="n">
-        <v>1.916</v>
+        <v>1.939</v>
       </c>
       <c r="E56" t="n">
-        <v>1.915</v>
+        <v>1.911</v>
       </c>
       <c r="F56" t="n">
-        <v>20875.2498</v>
+        <v>1306800.8536</v>
       </c>
       <c r="G56" t="n">
-        <v>-1547353.083741849</v>
+        <v>-2357558.242241851</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2368,28 +2607,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.916</v>
+        <v>1.912</v>
       </c>
       <c r="C57" t="n">
-        <v>1.916</v>
+        <v>1.903</v>
       </c>
       <c r="D57" t="n">
-        <v>1.916</v>
+        <v>1.912</v>
       </c>
       <c r="E57" t="n">
-        <v>1.916</v>
+        <v>1.903</v>
       </c>
       <c r="F57" t="n">
-        <v>20000</v>
+        <v>2181623.6165</v>
       </c>
       <c r="G57" t="n">
-        <v>-1547353.083741849</v>
+        <v>-4539181.858741851</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2403,28 +2643,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.916</v>
+        <v>1.929</v>
       </c>
       <c r="C58" t="n">
-        <v>1.916</v>
+        <v>1.929</v>
       </c>
       <c r="D58" t="n">
-        <v>1.916</v>
+        <v>1.929</v>
       </c>
       <c r="E58" t="n">
-        <v>1.916</v>
+        <v>1.929</v>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>260</v>
       </c>
       <c r="G58" t="n">
-        <v>-1547353.083741849</v>
+        <v>-4538921.858741851</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2438,28 +2679,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="C59" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="E59" t="n">
         <v>1.91</v>
       </c>
-      <c r="D59" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1.9</v>
-      </c>
       <c r="F59" t="n">
-        <v>2747.394</v>
+        <v>220262.26</v>
       </c>
       <c r="G59" t="n">
-        <v>-1550100.477741849</v>
+        <v>-4759184.11874185</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2473,28 +2715,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="C60" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="D60" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="E60" t="n">
-        <v>1.91</v>
+        <v>1.904</v>
       </c>
       <c r="F60" t="n">
-        <v>2225.394</v>
+        <v>422958</v>
       </c>
       <c r="G60" t="n">
-        <v>-1550100.477741849</v>
+        <v>-5182142.11874185</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2508,28 +2751,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.916</v>
+        <v>1.929</v>
       </c>
       <c r="C61" t="n">
-        <v>1.916</v>
+        <v>1.929</v>
       </c>
       <c r="D61" t="n">
-        <v>1.916</v>
+        <v>1.929</v>
       </c>
       <c r="E61" t="n">
-        <v>1.916</v>
+        <v>1.929</v>
       </c>
       <c r="F61" t="n">
-        <v>1000</v>
+        <v>261</v>
       </c>
       <c r="G61" t="n">
-        <v>-1549100.477741849</v>
+        <v>-5181881.11874185</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2543,28 +2787,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="C62" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="D62" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="E62" t="n">
-        <v>1.916</v>
+        <v>1.91</v>
       </c>
       <c r="F62" t="n">
-        <v>3000</v>
+        <v>16102.3385</v>
       </c>
       <c r="G62" t="n">
-        <v>-1549100.477741849</v>
+        <v>-5197983.45724185</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,28 +2823,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.916</v>
+        <v>1.903</v>
       </c>
       <c r="C63" t="n">
-        <v>1.94</v>
+        <v>1.909</v>
       </c>
       <c r="D63" t="n">
-        <v>1.94</v>
+        <v>1.909</v>
       </c>
       <c r="E63" t="n">
-        <v>1.916</v>
+        <v>1.903</v>
       </c>
       <c r="F63" t="n">
-        <v>1847000</v>
+        <v>434314.9206</v>
       </c>
       <c r="G63" t="n">
-        <v>297899.5222581506</v>
+        <v>-5632298.37784185</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,28 +2859,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.94</v>
+        <v>1.918</v>
       </c>
       <c r="C64" t="n">
-        <v>1.947</v>
+        <v>1.918</v>
       </c>
       <c r="D64" t="n">
-        <v>1.947</v>
+        <v>1.918</v>
       </c>
       <c r="E64" t="n">
-        <v>1.94</v>
+        <v>1.918</v>
       </c>
       <c r="F64" t="n">
-        <v>227421.264</v>
+        <v>261</v>
       </c>
       <c r="G64" t="n">
-        <v>525320.7862581506</v>
+        <v>-5632037.37784185</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,28 +2895,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.947</v>
+        <v>1.918</v>
       </c>
       <c r="C65" t="n">
-        <v>1.947</v>
+        <v>1.919</v>
       </c>
       <c r="D65" t="n">
-        <v>1.947</v>
+        <v>1.919</v>
       </c>
       <c r="E65" t="n">
-        <v>1.947</v>
+        <v>1.918</v>
       </c>
       <c r="F65" t="n">
-        <v>4088.06</v>
+        <v>158906.465</v>
       </c>
       <c r="G65" t="n">
-        <v>525320.7862581506</v>
+        <v>-5473130.91284185</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,34 +2931,35 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.946</v>
+        <v>1.92</v>
       </c>
       <c r="C66" t="n">
-        <v>1.946</v>
+        <v>1.92</v>
       </c>
       <c r="D66" t="n">
-        <v>1.946</v>
+        <v>1.92</v>
       </c>
       <c r="E66" t="n">
-        <v>1.946</v>
+        <v>1.92</v>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>261</v>
       </c>
       <c r="G66" t="n">
-        <v>524320.7862581506</v>
+        <v>-5472869.91284185</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -2718,28 +2967,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="C67" t="n">
-        <v>1.916</v>
+        <v>1.92</v>
       </c>
       <c r="D67" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="E67" t="n">
-        <v>1.916</v>
+        <v>1.92</v>
       </c>
       <c r="F67" t="n">
-        <v>523013.1707</v>
+        <v>1443.147</v>
       </c>
       <c r="G67" t="n">
-        <v>1307.615558150574</v>
+        <v>-5472869.91284185</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,28 +3003,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="C68" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="D68" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="E68" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="F68" t="n">
-        <v>5995.8625</v>
+        <v>17288.5452</v>
       </c>
       <c r="G68" t="n">
-        <v>7303.478058150574</v>
+        <v>-5472869.91284185</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,28 +3039,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.94</v>
+        <v>1.919</v>
       </c>
       <c r="C69" t="n">
-        <v>1.946</v>
+        <v>1.92</v>
       </c>
       <c r="D69" t="n">
-        <v>1.946</v>
+        <v>1.92</v>
       </c>
       <c r="E69" t="n">
-        <v>1.94</v>
+        <v>1.919</v>
       </c>
       <c r="F69" t="n">
-        <v>14379.3901</v>
+        <v>1247774.759</v>
       </c>
       <c r="G69" t="n">
-        <v>21682.86815815057</v>
+        <v>-5472869.91284185</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,28 +3075,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.946</v>
+        <v>1.92</v>
       </c>
       <c r="C70" t="n">
-        <v>1.916</v>
+        <v>1.925</v>
       </c>
       <c r="D70" t="n">
-        <v>1.946</v>
+        <v>1.925</v>
       </c>
       <c r="E70" t="n">
-        <v>1.916</v>
+        <v>1.92</v>
       </c>
       <c r="F70" t="n">
-        <v>1705.6006</v>
+        <v>9421.326999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>19977.26755815057</v>
+        <v>-5463448.58584185</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,28 +3111,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="C71" t="n">
-        <v>1.946</v>
+        <v>1.904</v>
       </c>
       <c r="D71" t="n">
-        <v>1.946</v>
+        <v>1.91</v>
       </c>
       <c r="E71" t="n">
-        <v>1.946</v>
+        <v>1.904</v>
       </c>
       <c r="F71" t="n">
-        <v>44640.0824</v>
+        <v>2367605.9262</v>
       </c>
       <c r="G71" t="n">
-        <v>64617.34995815057</v>
+        <v>-7831054.51204185</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,34 +3147,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.945</v>
+        <v>1.904</v>
       </c>
       <c r="C72" t="n">
-        <v>1.945</v>
+        <v>1.904</v>
       </c>
       <c r="D72" t="n">
-        <v>1.945</v>
+        <v>1.904</v>
       </c>
       <c r="E72" t="n">
-        <v>1.945</v>
+        <v>1.904</v>
       </c>
       <c r="F72" t="n">
-        <v>600042.8235000001</v>
+        <v>219725.631</v>
       </c>
       <c r="G72" t="n">
-        <v>-535425.4735418495</v>
+        <v>-7831054.51204185</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2928,34 +3183,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.945</v>
+        <v>1.904</v>
       </c>
       <c r="C73" t="n">
-        <v>1.945</v>
+        <v>1.911</v>
       </c>
       <c r="D73" t="n">
-        <v>1.945</v>
+        <v>1.937</v>
       </c>
       <c r="E73" t="n">
-        <v>1.945</v>
+        <v>1.904</v>
       </c>
       <c r="F73" t="n">
-        <v>15261.8117</v>
+        <v>1592837.3037</v>
       </c>
       <c r="G73" t="n">
-        <v>-535425.4735418495</v>
+        <v>-6238217.20834185</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2963,34 +3219,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.946</v>
+        <v>1.938</v>
       </c>
       <c r="C74" t="n">
-        <v>1.946</v>
+        <v>1.938</v>
       </c>
       <c r="D74" t="n">
-        <v>1.946</v>
+        <v>1.938</v>
       </c>
       <c r="E74" t="n">
-        <v>1.946</v>
+        <v>1.938</v>
       </c>
       <c r="F74" t="n">
-        <v>21722.3379</v>
+        <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>-513703.1356418495</v>
+        <v>-6228217.20834185</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -2998,34 +3255,35 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.93</v>
+        <v>1.938</v>
       </c>
       <c r="C75" t="n">
-        <v>1.93</v>
+        <v>1.938</v>
       </c>
       <c r="D75" t="n">
-        <v>1.93</v>
+        <v>1.938</v>
       </c>
       <c r="E75" t="n">
-        <v>1.93</v>
+        <v>1.938</v>
       </c>
       <c r="F75" t="n">
-        <v>394.5768</v>
+        <v>670684.8976</v>
       </c>
       <c r="G75" t="n">
-        <v>-514097.7124418495</v>
+        <v>-6228217.20834185</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3033,28 +3291,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.94</v>
+        <v>1.918</v>
       </c>
       <c r="C76" t="n">
-        <v>1.946</v>
+        <v>1.911</v>
       </c>
       <c r="D76" t="n">
-        <v>1.946</v>
+        <v>1.936</v>
       </c>
       <c r="E76" t="n">
-        <v>1.94</v>
+        <v>1.911</v>
       </c>
       <c r="F76" t="n">
-        <v>64517.9941</v>
+        <v>916327.7825</v>
       </c>
       <c r="G76" t="n">
-        <v>-449579.7183418495</v>
+        <v>-7144544.99084185</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,28 +3327,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.93</v>
+        <v>1.936</v>
       </c>
       <c r="C77" t="n">
-        <v>1.917</v>
+        <v>1.911</v>
       </c>
       <c r="D77" t="n">
-        <v>1.93</v>
+        <v>1.937</v>
       </c>
       <c r="E77" t="n">
-        <v>1.917</v>
+        <v>1.911</v>
       </c>
       <c r="F77" t="n">
-        <v>36393</v>
+        <v>1329255.88</v>
       </c>
       <c r="G77" t="n">
-        <v>-485972.7183418495</v>
+        <v>-7144544.99084185</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,28 +3363,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.94</v>
+        <v>1.936</v>
       </c>
       <c r="C78" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="D78" t="n">
-        <v>1.94</v>
+        <v>1.936</v>
       </c>
       <c r="E78" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="F78" t="n">
-        <v>36392.2439</v>
+        <v>793869.0592</v>
       </c>
       <c r="G78" t="n">
-        <v>-449580.4744418495</v>
+        <v>-7938414.05004185</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,28 +3399,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.918</v>
+        <v>1.936</v>
       </c>
       <c r="C79" t="n">
-        <v>1.916</v>
+        <v>1.905</v>
       </c>
       <c r="D79" t="n">
-        <v>1.918</v>
+        <v>1.936</v>
       </c>
       <c r="E79" t="n">
-        <v>1.916</v>
+        <v>1.905</v>
       </c>
       <c r="F79" t="n">
-        <v>1126310.995</v>
+        <v>818129</v>
       </c>
       <c r="G79" t="n">
-        <v>-1575891.46944185</v>
+        <v>-8756543.050041851</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,28 +3435,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.944</v>
+        <v>1.905</v>
       </c>
       <c r="C80" t="n">
-        <v>1.944</v>
+        <v>1.937</v>
       </c>
       <c r="D80" t="n">
-        <v>1.944</v>
+        <v>1.937</v>
       </c>
       <c r="E80" t="n">
-        <v>1.944</v>
+        <v>1.905</v>
       </c>
       <c r="F80" t="n">
-        <v>832.116</v>
+        <v>71759.745</v>
       </c>
       <c r="G80" t="n">
-        <v>-1575059.35344185</v>
+        <v>-8684783.305041851</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,34 +3471,35 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="C81" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="D81" t="n">
-        <v>1.91</v>
+        <v>1.932</v>
       </c>
       <c r="E81" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="F81" t="n">
-        <v>520.8333</v>
+        <v>640733</v>
       </c>
       <c r="G81" t="n">
-        <v>-1575580.18674185</v>
+        <v>-9325516.305041851</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3243,34 +3507,35 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.93</v>
+        <v>1.932</v>
       </c>
       <c r="C82" t="n">
-        <v>1.93</v>
+        <v>1.905</v>
       </c>
       <c r="D82" t="n">
-        <v>1.93</v>
+        <v>1.932</v>
       </c>
       <c r="E82" t="n">
-        <v>1.93</v>
+        <v>1.905</v>
       </c>
       <c r="F82" t="n">
-        <v>520.8333</v>
+        <v>643497</v>
       </c>
       <c r="G82" t="n">
-        <v>-1575059.35344185</v>
+        <v>-9325516.305041851</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3278,34 +3543,35 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.911</v>
+        <v>1.919</v>
       </c>
       <c r="C83" t="n">
-        <v>1.911</v>
+        <v>1.905</v>
       </c>
       <c r="D83" t="n">
-        <v>1.911</v>
+        <v>1.932</v>
       </c>
       <c r="E83" t="n">
-        <v>1.911</v>
+        <v>1.905</v>
       </c>
       <c r="F83" t="n">
-        <v>557834</v>
+        <v>681857.88</v>
       </c>
       <c r="G83" t="n">
-        <v>-2132893.35344185</v>
+        <v>-9325516.305041851</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3313,28 +3579,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.942</v>
+        <v>1.934</v>
       </c>
       <c r="C84" t="n">
-        <v>1.942</v>
+        <v>1.934</v>
       </c>
       <c r="D84" t="n">
-        <v>1.942</v>
+        <v>1.934</v>
       </c>
       <c r="E84" t="n">
-        <v>1.942</v>
+        <v>1.934</v>
       </c>
       <c r="F84" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G84" t="n">
-        <v>-2132635.35344185</v>
+        <v>-9325257.305041851</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3348,34 +3615,35 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.911</v>
+        <v>1.934</v>
       </c>
       <c r="C85" t="n">
-        <v>1.911</v>
+        <v>1.935</v>
       </c>
       <c r="D85" t="n">
-        <v>1.911</v>
+        <v>1.935</v>
       </c>
       <c r="E85" t="n">
-        <v>1.911</v>
+        <v>1.934</v>
       </c>
       <c r="F85" t="n">
-        <v>558514</v>
+        <v>10241</v>
       </c>
       <c r="G85" t="n">
-        <v>-2691149.35344185</v>
+        <v>-9315016.305041851</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3383,28 +3651,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.942</v>
+        <v>1.933</v>
       </c>
       <c r="C86" t="n">
-        <v>1.942</v>
+        <v>1.905</v>
       </c>
       <c r="D86" t="n">
-        <v>1.942</v>
+        <v>1.933</v>
       </c>
       <c r="E86" t="n">
-        <v>1.942</v>
+        <v>1.905</v>
       </c>
       <c r="F86" t="n">
-        <v>1742</v>
+        <v>803989</v>
       </c>
       <c r="G86" t="n">
-        <v>-2689407.35344185</v>
+        <v>-10119005.30504185</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,28 +3687,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.911</v>
+        <v>1.904</v>
       </c>
       <c r="C87" t="n">
-        <v>1.911</v>
+        <v>1.904</v>
       </c>
       <c r="D87" t="n">
-        <v>1.941</v>
+        <v>1.904</v>
       </c>
       <c r="E87" t="n">
-        <v>1.911</v>
+        <v>1.904</v>
       </c>
       <c r="F87" t="n">
-        <v>2170168.88</v>
+        <v>12168.6776</v>
       </c>
       <c r="G87" t="n">
-        <v>-4859576.23344185</v>
+        <v>-10131173.98264185</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,63 +3723,69 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="C88" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="D88" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="E88" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="F88" t="n">
-        <v>441.7611</v>
+        <v>372.0466</v>
       </c>
       <c r="G88" t="n">
-        <v>-4859134.47234185</v>
+        <v>-10130801.93604185</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.904</v>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.939</v>
+        <v>1.933</v>
       </c>
       <c r="C89" t="n">
-        <v>1.939</v>
+        <v>1.905</v>
       </c>
       <c r="D89" t="n">
-        <v>1.939</v>
+        <v>1.933</v>
       </c>
       <c r="E89" t="n">
-        <v>1.939</v>
+        <v>1.905</v>
       </c>
       <c r="F89" t="n">
-        <v>558.2388999999999</v>
+        <v>755613</v>
       </c>
       <c r="G89" t="n">
-        <v>-4859134.47234185</v>
+        <v>-10886414.93604185</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3518,33 +3794,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="C90" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="D90" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="E90" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="F90" t="n">
-        <v>12534.538</v>
+        <v>170287.6994</v>
       </c>
       <c r="G90" t="n">
-        <v>-4859134.47234185</v>
+        <v>-10716127.23664185</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3553,33 +3836,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="C91" t="n">
-        <v>1.939</v>
+        <v>1.907</v>
       </c>
       <c r="D91" t="n">
-        <v>1.939</v>
+        <v>1.935</v>
       </c>
       <c r="E91" t="n">
-        <v>1.939</v>
+        <v>1.907</v>
       </c>
       <c r="F91" t="n">
-        <v>2465.462</v>
+        <v>768410.79</v>
       </c>
       <c r="G91" t="n">
-        <v>-4859134.47234185</v>
+        <v>-11484538.02664185</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3593,28 +3883,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.939</v>
+        <v>1.936</v>
       </c>
       <c r="C92" t="n">
-        <v>1.939</v>
+        <v>1.908</v>
       </c>
       <c r="D92" t="n">
-        <v>1.939</v>
+        <v>1.937</v>
       </c>
       <c r="E92" t="n">
-        <v>1.939</v>
+        <v>1.908</v>
       </c>
       <c r="F92" t="n">
-        <v>2000</v>
+        <v>1287767.88</v>
       </c>
       <c r="G92" t="n">
-        <v>-4859134.47234185</v>
+        <v>-10196770.14664185</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3628,28 +3919,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.939</v>
+        <v>1.936</v>
       </c>
       <c r="C93" t="n">
-        <v>1.939</v>
+        <v>1.909</v>
       </c>
       <c r="D93" t="n">
-        <v>1.939</v>
+        <v>1.937</v>
       </c>
       <c r="E93" t="n">
-        <v>1.939</v>
+        <v>1.909</v>
       </c>
       <c r="F93" t="n">
-        <v>1019.9616</v>
+        <v>1492976.88</v>
       </c>
       <c r="G93" t="n">
-        <v>-4859134.47234185</v>
+        <v>-8703793.266641855</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3663,28 +3955,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.937</v>
+        <v>1.938</v>
       </c>
       <c r="C94" t="n">
-        <v>1.911</v>
+        <v>1.938</v>
       </c>
       <c r="D94" t="n">
-        <v>1.937</v>
+        <v>1.938</v>
       </c>
       <c r="E94" t="n">
-        <v>1.911</v>
+        <v>1.938</v>
       </c>
       <c r="F94" t="n">
-        <v>2168383</v>
+        <v>342.333</v>
       </c>
       <c r="G94" t="n">
-        <v>-7027517.47234185</v>
+        <v>-8703450.933641855</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3698,34 +3991,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.937</v>
+        <v>1.936</v>
       </c>
       <c r="C95" t="n">
-        <v>1.937</v>
+        <v>1.908</v>
       </c>
       <c r="D95" t="n">
-        <v>1.937</v>
+        <v>1.936</v>
       </c>
       <c r="E95" t="n">
-        <v>1.911</v>
+        <v>1.908</v>
       </c>
       <c r="F95" t="n">
-        <v>3032193.76</v>
+        <v>609818</v>
       </c>
       <c r="G95" t="n">
-        <v>-3995323.712341851</v>
+        <v>-9313268.933641855</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3733,28 +4027,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.936</v>
+        <v>1.938</v>
       </c>
       <c r="C96" t="n">
-        <v>1.912</v>
+        <v>1.938</v>
       </c>
       <c r="D96" t="n">
-        <v>1.936</v>
+        <v>1.938</v>
       </c>
       <c r="E96" t="n">
-        <v>1.912</v>
+        <v>1.938</v>
       </c>
       <c r="F96" t="n">
-        <v>2797823.88</v>
+        <v>308.0997</v>
       </c>
       <c r="G96" t="n">
-        <v>-6793147.592341851</v>
+        <v>-9312960.833941855</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3768,34 +4063,35 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.933</v>
+        <v>1.936</v>
       </c>
       <c r="C97" t="n">
-        <v>1.934</v>
+        <v>1.906</v>
       </c>
       <c r="D97" t="n">
-        <v>1.937</v>
+        <v>1.936</v>
       </c>
       <c r="E97" t="n">
-        <v>1.933</v>
+        <v>1.906</v>
       </c>
       <c r="F97" t="n">
-        <v>3128788.4965</v>
+        <v>789202</v>
       </c>
       <c r="G97" t="n">
-        <v>-3664359.095841851</v>
+        <v>-10102162.83394185</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3803,34 +4099,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.938</v>
+        <v>1.906</v>
       </c>
       <c r="C98" t="n">
-        <v>1.939</v>
+        <v>1.906</v>
       </c>
       <c r="D98" t="n">
-        <v>1.939</v>
+        <v>1.906</v>
       </c>
       <c r="E98" t="n">
-        <v>1.911</v>
+        <v>1.906</v>
       </c>
       <c r="F98" t="n">
-        <v>1306800.8536</v>
+        <v>106088.99</v>
       </c>
       <c r="G98" t="n">
-        <v>-2357558.242241851</v>
+        <v>-10102162.83394185</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3838,34 +4135,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.912</v>
+        <v>1.906</v>
       </c>
       <c r="C99" t="n">
-        <v>1.903</v>
+        <v>1.935</v>
       </c>
       <c r="D99" t="n">
-        <v>1.912</v>
+        <v>1.935</v>
       </c>
       <c r="E99" t="n">
-        <v>1.903</v>
+        <v>1.906</v>
       </c>
       <c r="F99" t="n">
-        <v>2181623.6165</v>
+        <v>260</v>
       </c>
       <c r="G99" t="n">
-        <v>-4539181.858741851</v>
+        <v>-10101902.83394185</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3873,28 +4171,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.929</v>
+        <v>1.933</v>
       </c>
       <c r="C100" t="n">
-        <v>1.929</v>
+        <v>1.906</v>
       </c>
       <c r="D100" t="n">
-        <v>1.929</v>
+        <v>1.936</v>
       </c>
       <c r="E100" t="n">
-        <v>1.929</v>
+        <v>1.906</v>
       </c>
       <c r="F100" t="n">
-        <v>260</v>
+        <v>1358824.88</v>
       </c>
       <c r="G100" t="n">
-        <v>-4538921.858741851</v>
+        <v>-11460727.71394185</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3908,28 +4207,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="C101" t="n">
         <v>1.91</v>
       </c>
-      <c r="C101" t="n">
-        <v>1.928</v>
-      </c>
       <c r="D101" t="n">
-        <v>1.928</v>
+        <v>1.91</v>
       </c>
       <c r="E101" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="F101" t="n">
-        <v>220262.26</v>
+        <v>1572.1733</v>
       </c>
       <c r="G101" t="n">
-        <v>-4759184.11874185</v>
+        <v>-11459155.54064185</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3943,28 +4243,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.904</v>
+        <v>1.91</v>
       </c>
       <c r="C102" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="D102" t="n">
-        <v>1.904</v>
+        <v>1.937</v>
       </c>
       <c r="E102" t="n">
-        <v>1.904</v>
+        <v>1.905</v>
       </c>
       <c r="F102" t="n">
-        <v>422958</v>
+        <v>815147.8277</v>
       </c>
       <c r="G102" t="n">
-        <v>-5182142.11874185</v>
+        <v>-12274303.36834185</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3978,28 +4279,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.929</v>
+        <v>1.927</v>
       </c>
       <c r="C103" t="n">
-        <v>1.929</v>
+        <v>1.907</v>
       </c>
       <c r="D103" t="n">
-        <v>1.929</v>
+        <v>1.927</v>
       </c>
       <c r="E103" t="n">
-        <v>1.929</v>
+        <v>1.907</v>
       </c>
       <c r="F103" t="n">
-        <v>261</v>
+        <v>685778</v>
       </c>
       <c r="G103" t="n">
-        <v>-5181881.11874185</v>
+        <v>-11588525.36834185</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4013,28 +4315,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="C104" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="D104" t="n">
-        <v>1.91</v>
+        <v>1.906</v>
       </c>
       <c r="E104" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="F104" t="n">
-        <v>16102.3385</v>
+        <v>2001985.9447</v>
       </c>
       <c r="G104" t="n">
-        <v>-5197983.45724185</v>
+        <v>-13590511.31304185</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4048,28 +4351,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.903</v>
+        <v>1.926</v>
       </c>
       <c r="C105" t="n">
-        <v>1.909</v>
+        <v>1.89</v>
       </c>
       <c r="D105" t="n">
-        <v>1.909</v>
+        <v>1.926</v>
       </c>
       <c r="E105" t="n">
-        <v>1.903</v>
+        <v>1.89</v>
       </c>
       <c r="F105" t="n">
-        <v>434314.9206</v>
+        <v>10092.2402</v>
       </c>
       <c r="G105" t="n">
-        <v>-5632298.37784185</v>
+        <v>-13580419.07284185</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4083,28 +4387,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.918</v>
+        <v>1.88</v>
       </c>
       <c r="C106" t="n">
-        <v>1.918</v>
+        <v>1.862</v>
       </c>
       <c r="D106" t="n">
-        <v>1.918</v>
+        <v>1.88</v>
       </c>
       <c r="E106" t="n">
-        <v>1.918</v>
+        <v>1.862</v>
       </c>
       <c r="F106" t="n">
-        <v>261</v>
+        <v>2752827.1952</v>
       </c>
       <c r="G106" t="n">
-        <v>-5632037.37784185</v>
+        <v>-16333246.26804185</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4118,28 +4423,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.918</v>
+        <v>1.863</v>
       </c>
       <c r="C107" t="n">
-        <v>1.919</v>
+        <v>1.862</v>
       </c>
       <c r="D107" t="n">
-        <v>1.919</v>
+        <v>1.863</v>
       </c>
       <c r="E107" t="n">
-        <v>1.918</v>
+        <v>1.862</v>
       </c>
       <c r="F107" t="n">
-        <v>158906.465</v>
+        <v>252381.4074</v>
       </c>
       <c r="G107" t="n">
-        <v>-5473130.91284185</v>
+        <v>-16333246.26804185</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4153,28 +4459,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.92</v>
+        <v>1.866</v>
       </c>
       <c r="C108" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="D108" t="n">
-        <v>1.92</v>
+        <v>1.919</v>
       </c>
       <c r="E108" t="n">
-        <v>1.92</v>
+        <v>1.866</v>
       </c>
       <c r="F108" t="n">
-        <v>261</v>
+        <v>2261</v>
       </c>
       <c r="G108" t="n">
-        <v>-5472869.91284185</v>
+        <v>-16330985.26804185</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4188,28 +4495,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.92</v>
+        <v>1.913</v>
       </c>
       <c r="C109" t="n">
-        <v>1.92</v>
+        <v>1.897</v>
       </c>
       <c r="D109" t="n">
-        <v>1.92</v>
+        <v>1.913</v>
       </c>
       <c r="E109" t="n">
-        <v>1.92</v>
+        <v>1.872</v>
       </c>
       <c r="F109" t="n">
-        <v>1443.147</v>
+        <v>774227.88</v>
       </c>
       <c r="G109" t="n">
-        <v>-5472869.91284185</v>
+        <v>-17105213.14804186</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4223,28 +4531,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.92</v>
+        <v>1.896</v>
       </c>
       <c r="C110" t="n">
-        <v>1.92</v>
+        <v>1.872</v>
       </c>
       <c r="D110" t="n">
-        <v>1.92</v>
+        <v>1.896</v>
       </c>
       <c r="E110" t="n">
-        <v>1.92</v>
+        <v>1.872</v>
       </c>
       <c r="F110" t="n">
-        <v>17288.5452</v>
+        <v>846979.932</v>
       </c>
       <c r="G110" t="n">
-        <v>-5472869.91284185</v>
+        <v>-17952193.08004186</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4258,63 +4567,69 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.919</v>
+        <v>1.905</v>
       </c>
       <c r="C111" t="n">
-        <v>1.92</v>
+        <v>1.905</v>
       </c>
       <c r="D111" t="n">
-        <v>1.92</v>
+        <v>1.905</v>
       </c>
       <c r="E111" t="n">
-        <v>1.919</v>
+        <v>1.905</v>
       </c>
       <c r="F111" t="n">
-        <v>1247774.759</v>
+        <v>264</v>
       </c>
       <c r="G111" t="n">
-        <v>-5472869.91284185</v>
+        <v>-17951929.08004186</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.872</v>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="C112" t="n">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="D112" t="n">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="E112" t="n">
-        <v>1.92</v>
+        <v>1.875</v>
       </c>
       <c r="F112" t="n">
-        <v>9421.326999999999</v>
+        <v>1000</v>
       </c>
       <c r="G112" t="n">
-        <v>-5463448.58584185</v>
+        <v>-17952929.08004186</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4323,33 +4638,40 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.91</v>
+        <v>1.875</v>
       </c>
       <c r="C113" t="n">
-        <v>1.904</v>
+        <v>1.889</v>
       </c>
       <c r="D113" t="n">
-        <v>1.91</v>
+        <v>1.889</v>
       </c>
       <c r="E113" t="n">
-        <v>1.904</v>
+        <v>1.875</v>
       </c>
       <c r="F113" t="n">
-        <v>2367605.9262</v>
+        <v>1425.1196</v>
       </c>
       <c r="G113" t="n">
-        <v>-7831054.51204185</v>
+        <v>-17951503.96044185</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4358,33 +4680,40 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.904</v>
+        <v>1.889</v>
       </c>
       <c r="C114" t="n">
-        <v>1.904</v>
+        <v>1.889</v>
       </c>
       <c r="D114" t="n">
-        <v>1.904</v>
+        <v>1.889</v>
       </c>
       <c r="E114" t="n">
-        <v>1.904</v>
+        <v>1.889</v>
       </c>
       <c r="F114" t="n">
-        <v>219725.631</v>
+        <v>444</v>
       </c>
       <c r="G114" t="n">
-        <v>-7831054.51204185</v>
+        <v>-17951503.96044185</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4398,28 +4727,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.904</v>
+        <v>1.889</v>
       </c>
       <c r="C115" t="n">
-        <v>1.911</v>
+        <v>1.889</v>
       </c>
       <c r="D115" t="n">
-        <v>1.937</v>
+        <v>1.889</v>
       </c>
       <c r="E115" t="n">
-        <v>1.904</v>
+        <v>1.889</v>
       </c>
       <c r="F115" t="n">
-        <v>1592837.3037</v>
+        <v>1332</v>
       </c>
       <c r="G115" t="n">
-        <v>-6238217.20834185</v>
+        <v>-17951503.96044185</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4433,28 +4763,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.938</v>
+        <v>1.901</v>
       </c>
       <c r="C116" t="n">
-        <v>1.938</v>
+        <v>1.881</v>
       </c>
       <c r="D116" t="n">
-        <v>1.938</v>
+        <v>1.901</v>
       </c>
       <c r="E116" t="n">
-        <v>1.938</v>
+        <v>1.881</v>
       </c>
       <c r="F116" t="n">
-        <v>10000</v>
+        <v>785784</v>
       </c>
       <c r="G116" t="n">
-        <v>-6228217.20834185</v>
+        <v>-18737287.96044185</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4468,28 +4799,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.938</v>
+        <v>1.89</v>
       </c>
       <c r="C117" t="n">
-        <v>1.938</v>
+        <v>1.89</v>
       </c>
       <c r="D117" t="n">
-        <v>1.938</v>
+        <v>1.89</v>
       </c>
       <c r="E117" t="n">
-        <v>1.938</v>
+        <v>1.89</v>
       </c>
       <c r="F117" t="n">
-        <v>670684.8976</v>
+        <v>32036.3506</v>
       </c>
       <c r="G117" t="n">
-        <v>-6228217.20834185</v>
+        <v>-18705251.60984185</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4503,28 +4835,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.918</v>
+        <v>1.897</v>
       </c>
       <c r="C118" t="n">
-        <v>1.911</v>
+        <v>1.878</v>
       </c>
       <c r="D118" t="n">
-        <v>1.936</v>
+        <v>1.897</v>
       </c>
       <c r="E118" t="n">
-        <v>1.911</v>
+        <v>1.878</v>
       </c>
       <c r="F118" t="n">
-        <v>916327.7825</v>
+        <v>764683</v>
       </c>
       <c r="G118" t="n">
-        <v>-7144544.99084185</v>
+        <v>-19469934.60984185</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4538,28 +4871,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.936</v>
+        <v>1.897</v>
       </c>
       <c r="C119" t="n">
-        <v>1.911</v>
+        <v>1.897</v>
       </c>
       <c r="D119" t="n">
-        <v>1.937</v>
+        <v>1.897</v>
       </c>
       <c r="E119" t="n">
-        <v>1.911</v>
+        <v>1.879</v>
       </c>
       <c r="F119" t="n">
-        <v>1329255.88</v>
+        <v>743699.88</v>
       </c>
       <c r="G119" t="n">
-        <v>-7144544.99084185</v>
+        <v>-18726234.72984185</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4573,28 +4907,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.936</v>
+        <v>1.899</v>
       </c>
       <c r="C120" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="D120" t="n">
-        <v>1.936</v>
+        <v>1.899</v>
       </c>
       <c r="E120" t="n">
-        <v>1.91</v>
+        <v>1.899</v>
       </c>
       <c r="F120" t="n">
-        <v>793869.0592</v>
+        <v>264</v>
       </c>
       <c r="G120" t="n">
-        <v>-7938414.05004185</v>
+        <v>-18725970.72984185</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4608,203 +4943,239 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.936</v>
+        <v>1.897</v>
       </c>
       <c r="C121" t="n">
-        <v>1.905</v>
+        <v>1.879</v>
       </c>
       <c r="D121" t="n">
-        <v>1.936</v>
+        <v>1.897</v>
       </c>
       <c r="E121" t="n">
-        <v>1.905</v>
+        <v>1.879</v>
       </c>
       <c r="F121" t="n">
-        <v>818129</v>
+        <v>812937</v>
       </c>
       <c r="G121" t="n">
-        <v>-8756543.050041851</v>
+        <v>-19538907.72984185</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1.899</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.905</v>
+        <v>1.898</v>
       </c>
       <c r="C122" t="n">
-        <v>1.937</v>
+        <v>1.898</v>
       </c>
       <c r="D122" t="n">
-        <v>1.937</v>
+        <v>1.898</v>
       </c>
       <c r="E122" t="n">
-        <v>1.905</v>
+        <v>1.898</v>
       </c>
       <c r="F122" t="n">
-        <v>71759.745</v>
+        <v>264</v>
       </c>
       <c r="G122" t="n">
-        <v>-8684783.305041851</v>
+        <v>-19538643.72984185</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1.879</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.932</v>
+        <v>1.88</v>
       </c>
       <c r="C123" t="n">
-        <v>1.905</v>
+        <v>1.88</v>
       </c>
       <c r="D123" t="n">
-        <v>1.932</v>
+        <v>1.88</v>
       </c>
       <c r="E123" t="n">
-        <v>1.905</v>
+        <v>1.88</v>
       </c>
       <c r="F123" t="n">
-        <v>640733</v>
+        <v>292</v>
       </c>
       <c r="G123" t="n">
-        <v>-9325516.305041851</v>
+        <v>-19538935.72984185</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1.898</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.932</v>
+        <v>1.899</v>
       </c>
       <c r="C124" t="n">
-        <v>1.905</v>
+        <v>1.881</v>
       </c>
       <c r="D124" t="n">
-        <v>1.932</v>
+        <v>1.899</v>
       </c>
       <c r="E124" t="n">
-        <v>1.905</v>
+        <v>1.881</v>
       </c>
       <c r="F124" t="n">
-        <v>643497</v>
+        <v>2281.1859</v>
       </c>
       <c r="G124" t="n">
-        <v>-9325516.305041851</v>
+        <v>-19536654.54394186</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1.88</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.919</v>
+        <v>1.899</v>
       </c>
       <c r="C125" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="D125" t="n">
-        <v>1.932</v>
+        <v>1.9</v>
       </c>
       <c r="E125" t="n">
-        <v>1.905</v>
+        <v>1.899</v>
       </c>
       <c r="F125" t="n">
-        <v>681857.88</v>
+        <v>201185.737</v>
       </c>
       <c r="G125" t="n">
-        <v>-9325516.305041851</v>
+        <v>-19335468.80694186</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.881</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.934</v>
+        <v>1.899</v>
       </c>
       <c r="C126" t="n">
-        <v>1.934</v>
+        <v>1.899</v>
       </c>
       <c r="D126" t="n">
-        <v>1.934</v>
+        <v>1.899</v>
       </c>
       <c r="E126" t="n">
-        <v>1.934</v>
+        <v>1.899</v>
       </c>
       <c r="F126" t="n">
-        <v>259</v>
+        <v>76969.03</v>
       </c>
       <c r="G126" t="n">
-        <v>-9325257.305041851</v>
+        <v>-19412437.83694186</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4814,32 +5185,37 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.934</v>
+        <v>1.9</v>
       </c>
       <c r="C127" t="n">
-        <v>1.935</v>
+        <v>1.9</v>
       </c>
       <c r="D127" t="n">
-        <v>1.935</v>
+        <v>1.9</v>
       </c>
       <c r="E127" t="n">
-        <v>1.934</v>
+        <v>1.9</v>
       </c>
       <c r="F127" t="n">
-        <v>10241</v>
+        <v>20700.1304</v>
       </c>
       <c r="G127" t="n">
-        <v>-9315016.305041851</v>
+        <v>-19391737.70654186</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4849,32 +5225,37 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.933</v>
+        <v>1.902</v>
       </c>
       <c r="C128" t="n">
-        <v>1.905</v>
+        <v>1.882</v>
       </c>
       <c r="D128" t="n">
-        <v>1.933</v>
+        <v>1.902</v>
       </c>
       <c r="E128" t="n">
-        <v>1.905</v>
+        <v>1.882</v>
       </c>
       <c r="F128" t="n">
-        <v>803989</v>
+        <v>670420</v>
       </c>
       <c r="G128" t="n">
-        <v>-10119005.30504185</v>
+        <v>-20062157.70654186</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4884,10 +5265,15 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4906,10 +5292,10 @@
         <v>1.904</v>
       </c>
       <c r="F129" t="n">
-        <v>12168.6776</v>
+        <v>264</v>
       </c>
       <c r="G129" t="n">
-        <v>-10131173.98264185</v>
+        <v>-20061893.70654186</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4919,32 +5305,37 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.935</v>
+        <v>1.904</v>
       </c>
       <c r="C130" t="n">
-        <v>1.935</v>
+        <v>1.904</v>
       </c>
       <c r="D130" t="n">
-        <v>1.935</v>
+        <v>1.904</v>
       </c>
       <c r="E130" t="n">
-        <v>1.935</v>
+        <v>1.904</v>
       </c>
       <c r="F130" t="n">
-        <v>372.0466</v>
+        <v>538413.3944</v>
       </c>
       <c r="G130" t="n">
-        <v>-10130801.93604185</v>
+        <v>-20061893.70654186</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4954,32 +5345,37 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.933</v>
+        <v>1.927</v>
       </c>
       <c r="C131" t="n">
-        <v>1.905</v>
+        <v>1.927</v>
       </c>
       <c r="D131" t="n">
-        <v>1.933</v>
+        <v>1.927</v>
       </c>
       <c r="E131" t="n">
-        <v>1.905</v>
+        <v>1.927</v>
       </c>
       <c r="F131" t="n">
-        <v>755613</v>
+        <v>260</v>
       </c>
       <c r="G131" t="n">
-        <v>-10886414.93604185</v>
+        <v>-20061633.70654186</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4989,32 +5385,37 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.935</v>
+        <v>1.92</v>
       </c>
       <c r="C132" t="n">
-        <v>1.935</v>
+        <v>1.92</v>
       </c>
       <c r="D132" t="n">
-        <v>1.935</v>
+        <v>1.92</v>
       </c>
       <c r="E132" t="n">
-        <v>1.935</v>
+        <v>1.92</v>
       </c>
       <c r="F132" t="n">
-        <v>170287.6994</v>
+        <v>1100</v>
       </c>
       <c r="G132" t="n">
-        <v>-10716127.23664185</v>
+        <v>-20062733.70654186</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5024,32 +5425,37 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.935</v>
+        <v>1.927</v>
       </c>
       <c r="C133" t="n">
-        <v>1.907</v>
+        <v>1.911</v>
       </c>
       <c r="D133" t="n">
-        <v>1.935</v>
+        <v>1.937</v>
       </c>
       <c r="E133" t="n">
-        <v>1.907</v>
+        <v>1.911</v>
       </c>
       <c r="F133" t="n">
-        <v>768410.79</v>
+        <v>721985</v>
       </c>
       <c r="G133" t="n">
-        <v>-11484538.02664185</v>
+        <v>-20784718.70654186</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5059,32 +5465,37 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.936</v>
+        <v>1.93</v>
       </c>
       <c r="C134" t="n">
-        <v>1.908</v>
+        <v>1.93</v>
       </c>
       <c r="D134" t="n">
-        <v>1.937</v>
+        <v>1.93</v>
       </c>
       <c r="E134" t="n">
-        <v>1.908</v>
+        <v>1.93</v>
       </c>
       <c r="F134" t="n">
-        <v>1287767.88</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
-        <v>-10196770.14664185</v>
+        <v>-20784458.70654186</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5094,32 +5505,37 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.936</v>
+        <v>1.911</v>
       </c>
       <c r="C135" t="n">
-        <v>1.909</v>
+        <v>1.883</v>
       </c>
       <c r="D135" t="n">
-        <v>1.937</v>
+        <v>1.911</v>
       </c>
       <c r="E135" t="n">
-        <v>1.909</v>
+        <v>1.883</v>
       </c>
       <c r="F135" t="n">
-        <v>1492976.88</v>
+        <v>415433</v>
       </c>
       <c r="G135" t="n">
-        <v>-8703793.266641855</v>
+        <v>-21199891.70654186</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5129,32 +5545,37 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.938</v>
+        <v>1.89</v>
       </c>
       <c r="C136" t="n">
-        <v>1.938</v>
+        <v>1.883</v>
       </c>
       <c r="D136" t="n">
-        <v>1.938</v>
+        <v>1.89</v>
       </c>
       <c r="E136" t="n">
-        <v>1.938</v>
+        <v>1.883</v>
       </c>
       <c r="F136" t="n">
-        <v>342.333</v>
+        <v>36928</v>
       </c>
       <c r="G136" t="n">
-        <v>-8703450.933641855</v>
+        <v>-21199891.70654186</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5164,32 +5585,37 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.936</v>
+        <v>1.886</v>
       </c>
       <c r="C137" t="n">
-        <v>1.908</v>
+        <v>1.886</v>
       </c>
       <c r="D137" t="n">
-        <v>1.936</v>
+        <v>1.886</v>
       </c>
       <c r="E137" t="n">
-        <v>1.908</v>
+        <v>1.886</v>
       </c>
       <c r="F137" t="n">
-        <v>609818</v>
+        <v>265.1114</v>
       </c>
       <c r="G137" t="n">
-        <v>-9313268.933641855</v>
+        <v>-21199626.59514186</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5199,32 +5625,37 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.938</v>
+        <v>1.886</v>
       </c>
       <c r="C138" t="n">
-        <v>1.938</v>
+        <v>1.886</v>
       </c>
       <c r="D138" t="n">
-        <v>1.938</v>
+        <v>1.886</v>
       </c>
       <c r="E138" t="n">
-        <v>1.938</v>
+        <v>1.886</v>
       </c>
       <c r="F138" t="n">
-        <v>308.0997</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>-9312960.833941855</v>
+        <v>-21199626.59514186</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5234,67 +5665,79 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.936</v>
+        <v>1.889</v>
       </c>
       <c r="C139" t="n">
-        <v>1.906</v>
+        <v>1.889</v>
       </c>
       <c r="D139" t="n">
-        <v>1.936</v>
+        <v>1.889</v>
       </c>
       <c r="E139" t="n">
-        <v>1.906</v>
+        <v>1.889</v>
       </c>
       <c r="F139" t="n">
-        <v>789202</v>
+        <v>1078.8599</v>
       </c>
       <c r="G139" t="n">
-        <v>-10102162.83394185</v>
+        <v>-21198547.73524186</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1.886</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.906</v>
+        <v>1.898</v>
       </c>
       <c r="C140" t="n">
-        <v>1.906</v>
+        <v>1.898</v>
       </c>
       <c r="D140" t="n">
-        <v>1.906</v>
+        <v>1.898</v>
       </c>
       <c r="E140" t="n">
-        <v>1.906</v>
+        <v>1.898</v>
       </c>
       <c r="F140" t="n">
-        <v>106088.99</v>
+        <v>482.6056</v>
       </c>
       <c r="G140" t="n">
-        <v>-10102162.83394185</v>
+        <v>-21198065.12964186</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5304,67 +5747,79 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="C141" t="n">
-        <v>1.935</v>
+        <v>1.919</v>
       </c>
       <c r="D141" t="n">
-        <v>1.935</v>
+        <v>1.919</v>
       </c>
       <c r="E141" t="n">
-        <v>1.906</v>
+        <v>1.91</v>
       </c>
       <c r="F141" t="n">
-        <v>260</v>
+        <v>104265.8890890047</v>
       </c>
       <c r="G141" t="n">
-        <v>-10101902.83394185</v>
+        <v>-21093799.24055285</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1.898</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.933</v>
+        <v>1.902</v>
       </c>
       <c r="C142" t="n">
-        <v>1.906</v>
+        <v>1.902</v>
       </c>
       <c r="D142" t="n">
-        <v>1.936</v>
+        <v>1.902</v>
       </c>
       <c r="E142" t="n">
-        <v>1.906</v>
+        <v>1.902</v>
       </c>
       <c r="F142" t="n">
-        <v>1358824.88</v>
+        <v>10058.45</v>
       </c>
       <c r="G142" t="n">
-        <v>-11460727.71394185</v>
+        <v>-21103857.69055285</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5374,32 +5829,37 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.905</v>
+        <v>1.901</v>
       </c>
       <c r="C143" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="D143" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="E143" t="n">
-        <v>1.905</v>
+        <v>1.901</v>
       </c>
       <c r="F143" t="n">
-        <v>1572.1733</v>
+        <v>62088.5195</v>
       </c>
       <c r="G143" t="n">
-        <v>-11459155.54064185</v>
+        <v>-21165946.21005285</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5409,32 +5869,37 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.91</v>
+        <v>1.901</v>
       </c>
       <c r="C144" t="n">
-        <v>1.905</v>
+        <v>1.918</v>
       </c>
       <c r="D144" t="n">
-        <v>1.937</v>
+        <v>1.918</v>
       </c>
       <c r="E144" t="n">
-        <v>1.905</v>
+        <v>1.901</v>
       </c>
       <c r="F144" t="n">
-        <v>815147.8277</v>
+        <v>4868.882168925965</v>
       </c>
       <c r="G144" t="n">
-        <v>-12274303.36834185</v>
+        <v>-21161077.32788393</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5444,32 +5909,37 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.927</v>
+        <v>1.918</v>
       </c>
       <c r="C145" t="n">
-        <v>1.907</v>
+        <v>1.918</v>
       </c>
       <c r="D145" t="n">
-        <v>1.927</v>
+        <v>1.918</v>
       </c>
       <c r="E145" t="n">
-        <v>1.907</v>
+        <v>1.918</v>
       </c>
       <c r="F145" t="n">
-        <v>685778</v>
+        <v>7131.117831074035</v>
       </c>
       <c r="G145" t="n">
-        <v>-11588525.36834185</v>
+        <v>-21161077.32788393</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5479,32 +5949,37 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.906</v>
+        <v>1.918</v>
       </c>
       <c r="C146" t="n">
-        <v>1.88</v>
+        <v>1.918</v>
       </c>
       <c r="D146" t="n">
-        <v>1.906</v>
+        <v>1.918</v>
       </c>
       <c r="E146" t="n">
-        <v>1.88</v>
+        <v>1.918</v>
       </c>
       <c r="F146" t="n">
-        <v>2001985.9447</v>
+        <v>2868.882168925964</v>
       </c>
       <c r="G146" t="n">
-        <v>-13590511.31304185</v>
+        <v>-21161077.32788393</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5514,32 +5989,37 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.926</v>
+        <v>1.902</v>
       </c>
       <c r="C147" t="n">
-        <v>1.89</v>
+        <v>1.902</v>
       </c>
       <c r="D147" t="n">
-        <v>1.926</v>
+        <v>1.902</v>
       </c>
       <c r="E147" t="n">
-        <v>1.89</v>
+        <v>1.902</v>
       </c>
       <c r="F147" t="n">
-        <v>10092.2402</v>
+        <v>17172.6467</v>
       </c>
       <c r="G147" t="n">
-        <v>-13580419.07284185</v>
+        <v>-21178249.97458392</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5549,32 +6029,37 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="C148" t="n">
-        <v>1.862</v>
+        <v>1.901</v>
       </c>
       <c r="D148" t="n">
-        <v>1.88</v>
+        <v>1.901</v>
       </c>
       <c r="E148" t="n">
-        <v>1.862</v>
+        <v>1.901</v>
       </c>
       <c r="F148" t="n">
-        <v>2752827.1952</v>
+        <v>117864.5724</v>
       </c>
       <c r="G148" t="n">
-        <v>-16333246.26804185</v>
+        <v>-21296114.54698392</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5584,32 +6069,37 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.863</v>
+        <v>1.89</v>
       </c>
       <c r="C149" t="n">
-        <v>1.862</v>
+        <v>1.916</v>
       </c>
       <c r="D149" t="n">
-        <v>1.863</v>
+        <v>1.916</v>
       </c>
       <c r="E149" t="n">
-        <v>1.862</v>
+        <v>1.887</v>
       </c>
       <c r="F149" t="n">
-        <v>252381.4074</v>
+        <v>833075.0921</v>
       </c>
       <c r="G149" t="n">
-        <v>-16333246.26804185</v>
+        <v>-20463039.45488393</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5619,32 +6109,37 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.866</v>
+        <v>1.916</v>
       </c>
       <c r="C150" t="n">
-        <v>1.919</v>
+        <v>1.916</v>
       </c>
       <c r="D150" t="n">
-        <v>1.919</v>
+        <v>1.916</v>
       </c>
       <c r="E150" t="n">
-        <v>1.866</v>
+        <v>1.916</v>
       </c>
       <c r="F150" t="n">
-        <v>2261</v>
+        <v>1043.84133611691</v>
       </c>
       <c r="G150" t="n">
-        <v>-16330985.26804185</v>
+        <v>-20463039.45488393</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5654,32 +6149,37 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.913</v>
+        <v>1.89</v>
       </c>
       <c r="C151" t="n">
-        <v>1.897</v>
+        <v>1.89</v>
       </c>
       <c r="D151" t="n">
-        <v>1.913</v>
+        <v>1.89</v>
       </c>
       <c r="E151" t="n">
-        <v>1.872</v>
+        <v>1.89</v>
       </c>
       <c r="F151" t="n">
-        <v>774227.88</v>
+        <v>35683.5244</v>
       </c>
       <c r="G151" t="n">
-        <v>-17105213.14804186</v>
+        <v>-20498722.97928393</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5689,242 +6189,289 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.896</v>
+        <v>1.89</v>
       </c>
       <c r="C152" t="n">
-        <v>1.872</v>
+        <v>1.89</v>
       </c>
       <c r="D152" t="n">
-        <v>1.896</v>
+        <v>1.89</v>
       </c>
       <c r="E152" t="n">
-        <v>1.872</v>
+        <v>1.89</v>
       </c>
       <c r="F152" t="n">
-        <v>846979.932</v>
+        <v>35683.5245</v>
       </c>
       <c r="G152" t="n">
-        <v>-17952193.08004186</v>
+        <v>-20498722.97928393</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="C153" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="D153" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="E153" t="n">
-        <v>1.905</v>
+        <v>1.9</v>
       </c>
       <c r="F153" t="n">
-        <v>264</v>
+        <v>798.7021999999999</v>
       </c>
       <c r="G153" t="n">
-        <v>-17951929.08004186</v>
+        <v>-20497924.27708393</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.875</v>
+        <v>1.909</v>
       </c>
       <c r="C154" t="n">
-        <v>1.875</v>
+        <v>1.909</v>
       </c>
       <c r="D154" t="n">
-        <v>1.875</v>
+        <v>1.909</v>
       </c>
       <c r="E154" t="n">
-        <v>1.875</v>
+        <v>1.909</v>
       </c>
       <c r="F154" t="n">
-        <v>1000</v>
+        <v>90029.527</v>
       </c>
       <c r="G154" t="n">
-        <v>-17952929.08004186</v>
+        <v>-20407894.75008393</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1.9</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="C155" t="n">
-        <v>1.889</v>
+        <v>1.917</v>
       </c>
       <c r="D155" t="n">
-        <v>1.889</v>
+        <v>1.917</v>
       </c>
       <c r="E155" t="n">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="F155" t="n">
-        <v>1425.1196</v>
+        <v>16041.4989</v>
       </c>
       <c r="G155" t="n">
-        <v>-17951503.96044185</v>
+        <v>-20391853.25118393</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1.909</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.889</v>
+        <v>1.917</v>
       </c>
       <c r="C156" t="n">
-        <v>1.889</v>
+        <v>1.917</v>
       </c>
       <c r="D156" t="n">
-        <v>1.889</v>
+        <v>1.917</v>
       </c>
       <c r="E156" t="n">
-        <v>1.889</v>
+        <v>1.917</v>
       </c>
       <c r="F156" t="n">
-        <v>444</v>
+        <v>9739</v>
       </c>
       <c r="G156" t="n">
-        <v>-17951503.96044185</v>
+        <v>-20391853.25118393</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1.917</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.889</v>
+        <v>1.916</v>
       </c>
       <c r="C157" t="n">
-        <v>1.889</v>
+        <v>1.896</v>
       </c>
       <c r="D157" t="n">
-        <v>1.889</v>
+        <v>1.916</v>
       </c>
       <c r="E157" t="n">
-        <v>1.889</v>
+        <v>1.896</v>
       </c>
       <c r="F157" t="n">
-        <v>1332</v>
+        <v>634545</v>
       </c>
       <c r="G157" t="n">
-        <v>-17951503.96044185</v>
+        <v>-21026398.25118393</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1.917</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.901</v>
+        <v>1.895</v>
       </c>
       <c r="C158" t="n">
-        <v>1.881</v>
+        <v>1.895</v>
       </c>
       <c r="D158" t="n">
-        <v>1.901</v>
+        <v>1.895</v>
       </c>
       <c r="E158" t="n">
-        <v>1.881</v>
+        <v>1.895</v>
       </c>
       <c r="F158" t="n">
-        <v>785784</v>
+        <v>10093.626</v>
       </c>
       <c r="G158" t="n">
-        <v>-18737287.96044185</v>
+        <v>-21036491.87718393</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5934,32 +6481,37 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="C159" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="D159" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="E159" t="n">
-        <v>1.89</v>
+        <v>1.895</v>
       </c>
       <c r="F159" t="n">
-        <v>32036.3506</v>
+        <v>73263</v>
       </c>
       <c r="G159" t="n">
-        <v>-18705251.60984185</v>
+        <v>-20963228.87718393</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -5968,89 +6520,93 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="K159" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L159" t="inlineStr"/>
+        <v>1.895</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="C160" t="n">
-        <v>1.878</v>
+        <v>1.91</v>
       </c>
       <c r="D160" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="E160" t="n">
-        <v>1.878</v>
+        <v>1.91</v>
       </c>
       <c r="F160" t="n">
-        <v>764683</v>
+        <v>15684.3381</v>
       </c>
       <c r="G160" t="n">
-        <v>-19469934.60984185</v>
+        <v>-20963228.87718393</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="J160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.897</v>
+        <v>1.919</v>
       </c>
       <c r="C161" t="n">
-        <v>1.897</v>
+        <v>1.919</v>
       </c>
       <c r="D161" t="n">
-        <v>1.897</v>
+        <v>1.919</v>
       </c>
       <c r="E161" t="n">
-        <v>1.879</v>
+        <v>1.919</v>
       </c>
       <c r="F161" t="n">
-        <v>743699.88</v>
+        <v>261</v>
       </c>
       <c r="G161" t="n">
-        <v>-18726234.72984185</v>
+        <v>-20962967.87718393</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="J161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6059,28 +6615,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="C162" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="D162" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="E162" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="F162" t="n">
-        <v>264</v>
+        <v>32000</v>
       </c>
       <c r="G162" t="n">
-        <v>-18725970.72984185</v>
+        <v>-20962967.87718393</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6089,9 +6646,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,41 +6655,38 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="C163" t="n">
-        <v>1.879</v>
+        <v>1.9</v>
       </c>
       <c r="D163" t="n">
-        <v>1.897</v>
+        <v>1.91</v>
       </c>
       <c r="E163" t="n">
-        <v>1.879</v>
+        <v>1.9</v>
       </c>
       <c r="F163" t="n">
-        <v>812937</v>
+        <v>52331.2264</v>
       </c>
       <c r="G163" t="n">
-        <v>-19538907.72984185</v>
+        <v>-21015299.10358392</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K163" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6143,39 +6695,40 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.898</v>
+        <v>1.89</v>
       </c>
       <c r="C164" t="n">
-        <v>1.898</v>
+        <v>1.901</v>
       </c>
       <c r="D164" t="n">
-        <v>1.898</v>
+        <v>1.917</v>
       </c>
       <c r="E164" t="n">
-        <v>1.898</v>
+        <v>1.89</v>
       </c>
       <c r="F164" t="n">
-        <v>264</v>
+        <v>918333.6217</v>
       </c>
       <c r="G164" t="n">
-        <v>-19538643.72984185</v>
+        <v>-20096965.48188392</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="J164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6184,39 +6737,40 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.88</v>
+        <v>1.918</v>
       </c>
       <c r="C165" t="n">
-        <v>1.88</v>
+        <v>1.919</v>
       </c>
       <c r="D165" t="n">
-        <v>1.88</v>
+        <v>1.919</v>
       </c>
       <c r="E165" t="n">
-        <v>1.88</v>
+        <v>1.918</v>
       </c>
       <c r="F165" t="n">
-        <v>292</v>
+        <v>1001</v>
       </c>
       <c r="G165" t="n">
-        <v>-19538935.72984185</v>
+        <v>-20095964.48188392</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="J165" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6225,39 +6779,40 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.899</v>
+        <v>1.918</v>
       </c>
       <c r="C166" t="n">
-        <v>1.881</v>
+        <v>1.919</v>
       </c>
       <c r="D166" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="E166" t="n">
-        <v>1.881</v>
+        <v>1.918</v>
       </c>
       <c r="F166" t="n">
-        <v>2281.1859</v>
+        <v>2262</v>
       </c>
       <c r="G166" t="n">
-        <v>-19536654.54394186</v>
+        <v>-20095964.48188392</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="J166" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6266,28 +6821,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="C167" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="D167" t="n">
-        <v>1.9</v>
+        <v>1.919</v>
       </c>
       <c r="E167" t="n">
-        <v>1.899</v>
+        <v>1.919</v>
       </c>
       <c r="F167" t="n">
-        <v>201185.737</v>
+        <v>522</v>
       </c>
       <c r="G167" t="n">
-        <v>-19335468.80694186</v>
+        <v>-20095964.48188392</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6296,9 +6852,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6307,28 +6861,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.899</v>
+        <v>1.918</v>
       </c>
       <c r="C168" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="D168" t="n">
-        <v>1.899</v>
+        <v>1.918</v>
       </c>
       <c r="E168" t="n">
-        <v>1.899</v>
+        <v>1.89</v>
       </c>
       <c r="F168" t="n">
-        <v>76969.03</v>
+        <v>748816.6997</v>
       </c>
       <c r="G168" t="n">
-        <v>-19412437.83694186</v>
+        <v>-20844781.18158393</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6337,9 +6892,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6348,28 +6901,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="C169" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="D169" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="E169" t="n">
-        <v>1.9</v>
+        <v>1.918</v>
       </c>
       <c r="F169" t="n">
-        <v>20700.1304</v>
+        <v>261</v>
       </c>
       <c r="G169" t="n">
-        <v>-19391737.70654186</v>
+        <v>-20844520.18158393</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6378,9 +6932,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,6 +6941,7 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6398,19 +6951,19 @@
         <v>1.902</v>
       </c>
       <c r="C170" t="n">
-        <v>1.882</v>
+        <v>1.89</v>
       </c>
       <c r="D170" t="n">
-        <v>1.902</v>
+        <v>1.916</v>
       </c>
       <c r="E170" t="n">
-        <v>1.882</v>
+        <v>1.889</v>
       </c>
       <c r="F170" t="n">
-        <v>670420</v>
+        <v>1106242.7304</v>
       </c>
       <c r="G170" t="n">
-        <v>-20062157.70654186</v>
+        <v>-21950762.91198393</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6419,9 +6972,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1.881</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6430,1740 +6981,7 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="D171" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E171" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="F171" t="n">
-        <v>264</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-20061893.70654186</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="E172" t="n">
-        <v>1.904</v>
-      </c>
-      <c r="F172" t="n">
-        <v>538413.3944</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-20061893.70654186</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="D173" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="E173" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="F173" t="n">
-        <v>260</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-20061633.70654186</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="E174" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-20062733.70654186</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>1.927</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="D175" t="n">
-        <v>1.937</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="F175" t="n">
-        <v>721985</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-20784718.70654186</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="D176" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E176" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="F176" t="n">
-        <v>260</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-20784458.70654186</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.911</v>
-      </c>
-      <c r="E177" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="F177" t="n">
-        <v>415433</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-21199891.70654186</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.883</v>
-      </c>
-      <c r="F178" t="n">
-        <v>36928</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-21199891.70654186</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F179" t="n">
-        <v>265.1114</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-21199626.59514186</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.886</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.8885999999999999</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-21199626.59514186</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="D181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1078.8599</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-21198547.73524186</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="D182" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="E182" t="n">
-        <v>1.898</v>
-      </c>
-      <c r="F182" t="n">
-        <v>482.6056</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-21198065.12964186</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E183" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F183" t="n">
-        <v>104265.8890890047</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-21093799.24055285</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F184" t="n">
-        <v>10058.45</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-21103857.69055285</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="E185" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="F185" t="n">
-        <v>62088.5195</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-21165946.21005285</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="F186" t="n">
-        <v>4868.882168925965</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-21161077.32788393</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="E187" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="F187" t="n">
-        <v>7131.117831074035</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-21161077.32788393</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="E188" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="F188" t="n">
-        <v>2868.882168925964</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-21161077.32788393</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="D189" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="E189" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="F189" t="n">
-        <v>17172.6467</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-21178249.97458392</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="D190" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="E190" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="F190" t="n">
-        <v>117864.5724</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-21296114.54698392</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="E191" t="n">
-        <v>1.887</v>
-      </c>
-      <c r="F191" t="n">
-        <v>833075.0921</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-20463039.45488393</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="D192" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="E192" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="F192" t="n">
-        <v>1043.84133611691</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-20463039.45488393</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E193" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F193" t="n">
-        <v>35683.5244</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-20498722.97928393</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F194" t="n">
-        <v>35683.5245</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-20498722.97928393</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E195" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F195" t="n">
-        <v>798.7021999999999</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-20497924.27708393</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K195" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="E196" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="F196" t="n">
-        <v>90029.527</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-20407894.75008393</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K196" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F197" t="n">
-        <v>16041.4989</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-20391853.25118393</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="K197" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E198" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="F198" t="n">
-        <v>9739</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-20391853.25118393</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="E199" t="n">
-        <v>1.896</v>
-      </c>
-      <c r="F199" t="n">
-        <v>634545</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-21026398.25118393</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="E200" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F200" t="n">
-        <v>10093.626</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-21036491.87718393</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E201" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="F201" t="n">
-        <v>73263</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-20963228.87718393</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E202" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F202" t="n">
-        <v>15684.3381</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-20963228.87718393</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="D203" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E203" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="F203" t="n">
-        <v>261</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-20962967.87718393</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="D204" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E204" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="F204" t="n">
-        <v>32000</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-20962967.87718393</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D205" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="E205" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="F205" t="n">
-        <v>52331.2264</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-21015299.10358392</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="D206" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E206" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F206" t="n">
-        <v>918333.6217</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-20096965.48188392</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K206" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="D207" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E207" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1001</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-20095964.48188392</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="K207" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="D208" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E208" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="F208" t="n">
-        <v>2262</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-20095964.48188392</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="K208" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="D209" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1.919</v>
-      </c>
-      <c r="F209" t="n">
-        <v>522</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-20095964.48188392</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D210" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="E210" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F210" t="n">
-        <v>748816.6997</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-20844781.18158393</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="D211" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="E211" t="n">
-        <v>1.918</v>
-      </c>
-      <c r="F211" t="n">
-        <v>261</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-20844520.18158393</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>1.902</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="E212" t="n">
-        <v>1.889</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1106242.7304</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-21950762.91198393</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1.881</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
+      <c r="N170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1150464.035932866</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>518645.7291328664</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7165.000695557392</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-9309.422728890724</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-667043.5116288906</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-667043.5116288906</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1804592.319628891</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1804592.319628891</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1804331.319628891</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4280243.738528891</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4395770.082128891</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4508255.082128891</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4835110.033328891</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4981536.575828891</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5389553.319428891</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5390153.319428891</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5585690.895728891</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5166176.256328891</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,14 +1474,10 @@
         <v>-5079701.932428891</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1514,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1553,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1754,7 +1738,7 @@
         <v>-5938336.10624185</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3239,14 +3223,10 @@
         <v>-1547353.083741849</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.916</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3279,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3318,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3357,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3396,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3435,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3474,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3552,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3588,17 +3520,11 @@
         <v>524320.7862581506</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3630,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3666,17 +3586,11 @@
         <v>7303.478058150574</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3705,17 +3619,11 @@
         <v>21682.86815815057</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3744,19 +3652,13 @@
         <v>19977.26755815057</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1.916</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -3783,7 +3685,7 @@
         <v>64617.34995815057</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3816,7 +3718,7 @@
         <v>-535425.4735418495</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3849,7 +3751,7 @@
         <v>-535425.4735418495</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3882,7 +3784,7 @@
         <v>-513703.1356418495</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3915,7 +3817,7 @@
         <v>-514097.7124418495</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3948,7 +3850,7 @@
         <v>-449579.7183418495</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3981,7 +3883,7 @@
         <v>-485972.7183418495</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4014,7 +3916,7 @@
         <v>-449580.4744418495</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4047,7 +3949,7 @@
         <v>-1575891.46944185</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4080,7 +3982,7 @@
         <v>-1575059.35344185</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4113,7 +4015,7 @@
         <v>-1575580.18674185</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4146,7 +4048,7 @@
         <v>-1575059.35344185</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4179,7 +4081,7 @@
         <v>-2132893.35344185</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4212,7 +4114,7 @@
         <v>-2132635.35344185</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4245,7 +4147,7 @@
         <v>-2691149.35344185</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4278,7 +4180,7 @@
         <v>-2689407.35344185</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4311,7 +4213,7 @@
         <v>-4859576.23344185</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4344,7 +4246,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4377,7 +4279,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4410,7 +4312,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4443,7 +4345,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4476,7 +4378,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4509,7 +4411,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4542,7 +4444,7 @@
         <v>-7027517.47234185</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4674,7 +4576,7 @@
         <v>-2357558.242241851</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4707,7 +4609,7 @@
         <v>-4539181.858741851</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4740,7 +4642,7 @@
         <v>-4538921.858741851</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4773,7 +4675,7 @@
         <v>-4759184.11874185</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4806,7 +4708,7 @@
         <v>-5182142.11874185</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4839,7 +4741,7 @@
         <v>-5181881.11874185</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4872,7 +4774,7 @@
         <v>-5197983.45724185</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4905,7 +4807,7 @@
         <v>-5632298.37784185</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4938,7 +4840,7 @@
         <v>-5632037.37784185</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4971,7 +4873,7 @@
         <v>-5473130.91284185</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5004,7 +4906,7 @@
         <v>-5472869.91284185</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5070,7 +4972,7 @@
         <v>-5472869.91284185</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5169,7 +5071,7 @@
         <v>-7831054.51204185</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5202,7 +5104,7 @@
         <v>-7831054.51204185</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5235,7 +5137,7 @@
         <v>-6238217.20834185</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6093,7 +5995,7 @@
         <v>-10101902.83394185</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -8205,11 +8107,17 @@
         <v>-21015299.10358392</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1.919</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8238,11 +8146,17 @@
         <v>-20096965.48188392</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1.9</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8271,15 +8185,17 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>1.901</v>
       </c>
-      <c r="J236" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8308,17 +8224,15 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>1.919</v>
       </c>
-      <c r="J237" t="n">
-        <v>1.901</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -8349,17 +8263,15 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>1.919</v>
       </c>
-      <c r="J238" t="n">
-        <v>1.901</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L238" t="n">
@@ -8390,17 +8302,15 @@
         <v>-20844781.18158393</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>1.919</v>
       </c>
-      <c r="J239" t="n">
-        <v>1.901</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L239" t="n">
@@ -8431,12 +8341,12 @@
         <v>-20844520.18158393</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>1.901</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8470,12 +8380,12 @@
         <v>-21950762.91198393</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>1.901</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.918</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,6 +8397,6 @@
       <c r="M241" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>518645.7291328664</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-166727.0180671336</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1804592.319628891</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-1804331.319628891</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4508255.082128891</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-4835110.033328891</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-4981536.575828891</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5389553.319428891</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5390153.319428891</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5585690.895728891</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1244778.593441849</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1244778.593441849</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1568228.333541849</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1568228.333541849</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1547353.083741849</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1575891.46944185</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1575059.35344185</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1575580.18674185</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-1575059.35344185</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2132893.35344185</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2132635.35344185</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2691149.35344185</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2689407.35344185</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4859576.23344185</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-7027517.47234185</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2357558.242241851</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4539181.858741851</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4538921.858741851</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4759184.11874185</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-5182142.11874185</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-5181881.11874185</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5197983.45724185</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-5632298.37784185</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-5632037.37784185</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5473130.91284185</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-5472869.91284185</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5472869.91284185</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-7831054.51204185</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-7831054.51204185</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-6238217.20834185</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-10101902.83394185</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -7744,10 +7744,14 @@
         <v>-20498722.97928393</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1.89</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7777,11 +7781,19 @@
         <v>-20497924.27708393</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +7825,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8008,10 +8026,14 @@
         <v>-20963228.87718393</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1.91</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8044,8 +8066,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +8105,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +8141,11 @@
         <v>-21015299.10358392</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8146,17 +8174,11 @@
         <v>-20096965.48188392</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8185,17 +8207,11 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1.901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8224,17 +8240,11 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8263,17 +8273,11 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8302,17 +8306,11 @@
         <v>-20844781.18158393</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8341,17 +8339,11 @@
         <v>-20844520.18158393</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>1.89</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8380,23 +8372,17 @@
         <v>-21950762.91198393</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1.918</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
       <c r="M241" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -847,7 +847,7 @@
         <v>-7165.000695557392</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-9309.422728890724</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-667043.5116288906</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-667043.5116288906</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1244778.593441849</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-1244778.593441849</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1578490.333541849</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1568228.333541849</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-1568228.333541849</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-1547353.083741849</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>524320.7862581506</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1307.615558150574</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>19977.26755815057</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-535425.4735418495</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-513703.1356418495</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-514097.7124418495</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-449579.7183418495</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-485972.7183418495</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-449580.4744418495</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-1575891.46944185</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1575580.18674185</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2691149.35344185</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-2689407.35344185</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4859576.23344185</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4859134.47234185</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-7027517.47234185</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3995323.712341851</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-6793147.592341851</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3664359.095841851</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-2357558.242241851</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4539181.858741851</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4538921.858741851</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4759184.11874185</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-10119005.30504185</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-9313268.933641855</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-9312960.833941855</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-10102162.83394185</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-10102162.83394185</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -7744,14 +7744,10 @@
         <v>-20498722.97928393</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J223" t="n">
-        <v>1.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7781,124 +7777,126 @@
         <v>-20497924.27708393</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J224" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K224" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="F225" t="n">
+        <v>90029.527</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-20407894.75008393</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F226" t="n">
+        <v>16041.4989</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-20391853.25118393</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="E225" t="n">
-        <v>1.909</v>
-      </c>
-      <c r="F225" t="n">
-        <v>90029.527</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-20407894.75008393</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K225" t="inlineStr">
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.917</v>
+      </c>
+      <c r="F227" t="n">
+        <v>9739</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-20391853.25118393</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E226" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="F226" t="n">
-        <v>16041.4989</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-20391853.25118393</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="E227" t="n">
-        <v>1.917</v>
-      </c>
-      <c r="F227" t="n">
-        <v>9739</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-20391853.25118393</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8174,11 +8172,17 @@
         <v>-20096965.48188392</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1.9</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8207,11 +8211,17 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>1.901</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8240,11 +8250,17 @@
         <v>-20095964.48188392</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>1.919</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8277,7 +8293,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8306,11 +8326,17 @@
         <v>-20844781.18158393</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>1.919</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8339,11 +8365,15 @@
         <v>-20844520.18158393</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8372,11 +8402,17 @@
         <v>-21950762.91198393</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1.918</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-11 BackTest AOA.xlsx
+++ b/BackTest/2020-01-11 BackTest AOA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:L241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>685372.7472</v>
       </c>
       <c r="G2" t="n">
-        <v>1150464.035932866</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>631818.3068</v>
       </c>
       <c r="G3" t="n">
-        <v>518645.7291328664</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>685372.7472</v>
       </c>
       <c r="G4" t="n">
-        <v>-166727.0180671336</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>66244.1704</v>
       </c>
       <c r="G5" t="n">
-        <v>-166727.0180671336</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>720.2194</v>
       </c>
       <c r="G6" t="n">
-        <v>-166727.0180671336</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>66244.1704</v>
       </c>
       <c r="G7" t="n">
-        <v>-166727.0180671336</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>94759.2451</v>
       </c>
       <c r="G8" t="n">
-        <v>-166727.0180671336</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>5000</v>
       </c>
       <c r="G9" t="n">
-        <v>-166727.0180671336</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>4000</v>
       </c>
       <c r="G10" t="n">
-        <v>-162727.0180671336</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4129.6501</v>
       </c>
       <c r="G11" t="n">
-        <v>-162727.0180671336</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>257487.6014666667</v>
       </c>
       <c r="G12" t="n">
-        <v>-162727.0180671336</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>472.7998</v>
       </c>
       <c r="G13" t="n">
-        <v>-162254.2182671336</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>155089.2175715762</v>
       </c>
       <c r="G14" t="n">
-        <v>-7165.000695557392</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>2144.422033333333</v>
       </c>
       <c r="G15" t="n">
-        <v>-9309.422728890724</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>657734.0889</v>
       </c>
       <c r="G16" t="n">
-        <v>-667043.5116288906</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>106273.9636</v>
       </c>
       <c r="G17" t="n">
-        <v>-667043.5116288906</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1137548.808</v>
       </c>
       <c r="G18" t="n">
-        <v>-1804592.319628891</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>608.545</v>
       </c>
       <c r="G19" t="n">
-        <v>-1804592.319628891</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>261</v>
       </c>
       <c r="G20" t="n">
-        <v>-1804331.319628891</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2475912.4189</v>
       </c>
       <c r="G21" t="n">
-        <v>-4280243.738528891</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>115526.3436</v>
       </c>
       <c r="G22" t="n">
-        <v>-4395770.082128891</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>112485</v>
       </c>
       <c r="G23" t="n">
-        <v>-4508255.082128891</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>326854.9512</v>
       </c>
       <c r="G24" t="n">
-        <v>-4835110.033328891</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>146426.5425</v>
       </c>
       <c r="G25" t="n">
-        <v>-4981536.575828891</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>408016.7436</v>
       </c>
       <c r="G26" t="n">
-        <v>-5389553.319428891</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>600</v>
       </c>
       <c r="G27" t="n">
-        <v>-5390153.319428891</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>195537.5763</v>
       </c>
       <c r="G28" t="n">
-        <v>-5585690.895728891</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>419514.6394</v>
       </c>
       <c r="G29" t="n">
-        <v>-5166176.256328891</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1192.1383</v>
       </c>
       <c r="G30" t="n">
-        <v>-5167368.394628891</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>27333.7515</v>
       </c>
       <c r="G31" t="n">
-        <v>-5140034.643128891</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>3832.2345</v>
       </c>
       <c r="G32" t="n">
-        <v>-5143866.877628891</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>64164.9452</v>
       </c>
       <c r="G33" t="n">
-        <v>-5079701.932428891</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>87269.3018</v>
       </c>
       <c r="G34" t="n">
-        <v>-5079701.932428891</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>36944.6753</v>
       </c>
       <c r="G35" t="n">
-        <v>-5042757.257128891</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>25409.7662</v>
       </c>
       <c r="G36" t="n">
-        <v>-5068167.023328891</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>30587.6398</v>
       </c>
       <c r="G37" t="n">
-        <v>-5098754.663128891</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,21 @@
         <v>651122.6642</v>
       </c>
       <c r="G38" t="n">
-        <v>-5098754.663128891</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1559,21 @@
         <v>2019707.7215</v>
       </c>
       <c r="G39" t="n">
-        <v>-7118462.384628891</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1595,21 @@
         <v>358961.8849</v>
       </c>
       <c r="G40" t="n">
-        <v>-7477424.269528891</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.855</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1631,21 @@
         <v>1539088.163287041</v>
       </c>
       <c r="G41" t="n">
-        <v>-5938336.10624185</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.854</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1667,19 @@
         <v>5104.6453</v>
       </c>
       <c r="G42" t="n">
-        <v>-5943440.75154185</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1701,19 @@
         <v>213193.591</v>
       </c>
       <c r="G43" t="n">
-        <v>-6156634.34254185</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1735,19 @@
         <v>771.5964</v>
       </c>
       <c r="G44" t="n">
-        <v>-6157405.93894185</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1769,19 @@
         <v>16873.0159</v>
       </c>
       <c r="G45" t="n">
-        <v>-6157405.93894185</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1803,19 @@
         <v>241275.784</v>
       </c>
       <c r="G46" t="n">
-        <v>-6157405.93894185</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1837,19 @@
         <v>117141.7062</v>
       </c>
       <c r="G47" t="n">
-        <v>-6274547.64514185</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1871,19 @@
         <v>1529</v>
       </c>
       <c r="G48" t="n">
-        <v>-6273018.64514185</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1905,19 @@
         <v>183295.175</v>
       </c>
       <c r="G49" t="n">
-        <v>-6456313.82014185</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1939,19 @@
         <v>185660.3815</v>
       </c>
       <c r="G50" t="n">
-        <v>-6270653.43864185</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1973,19 @@
         <v>46135.4192</v>
       </c>
       <c r="G51" t="n">
-        <v>-6224518.01944185</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2007,19 @@
         <v>264</v>
       </c>
       <c r="G52" t="n">
-        <v>-6224254.01944185</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2041,19 @@
         <v>27202.0156</v>
       </c>
       <c r="G53" t="n">
-        <v>-6251456.035041849</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2075,19 @@
         <v>137114.5055</v>
       </c>
       <c r="G54" t="n">
-        <v>-6388570.540541849</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2109,19 @@
         <v>1001789.2431</v>
       </c>
       <c r="G55" t="n">
-        <v>-5386781.297441849</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2143,19 @@
         <v>52560</v>
       </c>
       <c r="G56" t="n">
-        <v>-5439341.297441849</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2177,19 @@
         <v>10911.3334</v>
       </c>
       <c r="G57" t="n">
-        <v>-5428429.96404185</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2211,19 @@
         <v>1930.1546</v>
       </c>
       <c r="G58" t="n">
-        <v>-5428429.96404185</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2245,19 @@
         <v>265.6749</v>
       </c>
       <c r="G59" t="n">
-        <v>-5428429.96404185</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2279,19 @@
         <v>4327112.927</v>
       </c>
       <c r="G60" t="n">
-        <v>-1101317.037041849</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2313,19 @@
         <v>482884.098</v>
       </c>
       <c r="G61" t="n">
-        <v>-1101317.037041849</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2347,19 @@
         <v>25573.5762</v>
       </c>
       <c r="G62" t="n">
-        <v>-1075743.460841849</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2381,19 @@
         <v>111010.3019</v>
       </c>
       <c r="G63" t="n">
-        <v>-1075743.460841849</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2415,19 @@
         <v>165219.2562</v>
       </c>
       <c r="G64" t="n">
-        <v>-1240962.717041849</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2449,19 @@
         <v>9263.8824</v>
       </c>
       <c r="G65" t="n">
-        <v>-1231698.834641849</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2483,19 @@
         <v>1882.1335</v>
       </c>
       <c r="G66" t="n">
-        <v>-1233580.968141849</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2517,19 @@
         <v>15710.8789</v>
       </c>
       <c r="G67" t="n">
-        <v>-1217870.089241849</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2551,19 @@
         <v>505748.371</v>
       </c>
       <c r="G68" t="n">
-        <v>-712121.7182418494</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2585,19 @@
         <v>36550.2599</v>
       </c>
       <c r="G69" t="n">
-        <v>-748671.9781418494</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2619,19 @@
         <v>496106.6153</v>
       </c>
       <c r="G70" t="n">
-        <v>-1244778.593441849</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2653,19 @@
         <v>31520.4041</v>
       </c>
       <c r="G71" t="n">
-        <v>-1244778.593441849</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2687,19 @@
         <v>1000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1243778.593441849</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2721,19 @@
         <v>370000</v>
       </c>
       <c r="G73" t="n">
-        <v>-1613778.593441849</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2755,19 @@
         <v>35288.2599</v>
       </c>
       <c r="G74" t="n">
-        <v>-1578490.333541849</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2789,19 @@
         <v>261.7802</v>
       </c>
       <c r="G75" t="n">
-        <v>-1578490.333541849</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2823,19 @@
         <v>1000</v>
       </c>
       <c r="G76" t="n">
-        <v>-1578490.333541849</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2857,19 @@
         <v>197.3581</v>
       </c>
       <c r="G77" t="n">
-        <v>-1578490.333541849</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2891,19 @@
         <v>64.4221</v>
       </c>
       <c r="G78" t="n">
-        <v>-1578490.333541849</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2925,19 @@
         <v>535.5779</v>
       </c>
       <c r="G79" t="n">
-        <v>-1578490.333541849</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2959,19 @@
         <v>262</v>
       </c>
       <c r="G80" t="n">
-        <v>-1578228.333541849</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2993,19 @@
         <v>1167.7285</v>
       </c>
       <c r="G81" t="n">
-        <v>-1578228.333541849</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3027,19 @@
         <v>10000</v>
       </c>
       <c r="G82" t="n">
-        <v>-1568228.333541849</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3061,19 @@
         <v>2483.8394</v>
       </c>
       <c r="G83" t="n">
-        <v>-1568228.333541849</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3095,19 @@
         <v>10000</v>
       </c>
       <c r="G84" t="n">
-        <v>-1568228.333541849</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3129,19 @@
         <v>20875.2498</v>
       </c>
       <c r="G85" t="n">
-        <v>-1547353.083741849</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3163,19 @@
         <v>20000</v>
       </c>
       <c r="G86" t="n">
-        <v>-1547353.083741849</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3197,19 @@
         <v>10000</v>
       </c>
       <c r="G87" t="n">
-        <v>-1547353.083741849</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3231,19 @@
         <v>2747.394</v>
       </c>
       <c r="G88" t="n">
-        <v>-1550100.477741849</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3265,19 @@
         <v>2225.394</v>
       </c>
       <c r="G89" t="n">
-        <v>-1550100.477741849</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3299,19 @@
         <v>1000</v>
       </c>
       <c r="G90" t="n">
-        <v>-1549100.477741849</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3333,19 @@
         <v>3000</v>
       </c>
       <c r="G91" t="n">
-        <v>-1549100.477741849</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3367,19 @@
         <v>1847000</v>
       </c>
       <c r="G92" t="n">
-        <v>297899.5222581506</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3401,19 @@
         <v>227421.264</v>
       </c>
       <c r="G93" t="n">
-        <v>525320.7862581506</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3435,19 @@
         <v>4088.06</v>
       </c>
       <c r="G94" t="n">
-        <v>525320.7862581506</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3469,19 @@
         <v>1000</v>
       </c>
       <c r="G95" t="n">
-        <v>524320.7862581506</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3503,19 @@
         <v>523013.1707</v>
       </c>
       <c r="G96" t="n">
-        <v>1307.615558150574</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3537,19 @@
         <v>5995.8625</v>
       </c>
       <c r="G97" t="n">
-        <v>7303.478058150574</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3571,19 @@
         <v>14379.3901</v>
       </c>
       <c r="G98" t="n">
-        <v>21682.86815815057</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3605,17 @@
         <v>1705.6006</v>
       </c>
       <c r="G99" t="n">
-        <v>19977.26755815057</v>
-      </c>
-      <c r="H99" t="n">
         <v>2</v>
       </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3637,15 @@
         <v>44640.0824</v>
       </c>
       <c r="G100" t="n">
-        <v>64617.34995815057</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3667,15 @@
         <v>600042.8235000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-535425.4735418495</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3697,15 @@
         <v>15261.8117</v>
       </c>
       <c r="G102" t="n">
-        <v>-535425.4735418495</v>
-      </c>
-      <c r="H102" t="n">
         <v>2</v>
       </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3727,15 @@
         <v>21722.3379</v>
       </c>
       <c r="G103" t="n">
-        <v>-513703.1356418495</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3757,15 @@
         <v>394.5768</v>
       </c>
       <c r="G104" t="n">
-        <v>-514097.7124418495</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3787,15 @@
         <v>64517.9941</v>
       </c>
       <c r="G105" t="n">
-        <v>-449579.7183418495</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3817,15 @@
         <v>36393</v>
       </c>
       <c r="G106" t="n">
-        <v>-485972.7183418495</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3847,15 @@
         <v>36392.2439</v>
       </c>
       <c r="G107" t="n">
-        <v>-449580.4744418495</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3877,15 @@
         <v>1126310.995</v>
       </c>
       <c r="G108" t="n">
-        <v>-1575891.46944185</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3907,15 @@
         <v>832.116</v>
       </c>
       <c r="G109" t="n">
-        <v>-1575059.35344185</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3937,15 @@
         <v>520.8333</v>
       </c>
       <c r="G110" t="n">
-        <v>-1575580.18674185</v>
-      </c>
-      <c r="H110" t="n">
         <v>2</v>
       </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3967,15 @@
         <v>520.8333</v>
       </c>
       <c r="G111" t="n">
-        <v>-1575059.35344185</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3997,15 @@
         <v>557834</v>
       </c>
       <c r="G112" t="n">
-        <v>-2132893.35344185</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4027,15 @@
         <v>258</v>
       </c>
       <c r="G113" t="n">
-        <v>-2132635.35344185</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4057,15 @@
         <v>558514</v>
       </c>
       <c r="G114" t="n">
-        <v>-2691149.35344185</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4087,15 @@
         <v>1742</v>
       </c>
       <c r="G115" t="n">
-        <v>-2689407.35344185</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4117,15 @@
         <v>2170168.88</v>
       </c>
       <c r="G116" t="n">
-        <v>-4859576.23344185</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4147,15 @@
         <v>441.7611</v>
       </c>
       <c r="G117" t="n">
-        <v>-4859134.47234185</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4177,15 @@
         <v>558.2388999999999</v>
       </c>
       <c r="G118" t="n">
-        <v>-4859134.47234185</v>
-      </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4207,15 @@
         <v>12534.538</v>
       </c>
       <c r="G119" t="n">
-        <v>-4859134.47234185</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4237,15 @@
         <v>2465.462</v>
       </c>
       <c r="G120" t="n">
-        <v>-4859134.47234185</v>
-      </c>
-      <c r="H120" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4267,15 @@
         <v>2000</v>
       </c>
       <c r="G121" t="n">
-        <v>-4859134.47234185</v>
-      </c>
-      <c r="H121" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4297,15 @@
         <v>1019.9616</v>
       </c>
       <c r="G122" t="n">
-        <v>-4859134.47234185</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4327,15 @@
         <v>2168383</v>
       </c>
       <c r="G123" t="n">
-        <v>-7027517.47234185</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4357,15 @@
         <v>3032193.76</v>
       </c>
       <c r="G124" t="n">
-        <v>-3995323.712341851</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4387,15 @@
         <v>2797823.88</v>
       </c>
       <c r="G125" t="n">
-        <v>-6793147.592341851</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4417,15 @@
         <v>3128788.4965</v>
       </c>
       <c r="G126" t="n">
-        <v>-3664359.095841851</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4447,15 @@
         <v>1306800.8536</v>
       </c>
       <c r="G127" t="n">
-        <v>-2357558.242241851</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4477,15 @@
         <v>2181623.6165</v>
       </c>
       <c r="G128" t="n">
-        <v>-4539181.858741851</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4507,15 @@
         <v>260</v>
       </c>
       <c r="G129" t="n">
-        <v>-4538921.858741851</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4537,15 @@
         <v>220262.26</v>
       </c>
       <c r="G130" t="n">
-        <v>-4759184.11874185</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4567,15 @@
         <v>422958</v>
       </c>
       <c r="G131" t="n">
-        <v>-5182142.11874185</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4597,15 @@
         <v>261</v>
       </c>
       <c r="G132" t="n">
-        <v>-5181881.11874185</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4627,15 @@
         <v>16102.3385</v>
       </c>
       <c r="G133" t="n">
-        <v>-5197983.45724185</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4657,15 @@
         <v>434314.9206</v>
       </c>
       <c r="G134" t="n">
-        <v>-5632298.37784185</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4687,15 @@
         <v>261</v>
       </c>
       <c r="G135" t="n">
-        <v>-5632037.37784185</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4717,15 @@
         <v>158906.465</v>
       </c>
       <c r="G136" t="n">
-        <v>-5473130.91284185</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4747,15 @@
         <v>261</v>
       </c>
       <c r="G137" t="n">
-        <v>-5472869.91284185</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4777,15 @@
         <v>1443.147</v>
       </c>
       <c r="G138" t="n">
-        <v>-5472869.91284185</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4807,15 @@
         <v>17288.5452</v>
       </c>
       <c r="G139" t="n">
-        <v>-5472869.91284185</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4837,15 @@
         <v>1247774.759</v>
       </c>
       <c r="G140" t="n">
-        <v>-5472869.91284185</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4867,15 @@
         <v>9421.326999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>-5463448.58584185</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4897,15 @@
         <v>2367605.9262</v>
       </c>
       <c r="G142" t="n">
-        <v>-7831054.51204185</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4927,15 @@
         <v>219725.631</v>
       </c>
       <c r="G143" t="n">
-        <v>-7831054.51204185</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4957,15 @@
         <v>1592837.3037</v>
       </c>
       <c r="G144" t="n">
-        <v>-6238217.20834185</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4987,15 @@
         <v>10000</v>
       </c>
       <c r="G145" t="n">
-        <v>-6228217.20834185</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5017,15 @@
         <v>670684.8976</v>
       </c>
       <c r="G146" t="n">
-        <v>-6228217.20834185</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5047,15 @@
         <v>916327.7825</v>
       </c>
       <c r="G147" t="n">
-        <v>-7144544.99084185</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5077,15 @@
         <v>1329255.88</v>
       </c>
       <c r="G148" t="n">
-        <v>-7144544.99084185</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5107,15 @@
         <v>793869.0592</v>
       </c>
       <c r="G149" t="n">
-        <v>-7938414.05004185</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5137,15 @@
         <v>818129</v>
       </c>
       <c r="G150" t="n">
-        <v>-8756543.050041851</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5167,15 @@
         <v>71759.745</v>
       </c>
       <c r="G151" t="n">
-        <v>-8684783.305041851</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5197,15 @@
         <v>640733</v>
       </c>
       <c r="G152" t="n">
-        <v>-9325516.305041851</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5227,15 @@
         <v>643497</v>
       </c>
       <c r="G153" t="n">
-        <v>-9325516.305041851</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5257,15 @@
         <v>681857.88</v>
       </c>
       <c r="G154" t="n">
-        <v>-9325516.305041851</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5287,15 @@
         <v>259</v>
       </c>
       <c r="G155" t="n">
-        <v>-9325257.305041851</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5317,15 @@
         <v>10241</v>
       </c>
       <c r="G156" t="n">
-        <v>-9315016.305041851</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5347,15 @@
         <v>803989</v>
       </c>
       <c r="G157" t="n">
-        <v>-10119005.30504185</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5377,15 @@
         <v>12168.6776</v>
       </c>
       <c r="G158" t="n">
-        <v>-10131173.98264185</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5407,15 @@
         <v>372.0466</v>
       </c>
       <c r="G159" t="n">
-        <v>-10130801.93604185</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5437,15 @@
         <v>755613</v>
       </c>
       <c r="G160" t="n">
-        <v>-10886414.93604185</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5467,15 @@
         <v>170287.6994</v>
       </c>
       <c r="G161" t="n">
-        <v>-10716127.23664185</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5497,15 @@
         <v>768410.79</v>
       </c>
       <c r="G162" t="n">
-        <v>-11484538.02664185</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5527,15 @@
         <v>1287767.88</v>
       </c>
       <c r="G163" t="n">
-        <v>-10196770.14664185</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5557,15 @@
         <v>1492976.88</v>
       </c>
       <c r="G164" t="n">
-        <v>-8703793.266641855</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5587,15 @@
         <v>342.333</v>
       </c>
       <c r="G165" t="n">
-        <v>-8703450.933641855</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5617,15 @@
         <v>609818</v>
       </c>
       <c r="G166" t="n">
-        <v>-9313268.933641855</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5647,15 @@
         <v>308.0997</v>
       </c>
       <c r="G167" t="n">
-        <v>-9312960.833941855</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5677,15 @@
         <v>789202</v>
       </c>
       <c r="G168" t="n">
-        <v>-10102162.83394185</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5707,15 @@
         <v>106088.99</v>
       </c>
       <c r="G169" t="n">
-        <v>-10102162.83394185</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5737,15 @@
         <v>260</v>
       </c>
       <c r="G170" t="n">
-        <v>-10101902.83394185</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5767,15 @@
         <v>1358824.88</v>
       </c>
       <c r="G171" t="n">
-        <v>-11460727.71394185</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5797,15 @@
         <v>1572.1733</v>
       </c>
       <c r="G172" t="n">
-        <v>-11459155.54064185</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5827,15 @@
         <v>815147.8277</v>
       </c>
       <c r="G173" t="n">
-        <v>-12274303.36834185</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5857,15 @@
         <v>685778</v>
       </c>
       <c r="G174" t="n">
-        <v>-11588525.36834185</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5887,15 @@
         <v>2001985.9447</v>
       </c>
       <c r="G175" t="n">
-        <v>-13590511.31304185</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5917,15 @@
         <v>10092.2402</v>
       </c>
       <c r="G176" t="n">
-        <v>-13580419.07284185</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5947,15 @@
         <v>2752827.1952</v>
       </c>
       <c r="G177" t="n">
-        <v>-16333246.26804185</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5977,15 @@
         <v>252381.4074</v>
       </c>
       <c r="G178" t="n">
-        <v>-16333246.26804185</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6007,15 @@
         <v>2261</v>
       </c>
       <c r="G179" t="n">
-        <v>-16330985.26804185</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6037,15 @@
         <v>774227.88</v>
       </c>
       <c r="G180" t="n">
-        <v>-17105213.14804186</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6067,15 @@
         <v>846979.932</v>
       </c>
       <c r="G181" t="n">
-        <v>-17952193.08004186</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6097,15 @@
         <v>264</v>
       </c>
       <c r="G182" t="n">
-        <v>-17951929.08004186</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6127,15 @@
         <v>1000</v>
       </c>
       <c r="G183" t="n">
-        <v>-17952929.08004186</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6157,15 @@
         <v>1425.1196</v>
       </c>
       <c r="G184" t="n">
-        <v>-17951503.96044185</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6187,15 @@
         <v>444</v>
       </c>
       <c r="G185" t="n">
-        <v>-17951503.96044185</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6217,15 @@
         <v>1332</v>
       </c>
       <c r="G186" t="n">
-        <v>-17951503.96044185</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6247,15 @@
         <v>785784</v>
       </c>
       <c r="G187" t="n">
-        <v>-18737287.96044185</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6277,15 @@
         <v>32036.3506</v>
       </c>
       <c r="G188" t="n">
-        <v>-18705251.60984185</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6307,15 @@
         <v>764683</v>
       </c>
       <c r="G189" t="n">
-        <v>-19469934.60984185</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6337,15 @@
         <v>743699.88</v>
       </c>
       <c r="G190" t="n">
-        <v>-18726234.72984185</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6367,15 @@
         <v>264</v>
       </c>
       <c r="G191" t="n">
-        <v>-18725970.72984185</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6397,15 @@
         <v>812937</v>
       </c>
       <c r="G192" t="n">
-        <v>-19538907.72984185</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6427,15 @@
         <v>264</v>
       </c>
       <c r="G193" t="n">
-        <v>-19538643.72984185</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6457,15 @@
         <v>292</v>
       </c>
       <c r="G194" t="n">
-        <v>-19538935.72984185</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6487,15 @@
         <v>2281.1859</v>
       </c>
       <c r="G195" t="n">
-        <v>-19536654.54394186</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6517,15 @@
         <v>201185.737</v>
       </c>
       <c r="G196" t="n">
-        <v>-19335468.80694186</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6547,15 @@
         <v>76969.03</v>
       </c>
       <c r="G197" t="n">
-        <v>-19412437.83694186</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6577,15 @@
         <v>20700.1304</v>
       </c>
       <c r="G198" t="n">
-        <v>-19391737.70654186</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6607,15 @@
         <v>670420</v>
       </c>
       <c r="G199" t="n">
-        <v>-20062157.70654186</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6637,15 @@
         <v>264</v>
       </c>
       <c r="G200" t="n">
-        <v>-20061893.70654186</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6667,15 @@
         <v>538413.3944</v>
       </c>
       <c r="G201" t="n">
-        <v>-20061893.70654186</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6697,15 @@
         <v>260</v>
       </c>
       <c r="G202" t="n">
-        <v>-20061633.70654186</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6727,15 @@
         <v>1100</v>
       </c>
       <c r="G203" t="n">
-        <v>-20062733.70654186</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6757,15 @@
         <v>721985</v>
       </c>
       <c r="G204" t="n">
-        <v>-20784718.70654186</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6787,15 @@
         <v>260</v>
       </c>
       <c r="G205" t="n">
-        <v>-20784458.70654186</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6817,15 @@
         <v>415433</v>
       </c>
       <c r="G206" t="n">
-        <v>-21199891.70654186</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6847,15 @@
         <v>36928</v>
       </c>
       <c r="G207" t="n">
-        <v>-21199891.70654186</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6877,15 @@
         <v>265.1114</v>
       </c>
       <c r="G208" t="n">
-        <v>-21199626.59514186</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6907,15 @@
         <v>0.8885999999999999</v>
       </c>
       <c r="G209" t="n">
-        <v>-21199626.59514186</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6937,15 @@
         <v>1078.8599</v>
       </c>
       <c r="G210" t="n">
-        <v>-21198547.73524186</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6967,15 @@
         <v>482.6056</v>
       </c>
       <c r="G211" t="n">
-        <v>-21198065.12964186</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6997,15 @@
         <v>104265.8890890047</v>
       </c>
       <c r="G212" t="n">
-        <v>-21093799.24055285</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7027,15 @@
         <v>10058.45</v>
       </c>
       <c r="G213" t="n">
-        <v>-21103857.69055285</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7057,15 @@
         <v>62088.5195</v>
       </c>
       <c r="G214" t="n">
-        <v>-21165946.21005285</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7087,15 @@
         <v>4868.882168925965</v>
       </c>
       <c r="G215" t="n">
-        <v>-21161077.32788393</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7117,15 @@
         <v>7131.117831074035</v>
       </c>
       <c r="G216" t="n">
-        <v>-21161077.32788393</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7147,15 @@
         <v>2868.882168925964</v>
       </c>
       <c r="G217" t="n">
-        <v>-21161077.32788393</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7177,15 @@
         <v>17172.6467</v>
       </c>
       <c r="G218" t="n">
-        <v>-21178249.97458392</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7207,15 @@
         <v>117864.5724</v>
       </c>
       <c r="G219" t="n">
-        <v>-21296114.54698392</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7237,15 @@
         <v>833075.0921</v>
       </c>
       <c r="G220" t="n">
-        <v>-20463039.45488393</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7267,15 @@
         <v>1043.84133611691</v>
       </c>
       <c r="G221" t="n">
-        <v>-20463039.45488393</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7297,15 @@
         <v>35683.5244</v>
       </c>
       <c r="G222" t="n">
-        <v>-20498722.97928393</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7327,15 @@
         <v>35683.5245</v>
       </c>
       <c r="G223" t="n">
-        <v>-20498722.97928393</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7357,15 @@
         <v>798.7021999999999</v>
       </c>
       <c r="G224" t="n">
-        <v>-20497924.27708393</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,22 +7387,15 @@
         <v>90029.527</v>
       </c>
       <c r="G225" t="n">
-        <v>-20407894.75008393</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J225" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7844,24 +7417,15 @@
         <v>16041.4989</v>
       </c>
       <c r="G226" t="n">
-        <v>-20391853.25118393</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7883,24 +7447,15 @@
         <v>9739</v>
       </c>
       <c r="G227" t="n">
-        <v>-20391853.25118393</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7922,18 +7477,15 @@
         <v>634545</v>
       </c>
       <c r="G228" t="n">
-        <v>-21026398.25118393</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7955,18 +7507,15 @@
         <v>10093.626</v>
       </c>
       <c r="G229" t="n">
-        <v>-21036491.87718393</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7988,18 +7537,15 @@
         <v>73263</v>
       </c>
       <c r="G230" t="n">
-        <v>-20963228.87718393</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8021,22 +7567,15 @@
         <v>15684.3381</v>
       </c>
       <c r="G231" t="n">
-        <v>-20963228.87718393</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J231" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8058,24 +7597,15 @@
         <v>261</v>
       </c>
       <c r="G232" t="n">
-        <v>-20962967.87718393</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8097,24 +7627,15 @@
         <v>32000</v>
       </c>
       <c r="G233" t="n">
-        <v>-20962967.87718393</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8136,18 +7657,15 @@
         <v>52331.2264</v>
       </c>
       <c r="G234" t="n">
-        <v>-21015299.10358392</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8169,24 +7687,15 @@
         <v>918333.6217</v>
       </c>
       <c r="G235" t="n">
-        <v>-20096965.48188392</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>1.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8208,24 +7717,15 @@
         <v>1001</v>
       </c>
       <c r="G236" t="n">
-        <v>-20095964.48188392</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>1.901</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8247,24 +7747,15 @@
         <v>2262</v>
       </c>
       <c r="G237" t="n">
-        <v>-20095964.48188392</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8286,22 +7777,15 @@
         <v>522</v>
       </c>
       <c r="G238" t="n">
-        <v>-20095964.48188392</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8323,24 +7807,15 @@
         <v>748816.6997</v>
       </c>
       <c r="G239" t="n">
-        <v>-20844781.18158393</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>1.919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8362,22 +7837,15 @@
         <v>261</v>
       </c>
       <c r="G240" t="n">
-        <v>-20844520.18158393</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8399,24 +7867,15 @@
         <v>1106242.7304</v>
       </c>
       <c r="G241" t="n">
-        <v>-21950762.91198393</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1.918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
